--- a/library_catalog.xlsx
+++ b/library_catalog.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I346"/>
+  <dimension ref="A1:I345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8379,7 +8379,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>84-7153-192-5</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -8389,32 +8389,32 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Diccionario francés-español y español-francés</t>
+          <t>Diccionario manual griego-español</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Salvá, Vicente D. (1786-1894)</t>
+          <t>Pabón Suárez de Urbina, José Manuel</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Macland, impr.</t>
+          <t>Biblograf</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t xml:space="preserve">  FRANCES-ESPAÑOL-DICCIONARIO ESPAÑOL-FRANCES-DICCIONARIO</t>
+          <t xml:space="preserve">  GRIEGO-ESPAÑOL-DICCIONARIO ESPAÑOL-GRIEGO-DICCIONARIO</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -8426,7 +8426,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>84-7153-192-5</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -8436,32 +8436,32 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Diccionario manual griego-español</t>
+          <t>Diccionario guaraní-castellano castellano-guaraní</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Pabón Suárez de Urbina, José Manuel</t>
+          <t>Ortiz Mayans, Antonio</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Biblograf</t>
+          <t>Victoria, impr.</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1949</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t xml:space="preserve">  GRIEGO-ESPAÑOL-DICCIONARIO ESPAÑOL-GRIEGO-DICCIONARIO</t>
+          <t xml:space="preserve">  GUARANI LINGÜISTICA-DICCIONARIO ESPAÑOL-GUARANI-DICCIONARIO</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -8483,22 +8483,22 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Diccionario guaraní-castellano castellano-guaraní</t>
+          <t>Diccionario Atlantic inglés-español español-inglés</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Ortiz Mayans, Antonio</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Victoria, impr.</t>
+          <t>Sudamericana</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1949</t>
+          <t>1977</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t xml:space="preserve">  GUARANI LINGÜISTICA-DICCIONARIO ESPAÑOL-GUARANI-DICCIONARIO</t>
+          <t xml:space="preserve">  INGLES-ESPAÑOL-DICCIONARIO ESPAÑOL-INGLES-DICCIONARIO</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -8530,27 +8530,27 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Diccionario Atlantic inglés-español español-inglés</t>
+          <t>Diccionario revisado inglés-español y español-inglés</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Cuyás Armengol, Arturo</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Sudamericana</t>
+          <t>Appleton</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Nueva York</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8592,7 +8592,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>1956</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -8619,42 +8619,42 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Diccionario revisado inglés-español y español-inglés</t>
+          <t>El hombre que compró un automóvil</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Cuyás Armengol, Arturo</t>
+          <t>Fernández-Flórez, Wenceslao</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Appleton</t>
+          <t>Espasa-Calpe</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>1956</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Nueva York</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t xml:space="preserve">  INGLES-ESPAÑOL-DICCIONARIO ESPAÑOL-INGLES-DICCIONARIO</t>
+          <t>- LITERATURA ESPAÑOLA-NOVELA</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>07/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -8666,215 +8666,215 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>El hombre que compró un automóvil</t>
+          <t>Pequeño diccionario español-inglés</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Fernández-Flórez, Wenceslao</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Espasa-Calpe</t>
+          <t>Sopena</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>- LITERATURA ESPAÑOLA-NOVELA</t>
+          <t xml:space="preserve">  INGLES-ESPAÑOL-DICCIONARIO ESPAÑOL-INGLES-DICCIONARIO</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>07/03/1996</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-25-2700-3</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Pequeño diccionario español-inglés</t>
+          <t>Juan Moreira</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Gutiérrez, Eduardo (1851-1889)</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Sopena</t>
+          <t>CEAL</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t xml:space="preserve">  INGLES-ESPAÑOL-DICCIONARIO ESPAÑOL-INGLES-DICCIONARIO</t>
+          <t>- LITERATURA ARGENTINA-NOVELA NOVELA ARGENTINA</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>07/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>950-25-2700-3</t>
+          <t>84-283-l354-7</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Juan Moreira</t>
+          <t>Diccionario técnico inglés-español</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Gutiérrez, Eduardo (1851-1889)</t>
+          <t>Malgorn, Guy</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>CEAL</t>
+          <t>Paraninfo</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-NOVELA NOVELA ARGENTINA</t>
+          <t xml:space="preserve"> INGLES-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>08/03/1996</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>84-283-l354-7</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Diccionario técnico inglés-español</t>
+          <t>El ombú y otros cuentos rioplatenses</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Malgorn, Guy</t>
+          <t>Hudson, Guillermo Enrique (1841-1922)</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Paraninfo</t>
+          <t>Espasa-Calpe</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INGLES-ESPAÑOL-DICCIONARIO</t>
+          <t>- LITERATURA ARGENTINA-CUENTO</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>08/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-02-6320-3</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>El ombú y otros cuentos rioplatenses</t>
+          <t>Diccionario inglés-español español-inglés</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Hudson, Guillermo Enrique (1841-1922)</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Espasa-Calpe</t>
+          <t>El Ateneo</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -8884,19 +8884,19 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-CUENTO</t>
+          <t xml:space="preserve"> INGLES-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>08/03/1996</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>950-02-6320-3</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -8916,22 +8916,22 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>El Ateneo</t>
+          <t>Appleton</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Nueva York</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INGLES-ESPAÑOL-DICCIONARIO</t>
+          <t xml:space="preserve">  INGLES-ESPAÑOL-DICCIONARIO ESPAÑOL-INGLES-DICCIONARIO</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Diccionario inglés-español español-inglés</t>
+          <t>Diccionario práctico inglés-castellano y castellano-inglés</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -8963,17 +8963,17 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Appleton</t>
+          <t>Sopena</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Nueva York</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -8990,7 +8990,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-701-217-6</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -9000,22 +9000,22 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Diccionario práctico inglés-castellano y castellano-inglés</t>
+          <t>Geografía argentina</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Ciccolella, Pablo</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Sopena</t>
+          <t>Aique</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -9025,7 +9025,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t xml:space="preserve">  INGLES-ESPAÑOL-DICCIONARIO ESPAÑOL-INGLES-DICCIONARIO</t>
+          <t xml:space="preserve"> GEOGRAFIA-ARGENTINA-TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -9037,7 +9037,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>950-701-217-6</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -9047,32 +9047,32 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Geografía argentina</t>
+          <t>Tratado de química física</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Ciccolella, Pablo</t>
+          <t>Glasstone, Samuel (1897-1986)</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Aique</t>
+          <t>Aguilar</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GEOGRAFIA-ARGENTINA-TEXTO SECUNDARIO</t>
+          <t xml:space="preserve"> FISICOQUIMICA</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -9094,32 +9094,32 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Tratado de química física</t>
+          <t>Introducción al cálculo de probabilidades</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Glasstone, Samuel (1897-1986)</t>
+          <t>Gnedenko, B.V.; Jinchin, A.I.</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Aguilar</t>
+          <t>Eudeba</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FISICOQUIMICA</t>
+          <t xml:space="preserve"> PROBABILIDAD MATEMATICA</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -9136,27 +9136,27 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Introducción al cálculo de probabilidades</t>
+          <t>Fausto</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Gnedenko, B.V.; Jinchin, A.I.</t>
+          <t>Goethe, Johann Wolfgang von (1749-1832)</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Eudeba</t>
+          <t>CEAL</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>1978</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -9166,7 +9166,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PROBABILIDAD MATEMATICA</t>
+          <t>- LITERATURA ALEMANA-TEATRO TEATRO ALEMAN</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -9188,32 +9188,32 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Fausto</t>
+          <t>Werther</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Goethe, Johann Wolfgang von (1749-1832)</t>
+          <t>Goethe, Johann Wolfgang von (1749-1832); Bravo-Villasante, Carmen (prol.)</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>CEAL</t>
+          <t>Salvat</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Navarra</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>- LITERATURA ALEMANA-TEATRO TEATRO ALEMAN</t>
+          <t>- LITERATURA ALEMANA-NOVELA NOVELA ALEMANA</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -9225,42 +9225,42 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-46-0086-7</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Werther</t>
+          <t>Historia 1</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Goethe, Johann Wolfgang von (1749-1832); Bravo-Villasante, Carmen (prol.)</t>
+          <t>González, Alba Susana; Jáuregui, Pablo; Valle Rodríguez, Irene María del</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Salvat</t>
+          <t>Santillana</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Navarra</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>- LITERATURA ALEMANA-NOVELA NOVELA ALEMANA</t>
+          <t xml:space="preserve"> HISTORIA ANTIGUA-TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -9272,7 +9272,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>950-46-0086-7</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -9282,22 +9282,22 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Historia 1</t>
+          <t>Personalidades de la Argentina : Diccionario biográfico contemporáneo</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>González, Alba Susana; Jáuregui, Pablo; Valle Rodríguez, Irene María del</t>
+          <t>Rizzuto, Francisco Antonio (ed.)</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Santillana</t>
+          <t>Veritas</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -9307,7 +9307,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HISTORIA ANTIGUA-TEXTO SECUNDARIO</t>
+          <t xml:space="preserve"> BIOGRAFIAS-ARGENTINA-DICCIONARIO</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -9329,22 +9329,22 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Personalidades de la Argentina : Diccionario biográfico contemporáneo</t>
+          <t>Diccionario inglés-español español-inglés</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Rizzuto, Francisco Antonio (ed.)</t>
+          <t>Steinhart</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Veritas</t>
+          <t>El Muncial, impr.</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1944</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -9354,7 +9354,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BIOGRAFIAS-ARGENTINA-DICCIONARIO</t>
+          <t xml:space="preserve">  INGLES-ESPAÑOL-DICCIONARIO ESPAÑOL-INGLES-DICCIONARIO</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -9376,27 +9376,27 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Diccionario inglés-español español-inglés</t>
+          <t>Gran diccionario inglés-español</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Steinhart</t>
+          <t>Cuyás Armengol, Arturo</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>El Muncial, impr.</t>
+          <t>HYMSA</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9423,7 +9423,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Gran diccionario inglés-español</t>
+          <t>Nuevo diccionario Cuyás inglés-español español-inglés</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -9433,17 +9433,17 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>HYMSA</t>
+          <t>Appleton</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Nueva York</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9465,42 +9465,42 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Nuevo diccionario Cuyás inglés-español español-inglés</t>
+          <t>El casamiento de Laucha</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Cuyás Armengol, Arturo</t>
+          <t>Payró, Roberto J. (1867-1928)</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Appleton</t>
+          <t>Losada</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Nueva York</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t xml:space="preserve">  INGLES-ESPAÑOL-DICCIONARIO ESPAÑOL-INGLES-DICCIONARIO</t>
+          <t>- LITERATURA ARGENTINA-NOVELA</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>08/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -9512,49 +9512,49 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>El casamiento de Laucha</t>
+          <t>Diccionario de dificultades de inglés</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Payró, Roberto J. (1867-1928)</t>
+          <t>Torrents del Prats, Alfonso</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Losada</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-NOVELA</t>
+          <t xml:space="preserve"> INGLES-DICCIONARIO DIFICULTADES-INGLES-DICCIONARIO</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>08/03/1996</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>84-283-0425-4</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -9564,32 +9564,32 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Diccionario de dificultades de inglés</t>
+          <t>Diccionario de dudas inglés-español</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Torrents del Prats, Alfonso</t>
+          <t>Merino, José</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Paraninfo</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INGLES-DICCIONARIO DIFICULTADES-INGLES-DICCIONARIO</t>
+          <t xml:space="preserve"> INGLES-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -9601,7 +9601,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>84-283-0425-4</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -9611,44 +9611,44 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Diccionario de dudas inglés-español</t>
+          <t>Diccionario de modismos ingleses</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Merino, José</t>
+          <t>Caldwell, Pablo</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Paraninfo</t>
+          <t>Sopena</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INGLES-ESPAÑOL-DICCIONARIO</t>
+          <t xml:space="preserve"> INGLES-MODISMOS-DICCIONARIO</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>08/03/1996</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>84-283-0923-X</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -9658,32 +9658,32 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Diccionario de modismos ingleses</t>
+          <t>Diccionario técnico inglés-español</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Caldwell, Pablo</t>
+          <t>Malgorn, Guy</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Sopena</t>
+          <t>Paraninfo</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INGLES-MODISMOS-DICCIONARIO</t>
+          <t xml:space="preserve"> INGLES-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -9695,7 +9695,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>84-283-0923-X</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -9705,32 +9705,32 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Diccionario técnico inglés-español</t>
+          <t>Diccionario práctico italiano-castellano</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Malgorn, Guy</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Paraninfo</t>
+          <t>Sopena</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1952</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INGLES-ESPAÑOL-DICCIONARIO</t>
+          <t xml:space="preserve">  ITALIANO-ESPAÑOL-DICCIONARIO ESPAÑOL-ITALIANO-DICCIONARIO</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -9752,12 +9752,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Diccionario práctico italiano-castellano</t>
+          <t>Diccionario italiano-español español-italiano : Dizionario italiano-spagnolo e spagnolo-italiano</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Martinez Amador, Emilio M.</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -9767,12 +9767,12 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>1952</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9799,32 +9799,32 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Diccionario italiano-español español-italiano : Dizionario italiano-spagnolo e spagnolo-italiano</t>
+          <t>Manual de la conversación y del estilo epistolar :  Español-italiano</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Martinez Amador, Emilio M.</t>
+          <t>Corona Bustamante, F.; Vitali, G.</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Sopena</t>
+          <t>Garnier</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>(19--)</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>París</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ITALIANO-ESPAÑOL-DICCIONARIO ESPAÑOL-ITALIANO-DICCIONARIO</t>
+          <t xml:space="preserve">  ESPAÑOL-ORATORIA ITALIANO-ORATORIA</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -9846,32 +9846,32 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Manual de la conversación y del estilo epistolar :  Español-italiano</t>
+          <t>Nuovo dizionario spagnolo-italiano e italiano-spagnolo</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Corona Bustamante, F.; Vitali, G.</t>
+          <t>Ambruzzi, Lucio</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Garnier</t>
+          <t>Paravia</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>(19--)</t>
+          <t>1971</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>París</t>
+          <t>Turín</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ESPAÑOL-ORATORIA ITALIANO-ORATORIA</t>
+          <t xml:space="preserve"> ITALIANO-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -9893,27 +9893,27 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Nuovo dizionario spagnolo-italiano e italiano-spagnolo</t>
+          <t>Nuovo dizionario spagnolo-italiano : Commerciale, scientifico, tecnico, militare, marinesco</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Ambruzzi, Lucio</t>
+          <t>Melzi, J.B.</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Paravia</t>
+          <t>Treves</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1938</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Turín</t>
+          <t>Milán</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -9940,22 +9940,22 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Nuovo dizionario spagnolo-italiano : Commerciale, scientifico, tecnico, militare, marinesco</t>
+          <t>Dizionario moderno italiano-spagnuolo e spagnuolo-italiano</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Melzi, J.B.</t>
+          <t>Frisoni, Cayetano</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Treves</t>
+          <t>Hoepli</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>1917</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -9965,7 +9965,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ITALIANO-ESPAÑOL-DICCIONARIO</t>
+          <t xml:space="preserve">  ITALIANO-ESPAÑOL-DICCIONARIO ESPAÑOL-ITALIANO-DICCIONARIO</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -9977,94 +9977,94 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-07-0587-7</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Dizionario moderno italiano-spagnuolo e spagnuolo-italiano</t>
+          <t>Antología de la literatura fantástica</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Frisoni, Cayetano</t>
+          <t>Borges, Jorge Luis (1899-1986) (comp.); Bioy Casares, Adolfo (1914-1999) (comp.); Ocampo, Silvina (1903-1994) (comp.)</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Hoepli</t>
+          <t>Sudamericana</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>1917</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Milán</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ITALIANO-ESPAÑOL-DICCIONARIO ESPAÑOL-ITALIANO-DICCIONARIO</t>
+          <t>- LITERATURA UNIVERSAL-CUENTO-ANTOLOGIA</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>950-07-0587-7</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Antología de la literatura fantástica</t>
+          <t>Diccionario italiano-español español-italiano</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Borges, Jorge Luis (1899-1986) (comp.); Bioy Casares, Adolfo (1914-1999) (comp.); Ocampo, Silvina (1903-1994) (comp.)</t>
+          <t>Caccia, D.</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Sudamericana</t>
+          <t>Garnier</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>(19--)</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>París</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>- LITERATURA UNIVERSAL-CUENTO-ANTOLOGIA</t>
+          <t xml:space="preserve"> ITALIANO-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
@@ -10081,32 +10081,32 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Diccionario italiano-español español-italiano</t>
+          <t>Diccionario español-italiano e italiano-español</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Caccia, D.</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Garnier</t>
+          <t>Sopena</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>(19--)</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>París</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ITALIANO-ESPAÑOL-DICCIONARIO</t>
+          <t xml:space="preserve">  ITALIANO-ESPAÑOL-DICCIONARIO ESPAÑOL-ITALIANO-DICCIONARIO</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -10138,17 +10138,17 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Sopena</t>
+          <t>Hoepli</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1971</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Milán</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10170,42 +10170,42 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Diccionario español-italiano e italiano-español</t>
+          <t>Fan : Historia de una niña</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Hudson, Guillermo Enrique (1841-1922); Massini, Carlos A. (trad.)</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Hoepli</t>
+          <t>Santiago Rueda</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1947</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Milán</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ITALIANO-ESPAÑOL-DICCIONARIO ESPAÑOL-ITALIANO-DICCIONARIO</t>
+          <t>- LITERATURA ARGENTINA-NOVELA</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -10217,42 +10217,42 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Fan : Historia de una niña</t>
+          <t>Diccionario latino-español español-latino</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Hudson, Guillermo Enrique (1841-1922); Massini, Carlos A. (trad.)</t>
+          <t>Blanco García, Vicente</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Santiago Rueda</t>
+          <t>Aguilar</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>1947</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-NOVELA</t>
+          <t xml:space="preserve">  LATIN-ESPAÑOL-DICCIONARIO ESPAÑOL-LATIN-DICCIONARIO</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
@@ -10269,37 +10269,37 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Diccionario latino-español español-latino</t>
+          <t>Epicuro y sus dioses</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Blanco García, Vicente</t>
+          <t>Festugiére, A.J.</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Aguilar</t>
+          <t>Eudeba</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t xml:space="preserve">  LATIN-ESPAÑOL-DICCIONARIO ESPAÑOL-LATIN-DICCIONARIO</t>
+          <t>EPICURO  FILOSOFIA-EPICURO MITOLOGIA GRIEGA</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -10316,37 +10316,37 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Epicuro y sus dioses</t>
+          <t>Nuevo diccionario latino-español y español-latino etimológico</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Festugiére, A.J.</t>
+          <t>Miguel, Raimundo de; Morante, Marqués de</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Eudeba</t>
+          <t>Victoriano Suárez, libr.</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>EPICURO  FILOSOFIA-EPICURO MITOLOGIA GRIEGA</t>
+          <t xml:space="preserve">  LATIN-ESPAÑOL-DICCIONARIO ESPAÑOL-LATIN-DICCIONARIO</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
@@ -10363,32 +10363,32 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Nuevo diccionario latino-español y español-latino etimológico</t>
+          <t>Diccionario comentado mapuche-español : Araucano, pehuelche, pampa, picunche, ranculche, huilliche</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Miguel, Raimundo de; Morante, Marqués de</t>
+          <t>Erize, Esteban</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Victoriano Suárez, libr.</t>
+          <t>Argentina. Universidad Nacional del Sur</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t xml:space="preserve">  LATIN-ESPAÑOL-DICCIONARIO ESPAÑOL-LATIN-DICCIONARIO</t>
+          <t xml:space="preserve"> MAPUCHE-ESPAÑOL-DICCIONARIO ARAUCANO-ESPAÑOL-DICCIONARIO PAMPA LENGUA-DICCIONARIO PEHUENCHES ABORIGENES HUILLICHE LINGÜISTICA-DICCIONARIO PICUNCHE-LENGUA-DICCIONARIO RANCULCHE-LENGUA-DICCIONARIO</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -10410,32 +10410,32 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Diccionario comentado mapuche-español : Araucano, pehuelche, pampa, picunche, ranculche, huilliche</t>
+          <t>Diccionario espanhol-portugués</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Erize, Esteban</t>
+          <t>García, Hamilcar de</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Argentina. Universidad Nacional del Sur</t>
+          <t>Do Globo</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Río de Janeiro</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MAPUCHE-ESPAÑOL-DICCIONARIO ARAUCANO-ESPAÑOL-DICCIONARIO PAMPA LENGUA-DICCIONARIO PEHUENCHES ABORIGENES HUILLICHE LINGÜISTICA-DICCIONARIO PICUNCHE-LENGUA-DICCIONARIO RANCULCHE-LENGUA-DICCIONARIO</t>
+          <t xml:space="preserve">  PORTUGUES-ESPAÑOL-DICCIONARIO ESPAÑOL-PORTUGUES-DICCIONARIO</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -10457,27 +10457,27 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Diccionario espanhol-portugués</t>
+          <t>Parvus : Pequeño diccionario portugués-castellano</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>García, Hamilcar de</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Do Globo</t>
+          <t>Sopena</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1952</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>Río de Janeiro</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10504,22 +10504,22 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Parvus : Pequeño diccionario portugués-castellano</t>
+          <t>Diccionario manual de americanismos</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Morinigo, Marcos A.; Morinigo, Marcos A. (dir. y prol.)</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Sopena</t>
+          <t>Muchnik</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>1952</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -10529,7 +10529,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PORTUGUES-ESPAÑOL-DICCIONARIO ESPAÑOL-PORTUGUES-DICCIONARIO</t>
+          <t xml:space="preserve"> AMERICANISMOS-DICCIONARIO</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -10551,22 +10551,22 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Diccionario manual de americanismos</t>
+          <t>Diccionario de americanismos</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Morinigo, Marcos A.; Morinigo, Marcos A. (dir. y prol.)</t>
+          <t>Malaret, Augusto</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Muchnik</t>
+          <t>Argentina. Academia de Letras</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1944</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -10598,22 +10598,22 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Diccionario de americanismos</t>
+          <t>Diccionario de argentinismos de ayer y de hoy</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Malaret, Augusto</t>
+          <t>Abad de Santillán, Diego (1897-1983)</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Argentina. Academia de Letras</t>
+          <t>Tipográfica Editora Argentina</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -10623,7 +10623,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AMERICANISMOS-DICCIONARIO</t>
+          <t xml:space="preserve"> ARGENTINISMOS LINGÜISTICA-DICCIONARIO</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -10640,27 +10640,27 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Diccionario de argentinismos de ayer y de hoy</t>
+          <t>Marta y María</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Abad de Santillán, Diego (1897-1983)</t>
+          <t>Palacio Valdés, Armando (1853-1938)</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Tipográfica Editora Argentina</t>
+          <t>Espasa-Calpe</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>c1940</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -10670,12 +10670,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ARGENTINISMOS LINGÜISTICA-DICCIONARIO</t>
+          <t>- LITERATURA ESPAÑOLA-NOVELA</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -10687,42 +10687,42 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Marta y María</t>
+          <t>Dictionary of quotations : Spanish. De modismos, frases españolas</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Palacio Valdés, Armando (1853-1938)</t>
+          <t>Harbotte, T.; Hume, Martín</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Espasa-Calpe</t>
+          <t>Swan Sonnenscheir</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>c1940</t>
+          <t>1907</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Londres</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>- LITERATURA ESPAÑOLA-NOVELA</t>
+          <t xml:space="preserve"> - ESPAÑOL-MODISMOS-DICCIONARIO ESPAÑOL-REFRANES-DICCIONARIO</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
@@ -10734,42 +10734,42 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Dictionary of quotations : Spanish. De modismos, frases españolas</t>
+          <t>La gloria de don Ramiro : Una vida en tiempos de Felipe II</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Harbotte, T.; Hume, Martín</t>
+          <t>Larreta, Enrique (1873-1961); Flesca, Haydée (not.)</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Swan Sonnenscheir</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>1907</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>Londres</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - ESPAÑOL-MODISMOS-DICCIONARIO ESPAÑOL-REFRANES-DICCIONARIO</t>
+          <t>- LITERATURA ARGENTINA-NOVELA</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -10781,27 +10781,27 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>La gloria de don Ramiro : Una vida en tiempos de Felipe II</t>
+          <t>Diccionario de frases de los autores clásicos españoles</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Larreta, Enrique (1873-1961); Flesca, Haydée (not.)</t>
+          <t>Mir y Noguera, P. Juan</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Gil</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -10811,12 +10811,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-NOVELA</t>
+          <t xml:space="preserve"> ESPAÑOL-MODISMOS-DICCIONARIO LITERATURA ESPAÑOLA-MODISMOS MODISMOS</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
@@ -10833,22 +10833,22 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Diccionario de frases de los autores clásicos españoles</t>
+          <t>Diccionario de galicismos</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Mir y Noguera, P. Juan</t>
+          <t>Baralt, Rafael María; Hartzenbusch, Juan Eugenio (1806-1880) (prol.)</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Gil</t>
+          <t>Hemisferio</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -10858,7 +10858,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPAÑOL-MODISMOS-DICCIONARIO LITERATURA ESPAÑOLA-MODISMOS MODISMOS</t>
+          <t xml:space="preserve"> ESPAÑOL-GALICISMOS-DICCIONARIO GALICISMOS-DICCIONARIO</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -10870,7 +10870,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-21-0312-2</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -10880,22 +10880,22 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Diccionario de galicismos</t>
+          <t>Diccionario de voces lunfardas y vulgares</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Baralt, Rafael María; Hartzenbusch, Juan Eugenio (1806-1880) (prol.)</t>
+          <t>Casullo, Fernando Hugo</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Hemisferio</t>
+          <t>Plus Ultra</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -10905,7 +10905,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPAÑOL-GALICISMOS-DICCIONARIO GALICISMOS-DICCIONARIO</t>
+          <t xml:space="preserve"> VULGARISMOS LINGÜISTICA-ARGENTINA-DICCIONARIO LUNFARDO-DICCIONARIO</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -10917,7 +10917,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>950-21-0312-2</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -10927,22 +10927,22 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Diccionario de voces lunfardas y vulgares</t>
+          <t>Diccionario lunfardo y de otros términos antiguos y modernos usuales en Buenos Aires</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Casullo, Fernando Hugo</t>
+          <t>Gobello, José (1919-2013)</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Plus Ultra</t>
+          <t>Peña Lillo</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1977</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -10952,7 +10952,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VULGARISMOS LINGÜISTICA-ARGENTINA-DICCIONARIO LUNFARDO-DICCIONARIO</t>
+          <t xml:space="preserve"> ESPAÑOL LINGÜISTICA-VULGARISMOS-BUENOS AIRES-DICCIONARIO LUNFARDO-DICCIONARIO</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -10974,22 +10974,22 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Diccionario lunfardo y de otros términos antiguos y modernos usuales en Buenos Aires</t>
+          <t>Diccionario de modismos de la lengua castellana</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Gobello, José (1919-2013)</t>
+          <t>Caballero, Ramón</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Peña Lillo</t>
+          <t>El Ateneo</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPAÑOL LINGÜISTICA-VULGARISMOS-BUENOS AIRES-DICCIONARIO LUNFARDO-DICCIONARIO</t>
+          <t xml:space="preserve"> ESPAÑOL-MODISMOS-DICCIONARIO</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -11021,32 +11021,32 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Diccionario de modismos de la lengua castellana</t>
+          <t>Diccionario de máximas, pensamientos y sentencias</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Caballero, Ramón</t>
+          <t>Sintes Pros, Jorge</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>El Ateneo</t>
+          <t>Sintes</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>1958</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPAÑOL-MODISMOS-DICCIONARIO</t>
+          <t>- LITERATURA ESPAÑOLA-MAXIMAS-DICCIONARIO LITERATURA ESPAÑOLA-SENTENCIAS-DICCIONARIO LITERATURA ESPAÑOLA-PENSAMIENTOS-DICCIONARIO</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -11068,32 +11068,32 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Diccionario de máximas, pensamientos y sentencias</t>
+          <t>Diccionario de regionalismos de la Provincia de La Rioja</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Sintes Pros, Jorge</t>
+          <t>Cáceres Freyre, Julían</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Sintes</t>
+          <t>Argentina. Instituto Nacional de Investigaciones Folklóricas</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>- LITERATURA ESPAÑOLA-MAXIMAS-DICCIONARIO LITERATURA ESPAÑOLA-SENTENCIAS-DICCIONARIO LITERATURA ESPAÑOLA-PENSAMIENTOS-DICCIONARIO</t>
+          <t xml:space="preserve"> MODISMOS-LA RIOJA ARGENTINA-DICCIONARIO ESPAÑOL-MODISMOS FOLCLORE-ARGENTINA</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -11115,22 +11115,22 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Diccionario de regionalismos de la Provincia de La Rioja</t>
+          <t>Diccionario de topónimos indígenas de Catamarca</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Cáceres Freyre, Julían</t>
+          <t>Villafuerte, Carlos</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Argentina. Instituto Nacional de Investigaciones Folklóricas</t>
+          <t>Plus Ultra</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -11140,7 +11140,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MODISMOS-LA RIOJA ARGENTINA-DICCIONARIO ESPAÑOL-MODISMOS FOLCLORE-ARGENTINA</t>
+          <t xml:space="preserve"> QUECHUA-TOPONIMIA-CATAMARCA-DICCIONARIO</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -11162,12 +11162,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Diccionario de topónimos indígenas de Catamarca</t>
+          <t>Diccionario de voces y expresiones argentinas</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Villafuerte, Carlos</t>
+          <t>Coluccio, Félix (1911-2005)</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -11187,7 +11187,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QUECHUA-TOPONIMIA-CATAMARCA-DICCIONARIO</t>
+          <t xml:space="preserve"> MODISMOS-ARGENTINA-DICCIONARIO</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -11204,27 +11204,27 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Diccionario de voces y expresiones argentinas</t>
+          <t>Veinte cuentos de Buenos Aires</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Coluccio, Félix (1911-2005)</t>
+          <t>Etchenique, Nira (comp.); Lellis, Mario Jorge de (colab.)</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Plus Ultra</t>
+          <t>Fabril</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -11234,12 +11234,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MODISMOS-ARGENTINA-DICCIONARIO</t>
+          <t>- LITERATURA ARGENTINA-CUENTO-ANTOLOGIA CUENTO ARGENTINO-ANTOLOGIA</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -11251,49 +11251,49 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Veinte cuentos de Buenos Aires</t>
+          <t>Dizionario francese-italiano e italiano-francese</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Etchenique, Nira (comp.); Lellis, Mario Jorge de (colab.)</t>
+          <t>Manni, Cormon E.</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Fabril</t>
+          <t>Ferrario</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>(19--)</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Milán</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-CUENTO-ANTOLOGIA CUENTO ARGENTINO-ANTOLOGIA</t>
+          <t xml:space="preserve"> FRANCES-ITALIANO-DICCIONARIO ITALIANO-FRANCES-DICCIONARIO</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-701-249-4</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -11303,32 +11303,32 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Dizionario francese-italiano e italiano-francese</t>
+          <t>Diccionario básico de la lengua española</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Manni, Cormon E.</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Ferrario</t>
+          <t>Aique</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>(19--)</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Milán</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRANCES-ITALIANO-DICCIONARIO ITALIANO-FRANCES-DICCIONARIO</t>
+          <t xml:space="preserve"> DICCIONARIO-NIVEL PRIMARIO</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -11340,7 +11340,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>950-701-249-4</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -11350,7 +11350,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Diccionario básico de la lengua española</t>
+          <t>Diccionario Kapelusz de la lengua española</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -11360,12 +11360,12 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Aique</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -11387,32 +11387,32 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-860-041-1</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Diccionario Kapelusz de la lengua española</t>
+          <t>Amar al prójimo</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Orgambide, Pedro (1929-2003) (colab.)</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Instituto Movilizador de Fondos Cooperativos</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -11422,19 +11422,19 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO-NIVEL PRIMARIO</t>
+          <t>- LITERATURA ARGENTINA-CUENTO-ANTOLOGIA</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>950-860-041-1</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -11444,22 +11444,22 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Amar al prójimo</t>
+          <t>Selección de ensayos argentinos</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Orgambide, Pedro (1929-2003) (colab.)</t>
+          <t>Romero, José Edmundo (colab.)</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Instituto Movilizador de Fondos Cooperativos</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -11469,7 +11469,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-CUENTO-ANTOLOGIA</t>
+          <t>- LITERATURA ARGENTINA-ENSAYO-ANTOLOGIA</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -11481,32 +11481,32 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-595-131-0</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Selección de ensayos argentinos</t>
+          <t>Leer los escritos de Jacques Lacan</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Romero, José Edmundo (colab.)</t>
+          <t>Basch, Carlos (colab.)</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Tekne</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -11516,7 +11516,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-ENSAYO-ANTOLOGIA</t>
+          <t xml:space="preserve"> PSICOLOGIA</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -11528,7 +11528,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>950-595-131-0</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -11538,37 +11538,37 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Leer los escritos de Jacques Lacan</t>
+          <t>Diccionario de la lengua castellana</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>Basch, Carlos (colab.)</t>
+          <t>España. Real Academia</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Tekne</t>
+          <t>El Autor</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1726</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSICOLOGIA</t>
+          <t xml:space="preserve"> DICCIONARIO</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
@@ -11585,37 +11585,37 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Diccionario de la lengua castellana</t>
+          <t>Los fundadores : crónicas y poemas de la colonia</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>España. Real Academia</t>
+          <t>Canal Feijóo, Bernardo (1897-1982) (comp.)</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>El Autor</t>
+          <t>CEAL</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>1726</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO</t>
+          <t xml:space="preserve"> HISTORIA-ARGENTINA</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -11627,27 +11627,27 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Los fundadores : crónicas y poemas de la colonia</t>
+          <t>Antología de la literatura : Narradores del s.XX</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Canal Feijóo, Bernardo (1897-1982) (comp.)</t>
+          <t>Manguel, Alberto (1948-...) (colab.)</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>CEAL</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -11657,7 +11657,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HISTORIA-ARGENTINA</t>
+          <t>- LITERATURA ARGENTINA-ANTOLOGIA</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -11679,12 +11679,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Antología de la literatura : Narradores del s.XX</t>
+          <t>Geografía</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Manguel, Alberto (1948-...) (colab.)</t>
+          <t>Abella Caprile, Margarita (comp.); Estrella Gutiérrez, Fermín (1900-1990) (prol.)</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -11694,7 +11694,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-ANTOLOGIA</t>
+          <t>- LITERATURA ARGENTINA-POESIA</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -11721,42 +11721,42 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Geografía</t>
+          <t>Diccionario manual e ilustrado de la lengua española</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>Abella Caprile, Margarita (comp.); Estrella Gutiérrez, Fermín (1900-1990) (prol.)</t>
+          <t>España. Real Academia</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Espasa-Calpe</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-POESIA</t>
+          <t xml:space="preserve"> DICCIONARIO</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
@@ -11768,42 +11768,42 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Diccionario manual e ilustrado de la lengua española</t>
+          <t>Paulino Lucero</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>España. Real Academia</t>
+          <t>Ascasubi, Hilario (1807-1875); Mujica Láinez, Manuel (1910-1984) (prol.)</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Espasa-Calpe</t>
+          <t>Estrada</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1969</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO</t>
+          <t>- LITERATURA ARGENTINA-POESIA</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -11815,42 +11815,42 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Paulino Lucero</t>
+          <t>Diccionario de la lengua castellana</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>Ascasubi, Hilario (1807-1875); Mujica Láinez, Manuel (1910-1984) (prol.)</t>
+          <t>España. Real Academia</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Estrada</t>
+          <t>Hernando</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>1914</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-POESIA</t>
+          <t xml:space="preserve"> DICCIONARIO</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
@@ -11867,7 +11867,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Diccionario de la lengua castellana</t>
+          <t>Diccionario de la lengua española</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -11877,12 +11877,12 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Hernando</t>
+          <t>El Autor</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>1914</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -11909,42 +11909,42 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Diccionario de la lengua española</t>
+          <t>El criador de gorilas</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>España. Real Academia</t>
+          <t>Arlt, Roberto (1900-1942); Arlt, Mirta (prol.)</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>El Autor</t>
+          <t>Fabril</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1969</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO</t>
+          <t>- LITERATURA ARGENTINA-CUENTO</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -11956,42 +11956,42 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>El criador de gorilas</t>
+          <t>Diccionario de la lengua española</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Arlt, Roberto (1900-1942); Arlt, Mirta (prol.)</t>
+          <t>España. Real Academia</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Fabril</t>
+          <t>Espasa-Calpe</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>1936</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-CUENTO</t>
+          <t xml:space="preserve"> DICCIONARIO</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
@@ -12023,7 +12023,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>1936</t>
+          <t>1947</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -12065,12 +12065,12 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Espasa-Calpe</t>
+          <t>RAE</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>1947</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -12112,12 +12112,12 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>RAE</t>
+          <t>Espasa-Calpe</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -12139,7 +12139,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>84-239-6983-5</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -12149,32 +12149,32 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Diccionario de la lengua española</t>
+          <t>Diccionario infantil ilustrado</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>España. Real Academia</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Espasa-Calpe</t>
+          <t>Plaza y Janés</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO</t>
+          <t xml:space="preserve"> DICCIONARIO INFANTIL</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -12186,47 +12186,47 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>84-239-6983-5</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Diccionario infantil ilustrado</t>
+          <t>Escritos literarios</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Avellaneda, Nicolás (1837-1885); Estrella Gutiérrez, Fermín (1900-1990) (not.)</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Plaza y Janés</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO INFANTIL</t>
+          <t>- LITERATURA ARGENTINA-NOVELA NOVELA ARGENTINA</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -12238,27 +12238,27 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Escritos literarios</t>
+          <t>El final de la cura de un fetichista</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Avellaneda, Nicolás (1837-1885); Estrella Gutiérrez, Fermín (1900-1990) (not.)</t>
+          <t>Campo, Emiliano del; Baranger, Willy (prol.)</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Kargieman</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -12268,7 +12268,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-NOVELA NOVELA ARGENTINA</t>
+          <t xml:space="preserve"> PERSONALIDAD PSICOLOGIA FETICHISMO PSICOLOGIA</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -12290,37 +12290,37 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>El final de la cura de un fetichista</t>
+          <t>Diccionario Santillana 2</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Campo, Emiliano del; Baranger, Willy (prol.)</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Kargieman</t>
+          <t>Santillana</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PERSONALIDAD PSICOLOGIA FETICHISMO PSICOLOGIA</t>
+          <t xml:space="preserve"> DICCIONARIO-NIVEL PRIMARIO</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
@@ -12332,42 +12332,42 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Diccionario Santillana 2</t>
+          <t>Córdoba del recuerdo</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Capdevila, Arturo (1889-1967)</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Santillana</t>
+          <t>Espasa-Calpe</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO-NIVEL PRIMARIO</t>
+          <t>CAPDEVILA AUTOBIOGRAFIAS-CAPDEVILA ARTURO MEMORIAS</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -12379,27 +12379,27 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Córdoba del recuerdo</t>
+          <t>Diccionario de la lengua española (Petit Larousse)</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Capdevila, Arturo (1889-1967)</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Espasa-Calpe</t>
+          <t>Larousse</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>(19--)</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -12409,12 +12409,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>CAPDEVILA AUTOBIOGRAFIAS-CAPDEVILA ARTURO MEMORIAS</t>
+          <t xml:space="preserve"> DICCIONARIO-NIVEL PRIMARIO</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
@@ -12426,27 +12426,27 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Diccionario de la lengua española (Petit Larousse)</t>
+          <t>Cronicones alegres de Córdoba</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Capdevila, Arturo (1889-1967); Lazcano Colodrero, Godofredo (prol.)</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Larousse</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>(19--)</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -12456,12 +12456,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO-NIVEL PRIMARIO</t>
+          <t>- LITERATURA ARGENTINA-CRONICA HISTORICA</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -12473,42 +12473,42 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Cronicones alegres de Córdoba</t>
+          <t>Nuevo pequeño Larousse ilustrado : Diccionario enciclopédico</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Capdevila, Arturo (1889-1967); Lazcano Colodrero, Godofredo (prol.)</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Larousse</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>(19--)</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>París</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-CRONICA HISTORICA</t>
+          <t xml:space="preserve"> DICCIONARIO ENCICLOPEDICO</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
@@ -12525,37 +12525,37 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Nuevo pequeño Larousse ilustrado : Diccionario enciclopédico</t>
+          <t>Estudios historico-literarios</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Gutiérrez, Juan María (1809-1878)</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Larousse</t>
+          <t>Estrada</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>(19--)</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>París</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO ENCICLOPEDICO</t>
+          <t xml:space="preserve"> BIOGRAFIAS-ARGENTINA</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -12572,37 +12572,37 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Estudios historico-literarios</t>
+          <t>Nuevo pequeño Larousse ilustrado : diccionario enciclopédico</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Gutiérrez, Juan María (1809-1878)</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Estrada</t>
+          <t>Larousse</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1953</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>París</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BIOGRAFIAS-ARGENTINA</t>
+          <t xml:space="preserve"> DICCIONARIO ENCICLOPEDICO</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
@@ -12619,7 +12619,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Nuevo pequeño Larousse ilustrado : diccionario enciclopédico</t>
+          <t>Diccionario pequeño Larousse ilustrado</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -12634,7 +12634,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>1953</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -12644,7 +12644,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO ENCICLOPEDICO</t>
+          <t xml:space="preserve"> DICCIONARIO-NIVEL PRIMARIO</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -12661,42 +12661,42 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Diccionario pequeño Larousse ilustrado</t>
+          <t>El doradillo y otros cuentos</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Cárpena, Elías (1897-1988); Mazzei, Angel (comp.)</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Larousse</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>París</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO-NIVEL PRIMARIO</t>
+          <t>- LITERATURA ARGENTINA-CUENTO</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -12708,121 +12708,121 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>El doradillo y otros cuentos</t>
+          <t>Diccionario pequeño Larousse ilustrado</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Cárpena, Elías (1897-1988); Mazzei, Angel (comp.)</t>
+          <t>Toro y Gisbert, Miguel de</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Larousse</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>París</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-CUENTO</t>
+          <t xml:space="preserve"> DICCIONARIO-NIVEL PRIMARIO</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>987-95000-1-6</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Diccionario pequeño Larousse ilustrado</t>
+          <t>El encargo</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Toro y Gisbert, Miguel de</t>
+          <t>Córdoba, Betty</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Larousse</t>
+          <t>Poiesis</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>París</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO-NIVEL PRIMARIO</t>
+          <t>- LITERATURA ARGENTINA-CUENTO</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>987-95000-1-6</t>
+          <t>950-538-500-5</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>El encargo</t>
+          <t>Pequeño Larousse ilustrado</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>Córdoba, Betty</t>
+          <t>García Pelayo y Gross, Ramón</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Poiesis</t>
+          <t>Larousse</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -12832,19 +12832,19 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-CUENTO</t>
+          <t xml:space="preserve"> DICCIONARIO-NIVEL PRIMARIO</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>950-538-500-5</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -12854,27 +12854,27 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Pequeño Larousse ilustrado</t>
+          <t>Diccionario castellano de bolsillo</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>García Pelayo y Gross, Ramón</t>
+          <t>Quintana, Jorge</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Larousse</t>
+          <t>(s.n.)</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>(19--)</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>París</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -12901,32 +12901,32 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Diccionario castellano de bolsillo</t>
+          <t>Nuevo diccionario ilustrado de la lengua española</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Quintana, Jorge</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>(s.n.)</t>
+          <t>Sopena</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>(19--)</t>
+          <t>1934</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>París</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO-NIVEL PRIMARIO</t>
+          <t xml:space="preserve"> DICCIONARIO</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -12948,7 +12948,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Nuevo diccionario ilustrado de la lengua española</t>
+          <t>Diccionario de voces nuevas de la lengua castellana</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -12958,17 +12958,17 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Sopena</t>
+          <t>Sociedad Editora Americana</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>1934</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
@@ -12990,27 +12990,27 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Diccionario de voces nuevas de la lengua castellana</t>
+          <t>El viento blanco</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Dávalos, Juan Carlos (1887-1959)</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Sociedad Editora Americana</t>
+          <t>Eudeba</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -13020,44 +13020,44 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO</t>
+          <t>- LITERATURA ARGENTINA-CUENTO</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-9522-04-X</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>El viento blanco</t>
+          <t>Los mismos-distintos lugares</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Dávalos, Juan Carlos (1887-1959)</t>
+          <t>Dvoskin, Hugo</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Eudeba</t>
+          <t>Xavier Boveda</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -13067,7 +13067,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-CUENTO</t>
+          <t xml:space="preserve"> PSICOLOGIA</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -13079,7 +13079,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>950-9522-04-X</t>
+          <t>950-12-6681-8</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -13089,22 +13089,22 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Los mismos-distintos lugares</t>
+          <t>La inteligencia artificial : una aproximación</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Dvoskin, Hugo</t>
+          <t>Haton, Jean-Paul; Haton, Marie-Christine; Ucha de Davie, Iris (trad.)</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Xavier Boveda</t>
+          <t>Paidós</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -13114,19 +13114,19 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSICOLOGIA</t>
+          <t xml:space="preserve"> INFORMATICA</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>950-12-6681-8</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -13136,32 +13136,32 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>La inteligencia artificial : una aproximación</t>
+          <t>Historia social de la literatura y el arte</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Haton, Jean-Paul; Haton, Marie-Christine; Ucha de Davie, Iris (trad.)</t>
+          <t>Hauser, Arnold; Tovar, Antonio (1911-1985) (trad.); Varas-Reyes, F. P. (trad.)</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Paidós</t>
+          <t>Guadarrama</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>1969</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INFORMATICA</t>
+          <t xml:space="preserve"> SOCIOLOGIA DEL ARTE SOCIOLOGIA DE LA LITERATURA CINE Y LITERATURA CINE Y ARTE</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -13183,32 +13183,32 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Historia social de la literatura y el arte</t>
+          <t>Introducción a la historia de la filosofía</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Hauser, Arnold; Tovar, Antonio (1911-1985) (trad.); Varas-Reyes, F. P. (trad.)</t>
+          <t>Hegel, Georg Wilhelm Friedrich (1770-1831); Terrón, Eloy (trad. y prol.)</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Guadarrama</t>
+          <t>Aguilar</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SOCIOLOGIA DEL ARTE SOCIOLOGIA DE LA LITERATURA CINE Y LITERATURA CINE Y ARTE</t>
+          <t xml:space="preserve"> FILOSOFIA-HISTORIA</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -13230,12 +13230,12 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Introducción a la historia de la filosofía</t>
+          <t>Fragmentos</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Hegel, Georg Wilhelm Friedrich (1770-1831); Terrón, Eloy (trad. y prol.)</t>
+          <t>Heráclito de Efeso 544 -484 a.C.; Farré, Luis (1902-...) (trad.)</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -13245,7 +13245,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1963</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -13255,7 +13255,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FILOSOFIA-HISTORIA</t>
+          <t>HERACLITO FILOSOFIA-HERACLITO DE EFESO  - aC</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -13267,42 +13267,42 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-206-3089-6</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Fragmentos</t>
+          <t>Obra poética completa</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Heráclito de Efeso 544 -484 a.C.; Farré, Luis (1902-...) (trad.)</t>
+          <t>Hernández, Miguel (1910-1942)</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Aguilar</t>
+          <t>Alianza</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>HERACLITO FILOSOFIA-HERACLITO DE EFESO  - aC</t>
+          <t>- LITERATURA ESPAÑOLA-POESIA POESIA ESPAÑOLA</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -13314,7 +13314,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>950-206-3089-6</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -13324,32 +13324,32 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Obra poética completa</t>
+          <t>El lobo estepario</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Hernández, Miguel (1910-1942)</t>
+          <t>Hesse, Hermann (1877-1962)</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Alianza</t>
+          <t>Rueda</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>- LITERATURA ESPAÑOLA-POESIA POESIA ESPAÑOLA</t>
+          <t>- LITERATURA ALEMANA-NOVELA NOVELA ALEMANA</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -13361,7 +13361,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>84-02-07660-2</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -13371,7 +13371,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>El lobo estepario</t>
+          <t>Siddhartha</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -13381,22 +13381,22 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Rueda</t>
+          <t>Bruguera</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>- LITERATURA ALEMANA-NOVELA NOVELA ALEMANA</t>
+          <t>- LITERATURA ALEMANA-NOVELA</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -13408,42 +13408,42 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>84-02-07660-2</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Siddhartha</t>
+          <t>La historia del tango</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Hesse, Hermann (1877-1962)</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Bruguera</t>
+          <t>Corregidor</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>- LITERATURA ALEMANA-NOVELA</t>
+          <t xml:space="preserve"> TANGO</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -13465,32 +13465,32 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>La historia del tango</t>
+          <t>El informe Hite : Estudio de la sexualidad femenina</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Hite, Shere</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Corregidor</t>
+          <t>Plaza y Janés</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TANGO</t>
+          <t xml:space="preserve">  SEXO ETNOLOGIA MUJERES</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -13502,7 +13502,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>84-01-37099-X</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -13512,7 +13512,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>El informe Hite : Estudio de la sexualidad femenina</t>
+          <t>El informe Hite sobre la sexualidad masculina</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -13527,7 +13527,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -13537,7 +13537,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t xml:space="preserve">  SEXO ETNOLOGIA MUJERES</t>
+          <t xml:space="preserve"> SEXO ETNOLOGIA</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -13549,42 +13549,42 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>84-01-37099-X</t>
+          <t>950-581-004-2</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>El informe Hite sobre la sexualidad masculina</t>
+          <t>Martín Fierro</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Hite, Shere</t>
+          <t>Hernández, José (1834-1886)</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Plaza y Janés</t>
+          <t>Colihue</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEXO ETNOLOGIA</t>
+          <t>- LITERATURA ARGENTINA-POESIA POESIA ARGENTINA</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -13596,42 +13596,42 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>950-581-004-2</t>
+          <t>968-23-0762-7</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Martín Fierro</t>
+          <t>Prehistoria</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Hernández, José (1834-1886)</t>
+          <t>Alimen, Marie-Henriette (comp.); Steve, P. Marie-Joseph (colab.)</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Colihue</t>
+          <t>Siglo XXI</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>México</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-POESIA POESIA ARGENTINA</t>
+          <t xml:space="preserve"> PREHISTORIA</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -13643,7 +13643,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>968-23-0762-7</t>
+          <t>968-23-0494-6</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -13653,12 +13653,12 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Prehistoria</t>
+          <t>Griegos y persas</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Alimen, Marie-Henriette (comp.); Steve, P. Marie-Joseph (colab.)</t>
+          <t>Bengtson, Hermann (comp.)</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -13678,7 +13678,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PREHISTORIA</t>
+          <t xml:space="preserve"> HISTORIA ANTIGUA</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -13690,7 +13690,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>968-23-0494-6</t>
+          <t>968-23-0937-9</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -13700,12 +13700,12 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Griegos y persas</t>
+          <t>El siglo XX : Problemas mundiales entre los dos bloques de poder</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Bengtson, Hermann (comp.)</t>
+          <t>Benz, Wolfgang (comp.); Graml, Hermann (colab.)</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -13715,7 +13715,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -13725,7 +13725,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HISTORIA ANTIGUA</t>
+          <t xml:space="preserve"> HISTORIA CONTEMPORANEA</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -13737,7 +13737,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>968-23-0937-9</t>
+          <t>968-23-0952-2</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -13747,12 +13747,12 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>El siglo XX : Problemas mundiales entre los dos bloques de poder</t>
+          <t>Los inicios de la Europa moderna (1550-1648)</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Benz, Wolfgang (comp.); Graml, Hermann (colab.)</t>
+          <t>Dülmen, Richard van</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -13762,7 +13762,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -13772,7 +13772,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HISTORIA CONTEMPORANEA</t>
+          <t xml:space="preserve"> HISTORIA-EUROPA</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -13784,7 +13784,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>968-23-0952-2</t>
+          <t>968-23-0763-5</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -13794,12 +13794,12 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Los inicios de la Europa moderna (1550-1648)</t>
+          <t>La formación del Imperio Romano</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Dülmen, Richard van</t>
+          <t>Grimal, Pierre (comp.)</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -13819,7 +13819,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HISTORIA-EUROPA</t>
+          <t xml:space="preserve"> HISTORIA-ROMA ANTIGUA</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -13831,7 +13831,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>968-23-0763-5</t>
+          <t>968-23-0216-7</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -13841,12 +13841,12 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>La formación del Imperio Romano</t>
+          <t>El siglo XX : Europa (1918-1945)</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Grimal, Pierre (comp.)</t>
+          <t>Parker, R.A.C.</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -13856,7 +13856,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -13866,7 +13866,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HISTORIA-ROMA ANTIGUA</t>
+          <t xml:space="preserve"> HISTORIA-EUROPA-</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -13878,7 +13878,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>968-23-0216-7</t>
+          <t>968-23-0504-7</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -13888,12 +13888,12 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>El siglo XX : Europa (1918-1945)</t>
+          <t>Los fundamentos del mundo moderno : edad media tardía, Renacimiento, Reforma</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Parker, R.A.C.</t>
+          <t>Romano, Ruggiero; Tenenti, Alberto</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -13903,7 +13903,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -13913,7 +13913,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HISTORIA-EUROPA-</t>
+          <t xml:space="preserve"> HISTORIA MEDIEVAL Y MODERNA</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -13925,7 +13925,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>968-23-0504-7</t>
+          <t>968-23-0227-7</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -13935,12 +13935,12 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Los fundamentos del mundo moderno : edad media tardía, Renacimiento, Reforma</t>
+          <t>América Latina I</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Romano, Ruggiero; Tenenti, Alberto</t>
+          <t>Séjourné, Laurette</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -13950,7 +13950,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HISTORIA MEDIEVAL Y MODERNA</t>
+          <t xml:space="preserve"> CULTURA-LATINOAMERICA-HASTA SXVI CULTURA PRECOLOMBINA</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -13972,7 +13972,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>968-23-0227-7</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -13982,32 +13982,32 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>América Latina I</t>
+          <t>Historia del pensamiento económico</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Séjourné, Laurette</t>
+          <t>James, Emile</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Siglo XXI</t>
+          <t>Aguilar</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1966-1969</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CULTURA-LATINOAMERICA-HASTA SXVI CULTURA PRECOLOMBINA</t>
+          <t xml:space="preserve"> DOCTRINAS ECONOMIA</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -14029,12 +14029,12 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Historia del pensamiento económico</t>
+          <t>Pragmatismo</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>James, Emile</t>
+          <t>James, William (1842-1910); Rodríguez Aranda, Luis (trad.)</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -14044,29 +14044,29 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>1966-1969</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DOCTRINAS ECONOMIA</t>
+          <t xml:space="preserve"> PRAGMATISMO FILOSOFIA</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>12/03/1996</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-577-008-2</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -14076,22 +14076,22 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Pragmatismo</t>
+          <t>La filosofía desde el punto de vista de la existencia</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>James, William (1842-1910); Rodríguez Aranda, Luis (trad.)</t>
+          <t>Jaspers, Karl (1883-1969)</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Aguilar</t>
+          <t>Fondo de Cultura Económica</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -14101,7 +14101,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRAGMATISMO FILOSOFIA</t>
+          <t>JASPERS  FILOSOFIA-JASPERS KARL - EXISTENCIALISMO FILOSOFIA</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -14113,7 +14113,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>950-577-008-2</t>
+          <t>950-46-0108-1</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -14123,22 +14123,22 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>La filosofía desde el punto de vista de la existencia</t>
+          <t>Historia 2</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Jaspers, Karl (1883-1969)</t>
+          <t>Jáuregui, Aníbal Pablo; González, Alba Susana; Fradkin, Raúl Osvaldo</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Fondo de Cultura Económica</t>
+          <t>Santillana</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -14148,7 +14148,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>JASPERS  FILOSOFIA-JASPERS KARL - EXISTENCIALISMO FILOSOFIA</t>
+          <t xml:space="preserve"> HISTORIA MODERNA HISTORIA CONTEMPORANEA</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -14160,7 +14160,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>950-46-0108-1</t>
+          <t>950-46-0126-X</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -14170,7 +14170,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Historia 2</t>
+          <t>Historia 3</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -14185,7 +14185,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -14195,7 +14195,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HISTORIA MODERNA HISTORIA CONTEMPORANEA</t>
+          <t xml:space="preserve"> HISTORIA MODERNA-TEXTO SECUNDARIO HISTORIA CONTEMPORANEA-TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -14207,7 +14207,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>950-46-0126-X</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -14217,22 +14217,22 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Historia 3</t>
+          <t>El medio pelo en la sociedad argentina : Apuntes para una sociología nacional</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Jáuregui, Aníbal Pablo; González, Alba Susana; Fradkin, Raúl Osvaldo</t>
+          <t>Jauretche, Arturo (1901-1974)</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Santillana</t>
+          <t>Peña Lillo</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -14242,7 +14242,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HISTORIA MODERNA-TEXTO SECUNDARIO HISTORIA CONTEMPORANEA-TEXTO SECUNDARIO</t>
+          <t xml:space="preserve"> PSICOLOGIA SOCIAL-ARGENTINA</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -14264,32 +14264,32 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>El medio pelo en la sociedad argentina : Apuntes para una sociología nacional</t>
+          <t>Ciudadanía e identidad : Las mujeres en los movimientos sociales latinoamericanos</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Jauretche, Arturo (1901-1974)</t>
+          <t>Jelin, Elizabeth (1941-...)</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Peña Lillo</t>
+          <t>UNRID</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Ginebra</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSICOLOGIA SOCIAL-ARGENTINA</t>
+          <t xml:space="preserve"> MUJERES-LATINOAMERICA</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -14311,7 +14311,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Ciudadanía e identidad : Las mujeres en los movimientos sociales latinoamericanos</t>
+          <t>Familia y unidad doméstica : Mundo público y vida privada</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -14321,22 +14321,22 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>UNRID</t>
+          <t>CEDES</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>Ginebra</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MUJERES-LATINOAMERICA</t>
+          <t xml:space="preserve"> FAMILIA ETNOLOGIA</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -14358,7 +14358,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Familia y unidad doméstica : Mundo público y vida privada</t>
+          <t>La mujer y el mercado de trabajo urbano</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -14373,7 +14373,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -14383,7 +14383,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAMILIA ETNOLOGIA</t>
+          <t xml:space="preserve"> MUJERES-TRABAJO</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -14405,22 +14405,22 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>La mujer y el mercado de trabajo urbano</t>
+          <t>Los nuevos movimientos sociales : mujeres, rock nacional</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Jelin, Elizabeth (1941-...)</t>
+          <t>Jelin, Elizabeth (1941-...); Feijoó, María del Carmen; Gogna, Mónica</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>CEDES</t>
+          <t>CEAL</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -14430,7 +14430,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MUJERES-TRABAJO</t>
+          <t xml:space="preserve"> MUJERES</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -14442,7 +14442,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-9522-02-4</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -14452,22 +14452,22 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Los nuevos movimientos sociales : mujeres, rock nacional</t>
+          <t>La operación psicoanalítica</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Jelin, Elizabeth (1941-...); Feijoó, María del Carmen; Gogna, Mónica</t>
+          <t>Fernández Couto, Rogelio</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>CEAL</t>
+          <t>Xavier Boveda</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -14477,44 +14477,44 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MUJERES</t>
+          <t xml:space="preserve"> PSICOANALISIS</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>12/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>950-9522-02-4</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>La operación psicoanalítica</t>
+          <t>El Conde Lucanor : Selección</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Fernández Couto, Rogelio</t>
+          <t>Juan Manuel, Infante de Castilla (1282-1348); Parula de López Gavinet, Beatriz (colab.)</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Xavier Boveda</t>
+          <t>Colihue</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -14524,12 +14524,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSICOANALISIS</t>
+          <t>- LITERATURA ESPAÑOLA-CUENTO</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>12/03/1996</t>
         </is>
       </c>
     </row>
@@ -14546,22 +14546,22 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>El Conde Lucanor : Selección</t>
+          <t>Selección poética</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Juan Manuel, Infante de Castilla (1282-1348); Parula de López Gavinet, Beatriz (colab.)</t>
+          <t>Juana Inés de la Cruz, Sor (1651-1695)</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Colihue</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -14571,7 +14571,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>- LITERATURA ESPAÑOLA-CUENTO</t>
+          <t>- LITERATURA MEXICANA-POESIA</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -14588,27 +14588,27 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Selección poética</t>
+          <t>Lo inconsciente : en la vida psíquica normal y patológica</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Juana Inés de la Cruz, Sor (1651-1695)</t>
+          <t>Jung, Carl Gustav (1875-1961); Rodríguez Sadia, Emilio (trad.)</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Losada</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -14618,7 +14618,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>- LITERATURA MEXICANA-POESIA</t>
+          <t xml:space="preserve"> PSICOANALISIS</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -14640,22 +14640,22 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Lo inconsciente : en la vida psíquica normal y patológica</t>
+          <t>Genio y figura de Jorge Luis Borges</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Jung, Carl Gustav (1875-1961); Rodríguez Sadia, Emilio (trad.)</t>
+          <t>Jurado, Alicia (1922-2011)</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Losada</t>
+          <t>Eudeba</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -14665,7 +14665,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSICOANALISIS</t>
+          <t>BORGES BIOGRAFIAS-BORGES JORGE LUIS -</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -14677,42 +14677,42 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>84-226-2203-3</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Genio y figura de Jorge Luis Borges</t>
+          <t>La metamorfosis</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Jurado, Alicia (1922-2011)</t>
+          <t>Kafka, Franz (1883-1924); Hernández, José (1834-1886) (il.); Borges, Jorge Luis (1899-1986) (trad.); Nabokov, Vladimir (1899-1977) (not.)</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Eudeba</t>
+          <t>Círculo de Lectores</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>BORGES BIOGRAFIAS-BORGES JORGE LUIS -</t>
+          <t>- LITERATURA CHECA-CUENTO</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -14724,42 +14724,42 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>84-226-2203-3</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>La metamorfosis</t>
+          <t>Crítica de la razón pura : Estética trascendental y analítica trascendental</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Kafka, Franz (1883-1924); Hernández, José (1834-1886) (il.); Borges, Jorge Luis (1899-1986) (trad.); Nabokov, Vladimir (1899-1977) (not.)</t>
+          <t>Kant, Immanuel (1724-1804); Romero, Francisco (1891-1962) (prol.)</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Círculo de Lectores</t>
+          <t>Losada</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>- LITERATURA CHECA-CUENTO</t>
+          <t>KANT FILOSOFIA-KANT IMMANUEL -</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -14781,22 +14781,22 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Crítica de la razón pura : Estética trascendental y analítica trascendental</t>
+          <t>Por qué no es inútil una nueva crítica de la razón pura : Respuesta a Eberhard</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Kant, Immanuel (1724-1804); Romero, Francisco (1891-1962) (prol.)</t>
+          <t>Kant, Immanuel (1724-1804); Castaño Piñán, Alfonso (trad. y prol.)</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Losada</t>
+          <t>Aguilar</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -14823,27 +14823,27 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Por qué no es inútil una nueva crítica de la razón pura : Respuesta a Eberhard</t>
+          <t>Lírica</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Kant, Immanuel (1724-1804); Castaño Piñán, Alfonso (trad. y prol.)</t>
+          <t>Juan de la Cruz, Santo (1542-1591)</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Aguilar</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -14853,7 +14853,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>KANT FILOSOFIA-KANT IMMANUEL -</t>
+          <t>- LITERATURA ESPAÑOLA-POESIA</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -14870,27 +14870,27 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Lírica</t>
+          <t>Historia de los monumentos y esculturas de Buenos Aires : Plaza San Martín, Plaza Lavalle, Parque Lezama</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Juan de la Cruz, Santo (1542-1591)</t>
+          <t>Magaz, María del Carmen; Arévalo, María Beatriz</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Buenos Aires. Instituto Histórico</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -14900,7 +14900,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>- LITERATURA ESPAÑOLA-POESIA</t>
+          <t xml:space="preserve"> HISTORIA-BUENOS AIRES PLAZAS-BUENOS AIRES-HISTORIA MONUMENTOS-BUENOS AIRES-HISTORIA ESCULTURA-BUENOS AIRES-HISTORIA</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -14922,22 +14922,22 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Historia de los monumentos y esculturas de Buenos Aires : Plaza San Martín, Plaza Lavalle, Parque Lezama</t>
+          <t>La historia de vida</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Magaz, María del Carmen; Arévalo, María Beatriz</t>
+          <t>Magrassi, Guillermo E.; Roca, M.M.</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Buenos Aires. Instituto Histórico</t>
+          <t>CEAL</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -14947,7 +14947,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HISTORIA-BUENOS AIRES PLAZAS-BUENOS AIRES-HISTORIA MONUMENTOS-BUENOS AIRES-HISTORIA ESCULTURA-BUENOS AIRES-HISTORIA</t>
+          <t xml:space="preserve"> ETNOLOGIA</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -14959,7 +14959,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-13-2022-7</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -14969,17 +14969,17 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>La historia de vida</t>
+          <t>Elementos de física y química</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Magrassi, Guillermo E.; Roca, M.M.</t>
+          <t>Maiztegui, Alberto P.; Sábato, Jorge A. (1924-1983)</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>CEAL</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -14994,7 +14994,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ETNOLOGIA</t>
+          <t xml:space="preserve">  FISICA-TEXTO SECUNDARIO QUIMICA-TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -15006,7 +15006,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>950-13-2022-7</t>
+          <t>950-13-2030-8</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -15016,12 +15016,12 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Elementos de física y química</t>
+          <t>Física elemental</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Maiztegui, Alberto P.; Sábato, Jorge A. (1924-1983)</t>
+          <t>Maiztegui, Alberto P.; Boido, Guillermo (1941-...)</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -15031,7 +15031,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -15041,7 +15041,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t xml:space="preserve">  FISICA-TEXTO SECUNDARIO QUIMICA-TEXTO SECUNDARIO</t>
+          <t xml:space="preserve"> FISICA -TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -15053,7 +15053,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>950-13-2030-8</t>
+          <t>950-13-2043-X</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -15063,12 +15063,12 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Física elemental</t>
+          <t>Introducción a la física</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Maiztegui, Alberto P.; Boido, Guillermo (1941-...)</t>
+          <t>Maiztegui, Alberto P.; Sábato, Jorge A. (1924-1983)</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -15078,7 +15078,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -15088,7 +15088,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FISICA -TEXTO SECUNDARIO</t>
+          <t xml:space="preserve"> FISICA-TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -15100,7 +15100,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>950-13-2043-X</t>
+          <t>950-13-2023-5</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -15110,12 +15110,12 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Introducción a la física</t>
+          <t>Nociones de física y química</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Maiztegui, Alberto P.; Sábato, Jorge A. (1924-1983)</t>
+          <t>Maiztegui, Alberto P.; Boido, Guillermo (1941-...)</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -15125,7 +15125,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -15135,7 +15135,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FISICA-TEXTO SECUNDARIO</t>
+          <t xml:space="preserve">  FISICA-TEXTO SECUNDARIO QUIMICA-TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -15147,7 +15147,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>950-13-2023-5</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -15157,22 +15157,22 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Nociones de física y química</t>
+          <t>Una teoría científica de la cultura y otros ensayos</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Maiztegui, Alberto P.; Boido, Guillermo (1941-...)</t>
+          <t>Malinowski, Bronislaw (1884-1942); Huntington, Cairns (prol.); Cortázar, Augusto Raúl (1910-1974) (trad.)</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Sudamericana</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -15182,7 +15182,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t xml:space="preserve">  FISICA-TEXTO SECUNDARIO QUIMICA-TEXTO SECUNDARIO</t>
+          <t xml:space="preserve"> CULTURA</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -15204,91 +15204,91 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Una teoría científica de la cultura y otros ensayos</t>
+          <t>Totem y tabú</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Malinowski, Bronislaw (1884-1942); Huntington, Cairns (prol.); Cortázar, Augusto Raúl (1910-1974) (trad.)</t>
+          <t>Freud, Sigmund (1856-1939); López-Ballesteros, Luis (trad.)</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Sudamericana</t>
+          <t>Alianza</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CULTURA</t>
+          <t xml:space="preserve"> PSICOANALISIS-FREUD SIGMUND -</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>12/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-581-005-0</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Totem y tabú</t>
+          <t>Coplas a la muerte del maestre de Santiago, Don Rodrigo Manrique, su padre</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Freud, Sigmund (1856-1939); López-Ballesteros, Luis (trad.)</t>
+          <t>Manrique, Jorge (1440-1479)</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Alianza</t>
+          <t>Colihue</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSICOANALISIS-FREUD SIGMUND -</t>
+          <t>- LITERATURA ESPAÑOLA-POESIA</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>12/03/1996</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>950-581-005-0</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -15298,22 +15298,22 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Coplas a la muerte del maestre de Santiago, Don Rodrigo Manrique, su padre</t>
+          <t>Una excursión a los indios ranqueles</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Manrique, Jorge (1440-1479)</t>
+          <t>Mansilla, Lucio Victorio (1831-1913)</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Colihue</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -15323,7 +15323,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>- LITERATURA ESPAÑOLA-POESIA</t>
+          <t>- LITERATURA ARGENTINA-NOVELA</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -15340,17 +15340,17 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Una excursión a los indios ranqueles</t>
+          <t>Manual del alumno 4/7 (Capital Federal)</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Mansilla, Lucio Victorio (1831-1913)</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -15360,7 +15360,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -15370,7 +15370,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-NOVELA</t>
+          <t xml:space="preserve"> MANUAL NIVEL PRIMARIO- GRADO</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -15382,7 +15382,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-046-195-2</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -15392,7 +15392,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Manual del alumno 4/7 (Capital Federal)</t>
+          <t>Manual esencial Santillana 4</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -15402,12 +15402,12 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Santillana</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
@@ -15417,7 +15417,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MANUAL NIVEL PRIMARIO- GRADO</t>
+          <t xml:space="preserve"> MANUAL NIVEL PRIMARIO-º GRADO</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -15429,7 +15429,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>950-046-195-2</t>
+          <t>950-46-196-0</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -15439,7 +15439,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Manual esencial Santillana 4</t>
+          <t>Manual esencial Santillana 5</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -15476,7 +15476,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>950-46-196-0</t>
+          <t>950-046-197-9</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -15486,7 +15486,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Manual esencial Santillana 5</t>
+          <t>Manual esencial Santillana 7</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -15523,7 +15523,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>950-046-197-9</t>
+          <t>950-46-0194-4</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -15533,7 +15533,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Manual esencial Santillana 7</t>
+          <t>Manual esencial Santillana 6</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -15570,7 +15570,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>950-46-0194-4</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Manual esencial Santillana 6</t>
+          <t>Diccionario politécnico de las lenguas española e inglesa</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -15590,22 +15590,22 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Santillana</t>
+          <t>Castilla</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1958</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MANUAL NIVEL PRIMARIO-º GRADO</t>
+          <t xml:space="preserve"> INGLES-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -15617,7 +15617,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-25-1601-X</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -15627,32 +15627,32 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Diccionario politécnico de las lenguas española e inglesa</t>
+          <t>Diccionario hípico : Voces y expresiones rioplatenses</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Barcia, José (1911-1985)</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Castilla</t>
+          <t>Plus Ultra</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>1978</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INGLES-ESPAÑOL-DICCIONARIO</t>
+          <t xml:space="preserve"> MODISMOS-ARGENTINA-DICCIONARIO ESPAÑOL-MODISMOS HIPISMO-MODISMOS-ARGENTINA-DICCIONARIO MODISMOS-ARGENTINA-HIPISMO-DICCIONARIO</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -15664,32 +15664,32 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>950-25-1601-X</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Diccionario hípico : Voces y expresiones rioplatenses</t>
+          <t>El son entero</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Barcia, José (1911-1985)</t>
+          <t>Guillén, Nicolás (1902-1989)</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Plus Ultra</t>
+          <t>Losada</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -15699,12 +15699,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MODISMOS-ARGENTINA-DICCIONARIO ESPAÑOL-MODISMOS HIPISMO-MODISMOS-ARGENTINA-DICCIONARIO MODISMOS-ARGENTINA-HIPISMO-DICCIONARIO</t>
+          <t>- LITERATURA CUBANA-POESIA</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>12/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -15716,42 +15716,42 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>El son entero</t>
+          <t>Diccionario de asonantes y consonantes</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Guillén, Nicolás (1902-1989)</t>
+          <t>Benot, Eduardo (1822-1907)</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Losada</t>
+          <t>Juan Muñoz Sánchez</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1943</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>- LITERATURA CUBANA-POESIA</t>
+          <t xml:space="preserve"> ESPAÑOL-RIMA-DICCIONARIO RIMA-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>12/03/1996</t>
         </is>
       </c>
     </row>
@@ -15763,42 +15763,42 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Diccionario de asonantes y consonantes</t>
+          <t>Eufemia</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Benot, Eduardo (1822-1907)</t>
+          <t>Rueda, Lope de (1510-1565); Timoneda, Joan de (1520-1583) (prol.)</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Juan Muñoz Sánchez</t>
+          <t>Espasa-Calpe</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>1944</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPAÑOL-RIMA-DICCIONARIO RIMA-ESPAÑOL-DICCIONARIO</t>
+          <t>- LITERATURA ESPAÑOLA-TEATRO</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>12/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -15810,27 +15810,27 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Eufemia</t>
+          <t>Diccionario de la conjugación : Los 12.000 verbos en castellano</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Rueda, Lope de (1510-1565); Timoneda, Joan de (1520-1583) (prol.)</t>
+          <t>García Elorrio, Aurelio</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Espasa-Calpe</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -15840,12 +15840,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>- LITERATURA ESPAÑOLA-TEATRO</t>
+          <t xml:space="preserve"> ESPAÑOL-CONJUGACION-DICCIONARIO</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>12/03/1996</t>
         </is>
       </c>
     </row>
@@ -15862,7 +15862,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Diccionario de la conjugación : Los 12.000 verbos en castellano</t>
+          <t>Diccionario de la conjugación</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -15877,7 +15877,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -15899,7 +15899,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>84-249-1332-9</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -15909,32 +15909,32 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Diccionario de la conjugación</t>
+          <t>Breve diccionario etimológico de la lengua castellana</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>García Elorrio, Aurelio</t>
+          <t>Corominas, Joan</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Gredos</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPAÑOL-CONJUGACION-DICCIONARIO</t>
+          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO ETIMOLOGIA-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -15946,7 +15946,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>84-249-1332-9</t>
+          <t>84-249-1321-3</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -15956,7 +15956,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Breve diccionario etimológico de la lengua castellana</t>
+          <t>Diccionario crítico etimológico de la lengua castellana</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -15971,7 +15971,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
@@ -15993,7 +15993,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>84-249-1321-3</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -16003,22 +16003,22 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Diccionario crítico etimológico de la lengua castellana</t>
+          <t>Diccionario etimológico español e hispánico</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>Corominas, Joan</t>
+          <t>García de Diego, Vicente</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Gredos</t>
+          <t>Espasa</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -16028,7 +16028,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO ETIMOLOGIA-ESPAÑOL-DICCIONARIO</t>
+          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -16050,22 +16050,22 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Diccionario etimológico español e hispánico</t>
+          <t>Diccionario español escolar etimológico</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>García de Diego, Vicente</t>
+          <t>Diez Mateo, Félix</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Espasa</t>
+          <t>Fax</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>(19--)</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -16097,32 +16097,32 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Diccionario español escolar etimológico</t>
+          <t>Diccionario etimológico de la lengua castellana</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Diez Mateo, Félix</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>Fax</t>
+          <t>El Ateneo</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>(19--)</t>
+          <t>1941</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO</t>
+          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO ETIMOLOGIA-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -16149,17 +16149,17 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Monlau, Pedro Felipe</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>El Ateneo</t>
+          <t>Gil</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>1941</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -16169,7 +16169,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO ETIMOLOGIA-ESPAÑOL-DICCIONARIO</t>
+          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -16191,27 +16191,27 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Diccionario etimológico de la lengua castellana</t>
+          <t>Diccionario general etimológico de la lengua española</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Monlau, Pedro Felipe</t>
+          <t>Echegaray, Eduardo de</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Gil</t>
+          <t>Alvarez, impr.</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1898</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
@@ -16233,42 +16233,42 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Diccionario general etimológico de la lengua española</t>
+          <t>Belleza : En verso</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Echegaray, Eduardo de</t>
+          <t>Jiménez, Juan Ramón (1881-1958)</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Alvarez, impr.</t>
+          <t>Losada</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>1898</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO</t>
+          <t>- LITERATURA ESPAÑOLA-POESIA</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>12/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -16280,49 +16280,49 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Belleza : En verso</t>
+          <t>Diccionario ideológico de la lengua española</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Jiménez, Juan Ramón (1881-1958)</t>
+          <t>Casares, Julio</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Losada</t>
+          <t>Gili</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t>- LITERATURA ESPAÑOLA-POESIA</t>
+          <t xml:space="preserve"> DICCIONARIO</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>12/03/1996</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>84-283-1366-0</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -16332,32 +16332,32 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Diccionario ideológico de la lengua española</t>
+          <t>Diccionario de métrica española</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Casares, Julio</t>
+          <t>Domínguez Caparrós, José</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Gili</t>
+          <t>Paraninfo</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO</t>
+          <t xml:space="preserve"> ESPAÑOL-METRICA-DICCIONARIO METRICA-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -16369,7 +16369,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>84-283-1366-0</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -16379,32 +16379,32 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Diccionario de métrica española</t>
+          <t>Diccionario de parónimos castellanos</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Domínguez Caparrós, José</t>
+          <t>Lazzati, Santiago</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Paraninfo</t>
+          <t>Sopena</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1971</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPAÑOL-METRICA-DICCIONARIO METRICA-ESPAÑOL-DICCIONARIO</t>
+          <t xml:space="preserve"> ESPAÑOL-PARONIMOS-DICCIONARIO</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -16416,7 +16416,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-13-2067-7</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -16426,22 +16426,22 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Diccionario de parónimos castellanos</t>
+          <t>Nuevo castellano 1 : Lengua y literatura. Lenguaje y comunicación</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Lazzati, Santiago</t>
+          <t>Lacau, María Hortensia (1910-2006); Rosetti, Mabel</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Sopena</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -16451,7 +16451,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPAÑOL-PARONIMOS-DICCIONARIO</t>
+          <t xml:space="preserve"> CASTELLANO-TEXTO SECUNDARIO LITERATURA -TEXTO SECUNDARIO COMUNICACION-TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -16463,7 +16463,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>950-13-2067-7</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -16473,7 +16473,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Nuevo castellano 1 : Lengua y literatura. Lenguaje y comunicación</t>
+          <t>Nuevo castellano 2 : Lengua y literatura. Lenguaje y comunicación</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -16488,7 +16488,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -16498,7 +16498,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CASTELLANO-TEXTO SECUNDARIO LITERATURA -TEXTO SECUNDARIO COMUNICACION-TEXTO SECUNDARIO</t>
+          <t xml:space="preserve"> LENGUA -TEXTO SECUNDARIO LITERATURA -TEXTO SECUNDARIO COMUNICACION-TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -16510,7 +16510,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-13-2069-3</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -16520,7 +16520,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Nuevo castellano 2 : Lengua y literatura. Lenguaje y comunicación</t>
+          <t>Nuevo castellano 3 : Lengua y literatura. Lenguaje y comunicación</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -16545,7 +16545,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LENGUA -TEXTO SECUNDARIO LITERATURA -TEXTO SECUNDARIO COMUNICACION-TEXTO SECUNDARIO</t>
+          <t xml:space="preserve"> LENGUA -TEXTO SECUNDARIO COMUNICACION-TEXTO SECUNDARIO LITERATURA -TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -16557,7 +16557,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>950-13-2069-3</t>
+          <t>950-46-0121-9</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -16567,22 +16567,22 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Nuevo castellano 3 : Lengua y literatura. Lenguaje y comunicación</t>
+          <t>Ciencias biológicas 3</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Lacau, María Hortensia (1910-2006); Rosetti, Mabel</t>
+          <t>Rubel, Diana Nora; Guahnon, Esther Liliana; Lacreu, Laura Irene</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Santillana</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LENGUA -TEXTO SECUNDARIO COMUNICACION-TEXTO SECUNDARIO LITERATURA -TEXTO SECUNDARIO</t>
+          <t xml:space="preserve"> BIOLOGIA-TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -16604,32 +16604,32 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>950-46-0121-9</t>
+          <t>950-581-039-5</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Ciencias biológicas 3</t>
+          <t>Las de Barranco</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>Rubel, Diana Nora; Guahnon, Esther Liliana; Lacreu, Laura Irene</t>
+          <t>Laferrére, Gregorio de (1867-1913)</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Santillana</t>
+          <t>Colihue</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
@@ -16639,57 +16639,10 @@
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BIOLOGIA-TEXTO SECUNDARIO</t>
+          <t>- LITERATURA ARGENTINA-TEATRO</t>
         </is>
       </c>
       <c r="I345" t="inlineStr">
-        <is>
-          <t>12/03/1996</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>950-581-039-5</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>LITERATURA</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>Las de Barranco</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>Laferrére, Gregorio de (1867-1913)</t>
-        </is>
-      </c>
-      <c r="E346" t="inlineStr">
-        <is>
-          <t>Colihue</t>
-        </is>
-      </c>
-      <c r="F346" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="G346" t="inlineStr">
-        <is>
-          <t>Buenos Aires</t>
-        </is>
-      </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>- LITERATURA ARGENTINA-TEATRO</t>
-        </is>
-      </c>
-      <c r="I346" t="inlineStr">
         <is>
           <t>12/03/1996</t>
         </is>

--- a/library_catalog.xlsx
+++ b/library_catalog.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I345"/>
+  <dimension ref="A1:I346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8379,7 +8379,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>84-7153-192-5</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -8389,32 +8389,32 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Diccionario manual griego-español</t>
+          <t>Diccionario francés-español y español-francés</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Pabón Suárez de Urbina, José Manuel</t>
+          <t>Salvá, Vicente D. (1786-1894)</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Biblograf</t>
+          <t>Macland, impr.</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t xml:space="preserve">  GRIEGO-ESPAÑOL-DICCIONARIO ESPAÑOL-GRIEGO-DICCIONARIO</t>
+          <t xml:space="preserve">  FRANCES-ESPAÑOL-DICCIONARIO ESPAÑOL-FRANCES-DICCIONARIO</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
@@ -8426,7 +8426,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>84-7153-192-5</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -8436,32 +8436,32 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Diccionario guaraní-castellano castellano-guaraní</t>
+          <t>Diccionario manual griego-español</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Ortiz Mayans, Antonio</t>
+          <t>Pabón Suárez de Urbina, José Manuel</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Victoria, impr.</t>
+          <t>Biblograf</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>1949</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t xml:space="preserve">  GUARANI LINGÜISTICA-DICCIONARIO ESPAÑOL-GUARANI-DICCIONARIO</t>
+          <t xml:space="preserve">  GRIEGO-ESPAÑOL-DICCIONARIO ESPAÑOL-GRIEGO-DICCIONARIO</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
@@ -8483,22 +8483,22 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Diccionario Atlantic inglés-español español-inglés</t>
+          <t>Diccionario guaraní-castellano castellano-guaraní</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Ortiz Mayans, Antonio</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Sudamericana</t>
+          <t>Victoria, impr.</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>1949</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t xml:space="preserve">  INGLES-ESPAÑOL-DICCIONARIO ESPAÑOL-INGLES-DICCIONARIO</t>
+          <t xml:space="preserve">  GUARANI LINGÜISTICA-DICCIONARIO ESPAÑOL-GUARANI-DICCIONARIO</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -8530,27 +8530,27 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Diccionario revisado inglés-español y español-inglés</t>
+          <t>Diccionario Atlantic inglés-español español-inglés</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Cuyás Armengol, Arturo</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Appleton</t>
+          <t>Sudamericana</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>1977</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Nueva York</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -8592,7 +8592,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>1956</t>
+          <t>1962</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -8619,42 +8619,42 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>El hombre que compró un automóvil</t>
+          <t>Diccionario revisado inglés-español y español-inglés</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Fernández-Flórez, Wenceslao</t>
+          <t>Cuyás Armengol, Arturo</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Espasa-Calpe</t>
+          <t>Appleton</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1956</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Nueva York</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>- LITERATURA ESPAÑOLA-NOVELA</t>
+          <t xml:space="preserve">  INGLES-ESPAÑOL-DICCIONARIO ESPAÑOL-INGLES-DICCIONARIO</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>07/03/1996</t>
         </is>
       </c>
     </row>
@@ -8666,215 +8666,215 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Pequeño diccionario español-inglés</t>
+          <t>El hombre que compró un automóvil</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Fernández-Flórez, Wenceslao</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Sopena</t>
+          <t>Espasa-Calpe</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t xml:space="preserve">  INGLES-ESPAÑOL-DICCIONARIO ESPAÑOL-INGLES-DICCIONARIO</t>
+          <t>- LITERATURA ESPAÑOLA-NOVELA</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>07/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>950-25-2700-3</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Juan Moreira</t>
+          <t>Pequeño diccionario español-inglés</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Gutiérrez, Eduardo (1851-1889)</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>CEAL</t>
+          <t>Sopena</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-NOVELA NOVELA ARGENTINA</t>
+          <t xml:space="preserve">  INGLES-ESPAÑOL-DICCIONARIO ESPAÑOL-INGLES-DICCIONARIO</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>07/03/1996</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>84-283-l354-7</t>
+          <t>950-25-2700-3</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Diccionario técnico inglés-español</t>
+          <t>Juan Moreira</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Malgorn, Guy</t>
+          <t>Gutiérrez, Eduardo (1851-1889)</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Paraninfo</t>
+          <t>CEAL</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INGLES-ESPAÑOL-DICCIONARIO</t>
+          <t>- LITERATURA ARGENTINA-NOVELA NOVELA ARGENTINA</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>08/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>84-283-l354-7</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>El ombú y otros cuentos rioplatenses</t>
+          <t>Diccionario técnico inglés-español</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Hudson, Guillermo Enrique (1841-1922)</t>
+          <t>Malgorn, Guy</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Espasa-Calpe</t>
+          <t>Paraninfo</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-CUENTO</t>
+          <t xml:space="preserve"> INGLES-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>08/03/1996</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>950-02-6320-3</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Diccionario inglés-español español-inglés</t>
+          <t>El ombú y otros cuentos rioplatenses</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Hudson, Guillermo Enrique (1841-1922)</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>El Ateneo</t>
+          <t>Espasa-Calpe</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>1955</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -8884,19 +8884,19 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INGLES-ESPAÑOL-DICCIONARIO</t>
+          <t>- LITERATURA ARGENTINA-CUENTO</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>08/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-02-6320-3</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -8916,22 +8916,22 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Appleton</t>
+          <t>El Ateneo</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1992</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Nueva York</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t xml:space="preserve">  INGLES-ESPAÑOL-DICCIONARIO ESPAÑOL-INGLES-DICCIONARIO</t>
+          <t xml:space="preserve"> INGLES-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
@@ -8953,7 +8953,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Diccionario práctico inglés-castellano y castellano-inglés</t>
+          <t>Diccionario inglés-español español-inglés</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -8963,17 +8963,17 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Sopena</t>
+          <t>Appleton</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Nueva York</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -8990,7 +8990,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>950-701-217-6</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -9000,22 +9000,22 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Geografía argentina</t>
+          <t>Diccionario práctico inglés-castellano y castellano-inglés</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Ciccolella, Pablo</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Aique</t>
+          <t>Sopena</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -9025,7 +9025,7 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> GEOGRAFIA-ARGENTINA-TEXTO SECUNDARIO</t>
+          <t xml:space="preserve">  INGLES-ESPAÑOL-DICCIONARIO ESPAÑOL-INGLES-DICCIONARIO</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
@@ -9037,7 +9037,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-701-217-6</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -9047,32 +9047,32 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Tratado de química física</t>
+          <t>Geografía argentina</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Glasstone, Samuel (1897-1986)</t>
+          <t>Ciccolella, Pablo</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Aguilar</t>
+          <t>Aique</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FISICOQUIMICA</t>
+          <t xml:space="preserve"> GEOGRAFIA-ARGENTINA-TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -9094,32 +9094,32 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Introducción al cálculo de probabilidades</t>
+          <t>Tratado de química física</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Gnedenko, B.V.; Jinchin, A.I.</t>
+          <t>Glasstone, Samuel (1897-1986)</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Eudeba</t>
+          <t>Aguilar</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PROBABILIDAD MATEMATICA</t>
+          <t xml:space="preserve"> FISICOQUIMICA</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -9136,27 +9136,27 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Fausto</t>
+          <t>Introducción al cálculo de probabilidades</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Goethe, Johann Wolfgang von (1749-1832)</t>
+          <t>Gnedenko, B.V.; Jinchin, A.I.</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>CEAL</t>
+          <t>Eudeba</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -9166,7 +9166,7 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>- LITERATURA ALEMANA-TEATRO TEATRO ALEMAN</t>
+          <t xml:space="preserve"> PROBABILIDAD MATEMATICA</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -9188,32 +9188,32 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Werther</t>
+          <t>Fausto</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Goethe, Johann Wolfgang von (1749-1832); Bravo-Villasante, Carmen (prol.)</t>
+          <t>Goethe, Johann Wolfgang von (1749-1832)</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Salvat</t>
+          <t>CEAL</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1978</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Navarra</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>- LITERATURA ALEMANA-NOVELA NOVELA ALEMANA</t>
+          <t>- LITERATURA ALEMANA-TEATRO TEATRO ALEMAN</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -9225,42 +9225,42 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>950-46-0086-7</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Historia 1</t>
+          <t>Werther</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>González, Alba Susana; Jáuregui, Pablo; Valle Rodríguez, Irene María del</t>
+          <t>Goethe, Johann Wolfgang von (1749-1832); Bravo-Villasante, Carmen (prol.)</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Santillana</t>
+          <t>Salvat</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Navarra</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HISTORIA ANTIGUA-TEXTO SECUNDARIO</t>
+          <t>- LITERATURA ALEMANA-NOVELA NOVELA ALEMANA</t>
         </is>
       </c>
       <c r="I188" t="inlineStr">
@@ -9272,7 +9272,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-46-0086-7</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -9282,22 +9282,22 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Personalidades de la Argentina : Diccionario biográfico contemporáneo</t>
+          <t>Historia 1</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Rizzuto, Francisco Antonio (ed.)</t>
+          <t>González, Alba Susana; Jáuregui, Pablo; Valle Rodríguez, Irene María del</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Veritas</t>
+          <t>Santillana</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -9307,7 +9307,7 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BIOGRAFIAS-ARGENTINA-DICCIONARIO</t>
+          <t xml:space="preserve"> HISTORIA ANTIGUA-TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
@@ -9329,22 +9329,22 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Diccionario inglés-español español-inglés</t>
+          <t>Personalidades de la Argentina : Diccionario biográfico contemporáneo</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Steinhart</t>
+          <t>Rizzuto, Francisco Antonio (ed.)</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>El Muncial, impr.</t>
+          <t>Veritas</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -9354,7 +9354,7 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t xml:space="preserve">  INGLES-ESPAÑOL-DICCIONARIO ESPAÑOL-INGLES-DICCIONARIO</t>
+          <t xml:space="preserve"> BIOGRAFIAS-ARGENTINA-DICCIONARIO</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
@@ -9376,27 +9376,27 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Gran diccionario inglés-español</t>
+          <t>Diccionario inglés-español español-inglés</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Cuyás Armengol, Arturo</t>
+          <t>Steinhart</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>HYMSA</t>
+          <t>El Muncial, impr.</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1944</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -9423,7 +9423,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Nuevo diccionario Cuyás inglés-español español-inglés</t>
+          <t>Gran diccionario inglés-español</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -9433,17 +9433,17 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Appleton</t>
+          <t>HYMSA</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Nueva York</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -9465,42 +9465,42 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>El casamiento de Laucha</t>
+          <t>Nuevo diccionario Cuyás inglés-español español-inglés</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Payró, Roberto J. (1867-1928)</t>
+          <t>Cuyás Armengol, Arturo</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Losada</t>
+          <t>Appleton</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Nueva York</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-NOVELA</t>
+          <t xml:space="preserve">  INGLES-ESPAÑOL-DICCIONARIO ESPAÑOL-INGLES-DICCIONARIO</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>08/03/1996</t>
         </is>
       </c>
     </row>
@@ -9512,49 +9512,49 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Diccionario de dificultades de inglés</t>
+          <t>El casamiento de Laucha</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Torrents del Prats, Alfonso</t>
+          <t>Payró, Roberto J. (1867-1928)</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Losada</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INGLES-DICCIONARIO DIFICULTADES-INGLES-DICCIONARIO</t>
+          <t>- LITERATURA ARGENTINA-NOVELA</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>08/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>84-283-0425-4</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -9564,32 +9564,32 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Diccionario de dudas inglés-español</t>
+          <t>Diccionario de dificultades de inglés</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Merino, José</t>
+          <t>Torrents del Prats, Alfonso</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Paraninfo</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INGLES-ESPAÑOL-DICCIONARIO</t>
+          <t xml:space="preserve"> INGLES-DICCIONARIO DIFICULTADES-INGLES-DICCIONARIO</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
@@ -9601,7 +9601,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>84-283-0425-4</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -9611,44 +9611,44 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Diccionario de modismos ingleses</t>
+          <t>Diccionario de dudas inglés-español</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Caldwell, Pablo</t>
+          <t>Merino, José</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Sopena</t>
+          <t>Paraninfo</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>1954</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INGLES-MODISMOS-DICCIONARIO</t>
+          <t xml:space="preserve"> INGLES-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>08/03/1996</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>84-283-0923-X</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -9658,32 +9658,32 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Diccionario técnico inglés-español</t>
+          <t>Diccionario de modismos ingleses</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Malgorn, Guy</t>
+          <t>Caldwell, Pablo</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Paraninfo</t>
+          <t>Sopena</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1954</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INGLES-ESPAÑOL-DICCIONARIO</t>
+          <t xml:space="preserve"> INGLES-MODISMOS-DICCIONARIO</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
@@ -9695,7 +9695,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>84-283-0923-X</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -9705,32 +9705,32 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Diccionario práctico italiano-castellano</t>
+          <t>Diccionario técnico inglés-español</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Malgorn, Guy</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Sopena</t>
+          <t>Paraninfo</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>1952</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ITALIANO-ESPAÑOL-DICCIONARIO ESPAÑOL-ITALIANO-DICCIONARIO</t>
+          <t xml:space="preserve"> INGLES-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
@@ -9752,12 +9752,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Diccionario italiano-español español-italiano : Dizionario italiano-spagnolo e spagnolo-italiano</t>
+          <t>Diccionario práctico italiano-castellano</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Martinez Amador, Emilio M.</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -9767,12 +9767,12 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1952</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -9799,32 +9799,32 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Manual de la conversación y del estilo epistolar :  Español-italiano</t>
+          <t>Diccionario italiano-español español-italiano : Dizionario italiano-spagnolo e spagnolo-italiano</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Corona Bustamante, F.; Vitali, G.</t>
+          <t>Martinez Amador, Emilio M.</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Garnier</t>
+          <t>Sopena</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>(19--)</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>París</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ESPAÑOL-ORATORIA ITALIANO-ORATORIA</t>
+          <t xml:space="preserve">  ITALIANO-ESPAÑOL-DICCIONARIO ESPAÑOL-ITALIANO-DICCIONARIO</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
@@ -9846,32 +9846,32 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Nuovo dizionario spagnolo-italiano e italiano-spagnolo</t>
+          <t>Manual de la conversación y del estilo epistolar :  Español-italiano</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Ambruzzi, Lucio</t>
+          <t>Corona Bustamante, F.; Vitali, G.</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Paravia</t>
+          <t>Garnier</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>(19--)</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Turín</t>
+          <t>París</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ITALIANO-ESPAÑOL-DICCIONARIO</t>
+          <t xml:space="preserve">  ESPAÑOL-ORATORIA ITALIANO-ORATORIA</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
@@ -9893,27 +9893,27 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Nuovo dizionario spagnolo-italiano : Commerciale, scientifico, tecnico, militare, marinesco</t>
+          <t>Nuovo dizionario spagnolo-italiano e italiano-spagnolo</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Melzi, J.B.</t>
+          <t>Ambruzzi, Lucio</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Treves</t>
+          <t>Paravia</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>1971</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Milán</t>
+          <t>Turín</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -9940,22 +9940,22 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Dizionario moderno italiano-spagnuolo e spagnuolo-italiano</t>
+          <t>Nuovo dizionario spagnolo-italiano : Commerciale, scientifico, tecnico, militare, marinesco</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Frisoni, Cayetano</t>
+          <t>Melzi, J.B.</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Hoepli</t>
+          <t>Treves</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>1917</t>
+          <t>1938</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -9965,7 +9965,7 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ITALIANO-ESPAÑOL-DICCIONARIO ESPAÑOL-ITALIANO-DICCIONARIO</t>
+          <t xml:space="preserve"> ITALIANO-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
@@ -9977,94 +9977,94 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>950-07-0587-7</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Antología de la literatura fantástica</t>
+          <t>Dizionario moderno italiano-spagnuolo e spagnuolo-italiano</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Borges, Jorge Luis (1899-1986) (comp.); Bioy Casares, Adolfo (1914-1999) (comp.); Ocampo, Silvina (1903-1994) (comp.)</t>
+          <t>Frisoni, Cayetano</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Sudamericana</t>
+          <t>Hoepli</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>1917</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Milán</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>- LITERATURA UNIVERSAL-CUENTO-ANTOLOGIA</t>
+          <t xml:space="preserve">  ITALIANO-ESPAÑOL-DICCIONARIO ESPAÑOL-ITALIANO-DICCIONARIO</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-07-0587-7</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Diccionario italiano-español español-italiano</t>
+          <t>Antología de la literatura fantástica</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Caccia, D.</t>
+          <t>Borges, Jorge Luis (1899-1986) (comp.); Bioy Casares, Adolfo (1914-1999) (comp.); Ocampo, Silvina (1903-1994) (comp.)</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Garnier</t>
+          <t>Sudamericana</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>(19--)</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>París</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ITALIANO-ESPAÑOL-DICCIONARIO</t>
+          <t>- LITERATURA UNIVERSAL-CUENTO-ANTOLOGIA</t>
         </is>
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -10081,32 +10081,32 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Diccionario español-italiano e italiano-español</t>
+          <t>Diccionario italiano-español español-italiano</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Caccia, D.</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Sopena</t>
+          <t>Garnier</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>(19--)</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>París</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ITALIANO-ESPAÑOL-DICCIONARIO ESPAÑOL-ITALIANO-DICCIONARIO</t>
+          <t xml:space="preserve"> ITALIANO-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
@@ -10138,17 +10138,17 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Hoepli</t>
+          <t>Sopena</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Milán</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -10170,42 +10170,42 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Fan : Historia de una niña</t>
+          <t>Diccionario español-italiano e italiano-español</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Hudson, Guillermo Enrique (1841-1922); Massini, Carlos A. (trad.)</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Santiago Rueda</t>
+          <t>Hoepli</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>1947</t>
+          <t>1971</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Milán</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-NOVELA</t>
+          <t xml:space="preserve">  ITALIANO-ESPAÑOL-DICCIONARIO ESPAÑOL-ITALIANO-DICCIONARIO</t>
         </is>
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
@@ -10217,42 +10217,42 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Diccionario latino-español español-latino</t>
+          <t>Fan : Historia de una niña</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Blanco García, Vicente</t>
+          <t>Hudson, Guillermo Enrique (1841-1922); Massini, Carlos A. (trad.)</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Aguilar</t>
+          <t>Santiago Rueda</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1947</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t xml:space="preserve">  LATIN-ESPAÑOL-DICCIONARIO ESPAÑOL-LATIN-DICCIONARIO</t>
+          <t>- LITERATURA ARGENTINA-NOVELA</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -10269,37 +10269,37 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Epicuro y sus dioses</t>
+          <t>Diccionario latino-español español-latino</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Festugiére, A.J.</t>
+          <t>Blanco García, Vicente</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Eudeba</t>
+          <t>Aguilar</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>EPICURO  FILOSOFIA-EPICURO MITOLOGIA GRIEGA</t>
+          <t xml:space="preserve">  LATIN-ESPAÑOL-DICCIONARIO ESPAÑOL-LATIN-DICCIONARIO</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
@@ -10316,37 +10316,37 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Nuevo diccionario latino-español y español-latino etimológico</t>
+          <t>Epicuro y sus dioses</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Miguel, Raimundo de; Morante, Marqués de</t>
+          <t>Festugiére, A.J.</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Victoriano Suárez, libr.</t>
+          <t>Eudeba</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t xml:space="preserve">  LATIN-ESPAÑOL-DICCIONARIO ESPAÑOL-LATIN-DICCIONARIO</t>
+          <t>EPICURO  FILOSOFIA-EPICURO MITOLOGIA GRIEGA</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -10363,32 +10363,32 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Diccionario comentado mapuche-español : Araucano, pehuelche, pampa, picunche, ranculche, huilliche</t>
+          <t>Nuevo diccionario latino-español y español-latino etimológico</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Erize, Esteban</t>
+          <t>Miguel, Raimundo de; Morante, Marqués de</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Argentina. Universidad Nacional del Sur</t>
+          <t>Victoriano Suárez, libr.</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MAPUCHE-ESPAÑOL-DICCIONARIO ARAUCANO-ESPAÑOL-DICCIONARIO PAMPA LENGUA-DICCIONARIO PEHUENCHES ABORIGENES HUILLICHE LINGÜISTICA-DICCIONARIO PICUNCHE-LENGUA-DICCIONARIO RANCULCHE-LENGUA-DICCIONARIO</t>
+          <t xml:space="preserve">  LATIN-ESPAÑOL-DICCIONARIO ESPAÑOL-LATIN-DICCIONARIO</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
@@ -10410,32 +10410,32 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Diccionario espanhol-portugués</t>
+          <t>Diccionario comentado mapuche-español : Araucano, pehuelche, pampa, picunche, ranculche, huilliche</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>García, Hamilcar de</t>
+          <t>Erize, Esteban</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Do Globo</t>
+          <t>Argentina. Universidad Nacional del Sur</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Río de Janeiro</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t xml:space="preserve">  PORTUGUES-ESPAÑOL-DICCIONARIO ESPAÑOL-PORTUGUES-DICCIONARIO</t>
+          <t xml:space="preserve"> MAPUCHE-ESPAÑOL-DICCIONARIO ARAUCANO-ESPAÑOL-DICCIONARIO PAMPA LENGUA-DICCIONARIO PEHUENCHES ABORIGENES HUILLICHE LINGÜISTICA-DICCIONARIO PICUNCHE-LENGUA-DICCIONARIO RANCULCHE-LENGUA-DICCIONARIO</t>
         </is>
       </c>
       <c r="I213" t="inlineStr">
@@ -10457,27 +10457,27 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Parvus : Pequeño diccionario portugués-castellano</t>
+          <t>Diccionario espanhol-portugués</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>García, Hamilcar de</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Sopena</t>
+          <t>Do Globo</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>1952</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Río de Janeiro</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -10504,22 +10504,22 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Diccionario manual de americanismos</t>
+          <t>Parvus : Pequeño diccionario portugués-castellano</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Morinigo, Marcos A.; Morinigo, Marcos A. (dir. y prol.)</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Muchnik</t>
+          <t>Sopena</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1952</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -10529,7 +10529,7 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AMERICANISMOS-DICCIONARIO</t>
+          <t xml:space="preserve">  PORTUGUES-ESPAÑOL-DICCIONARIO ESPAÑOL-PORTUGUES-DICCIONARIO</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
@@ -10551,22 +10551,22 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Diccionario de americanismos</t>
+          <t>Diccionario manual de americanismos</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Malaret, Augusto</t>
+          <t>Morinigo, Marcos A.; Morinigo, Marcos A. (dir. y prol.)</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Argentina. Academia de Letras</t>
+          <t>Muchnik</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -10598,22 +10598,22 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Diccionario de argentinismos de ayer y de hoy</t>
+          <t>Diccionario de americanismos</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Abad de Santillán, Diego (1897-1983)</t>
+          <t>Malaret, Augusto</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Tipográfica Editora Argentina</t>
+          <t>Argentina. Academia de Letras</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>1944</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
@@ -10623,7 +10623,7 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ARGENTINISMOS LINGÜISTICA-DICCIONARIO</t>
+          <t xml:space="preserve"> AMERICANISMOS-DICCIONARIO</t>
         </is>
       </c>
       <c r="I217" t="inlineStr">
@@ -10640,27 +10640,27 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Marta y María</t>
+          <t>Diccionario de argentinismos de ayer y de hoy</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Palacio Valdés, Armando (1853-1938)</t>
+          <t>Abad de Santillán, Diego (1897-1983)</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Espasa-Calpe</t>
+          <t>Tipográfica Editora Argentina</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>c1940</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -10670,12 +10670,12 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>- LITERATURA ESPAÑOLA-NOVELA</t>
+          <t xml:space="preserve"> ARGENTINISMOS LINGÜISTICA-DICCIONARIO</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
@@ -10687,42 +10687,42 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Dictionary of quotations : Spanish. De modismos, frases españolas</t>
+          <t>Marta y María</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Harbotte, T.; Hume, Martín</t>
+          <t>Palacio Valdés, Armando (1853-1938)</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Swan Sonnenscheir</t>
+          <t>Espasa-Calpe</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>1907</t>
+          <t>c1940</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>Londres</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> - ESPAÑOL-MODISMOS-DICCIONARIO ESPAÑOL-REFRANES-DICCIONARIO</t>
+          <t>- LITERATURA ESPAÑOLA-NOVELA</t>
         </is>
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -10734,42 +10734,42 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>La gloria de don Ramiro : Una vida en tiempos de Felipe II</t>
+          <t>Dictionary of quotations : Spanish. De modismos, frases españolas</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Larreta, Enrique (1873-1961); Flesca, Haydée (not.)</t>
+          <t>Harbotte, T.; Hume, Martín</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Swan Sonnenscheir</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>1907</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Londres</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-NOVELA</t>
+          <t xml:space="preserve"> - ESPAÑOL-MODISMOS-DICCIONARIO ESPAÑOL-REFRANES-DICCIONARIO</t>
         </is>
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
@@ -10781,27 +10781,27 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Diccionario de frases de los autores clásicos españoles</t>
+          <t>La gloria de don Ramiro : Una vida en tiempos de Felipe II</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Mir y Noguera, P. Juan</t>
+          <t>Larreta, Enrique (1873-1961); Flesca, Haydée (not.)</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Gil</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -10811,12 +10811,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPAÑOL-MODISMOS-DICCIONARIO LITERATURA ESPAÑOLA-MODISMOS MODISMOS</t>
+          <t>- LITERATURA ARGENTINA-NOVELA</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -10833,22 +10833,22 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Diccionario de galicismos</t>
+          <t>Diccionario de frases de los autores clásicos españoles</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Baralt, Rafael María; Hartzenbusch, Juan Eugenio (1806-1880) (prol.)</t>
+          <t>Mir y Noguera, P. Juan</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Hemisferio</t>
+          <t>Gil</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -10858,7 +10858,7 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPAÑOL-GALICISMOS-DICCIONARIO GALICISMOS-DICCIONARIO</t>
+          <t xml:space="preserve"> ESPAÑOL-MODISMOS-DICCIONARIO LITERATURA ESPAÑOLA-MODISMOS MODISMOS</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
@@ -10870,7 +10870,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>950-21-0312-2</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -10880,22 +10880,22 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Diccionario de voces lunfardas y vulgares</t>
+          <t>Diccionario de galicismos</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Casullo, Fernando Hugo</t>
+          <t>Baralt, Rafael María; Hartzenbusch, Juan Eugenio (1806-1880) (prol.)</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Plus Ultra</t>
+          <t>Hemisferio</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -10905,7 +10905,7 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VULGARISMOS LINGÜISTICA-ARGENTINA-DICCIONARIO LUNFARDO-DICCIONARIO</t>
+          <t xml:space="preserve"> ESPAÑOL-GALICISMOS-DICCIONARIO GALICISMOS-DICCIONARIO</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
@@ -10917,7 +10917,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-21-0312-2</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -10927,22 +10927,22 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Diccionario lunfardo y de otros términos antiguos y modernos usuales en Buenos Aires</t>
+          <t>Diccionario de voces lunfardas y vulgares</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Gobello, José (1919-2013)</t>
+          <t>Casullo, Fernando Hugo</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Peña Lillo</t>
+          <t>Plus Ultra</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -10952,7 +10952,7 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPAÑOL LINGÜISTICA-VULGARISMOS-BUENOS AIRES-DICCIONARIO LUNFARDO-DICCIONARIO</t>
+          <t xml:space="preserve"> VULGARISMOS LINGÜISTICA-ARGENTINA-DICCIONARIO LUNFARDO-DICCIONARIO</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
@@ -10974,22 +10974,22 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Diccionario de modismos de la lengua castellana</t>
+          <t>Diccionario lunfardo y de otros términos antiguos y modernos usuales en Buenos Aires</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Caballero, Ramón</t>
+          <t>Gobello, José (1919-2013)</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>El Ateneo</t>
+          <t>Peña Lillo</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>1942</t>
+          <t>1977</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -10999,7 +10999,7 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPAÑOL-MODISMOS-DICCIONARIO</t>
+          <t xml:space="preserve"> ESPAÑOL LINGÜISTICA-VULGARISMOS-BUENOS AIRES-DICCIONARIO LUNFARDO-DICCIONARIO</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
@@ -11021,32 +11021,32 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Diccionario de máximas, pensamientos y sentencias</t>
+          <t>Diccionario de modismos de la lengua castellana</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Sintes Pros, Jorge</t>
+          <t>Caballero, Ramón</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Sintes</t>
+          <t>El Ateneo</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>- LITERATURA ESPAÑOLA-MAXIMAS-DICCIONARIO LITERATURA ESPAÑOLA-SENTENCIAS-DICCIONARIO LITERATURA ESPAÑOLA-PENSAMIENTOS-DICCIONARIO</t>
+          <t xml:space="preserve"> ESPAÑOL-MODISMOS-DICCIONARIO</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
@@ -11068,32 +11068,32 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Diccionario de regionalismos de la Provincia de La Rioja</t>
+          <t>Diccionario de máximas, pensamientos y sentencias</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Cáceres Freyre, Julían</t>
+          <t>Sintes Pros, Jorge</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Argentina. Instituto Nacional de Investigaciones Folklóricas</t>
+          <t>Sintes</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>1958</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MODISMOS-LA RIOJA ARGENTINA-DICCIONARIO ESPAÑOL-MODISMOS FOLCLORE-ARGENTINA</t>
+          <t>- LITERATURA ESPAÑOLA-MAXIMAS-DICCIONARIO LITERATURA ESPAÑOLA-SENTENCIAS-DICCIONARIO LITERATURA ESPAÑOLA-PENSAMIENTOS-DICCIONARIO</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -11115,22 +11115,22 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Diccionario de topónimos indígenas de Catamarca</t>
+          <t>Diccionario de regionalismos de la Provincia de La Rioja</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Villafuerte, Carlos</t>
+          <t>Cáceres Freyre, Julían</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Plus Ultra</t>
+          <t>Argentina. Instituto Nacional de Investigaciones Folklóricas</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -11140,7 +11140,7 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> QUECHUA-TOPONIMIA-CATAMARCA-DICCIONARIO</t>
+          <t xml:space="preserve"> MODISMOS-LA RIOJA ARGENTINA-DICCIONARIO ESPAÑOL-MODISMOS FOLCLORE-ARGENTINA</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -11162,12 +11162,12 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Diccionario de voces y expresiones argentinas</t>
+          <t>Diccionario de topónimos indígenas de Catamarca</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Coluccio, Félix (1911-2005)</t>
+          <t>Villafuerte, Carlos</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
@@ -11187,7 +11187,7 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MODISMOS-ARGENTINA-DICCIONARIO</t>
+          <t xml:space="preserve"> QUECHUA-TOPONIMIA-CATAMARCA-DICCIONARIO</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -11204,27 +11204,27 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Veinte cuentos de Buenos Aires</t>
+          <t>Diccionario de voces y expresiones argentinas</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Etchenique, Nira (comp.); Lellis, Mario Jorge de (colab.)</t>
+          <t>Coluccio, Félix (1911-2005)</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Fabril</t>
+          <t>Plus Ultra</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -11234,12 +11234,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-CUENTO-ANTOLOGIA CUENTO ARGENTINO-ANTOLOGIA</t>
+          <t xml:space="preserve"> MODISMOS-ARGENTINA-DICCIONARIO</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
@@ -11251,49 +11251,49 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Dizionario francese-italiano e italiano-francese</t>
+          <t>Veinte cuentos de Buenos Aires</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Manni, Cormon E.</t>
+          <t>Etchenique, Nira (comp.); Lellis, Mario Jorge de (colab.)</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Ferrario</t>
+          <t>Fabril</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>(19--)</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Milán</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FRANCES-ITALIANO-DICCIONARIO ITALIANO-FRANCES-DICCIONARIO</t>
+          <t>- LITERATURA ARGENTINA-CUENTO-ANTOLOGIA CUENTO ARGENTINO-ANTOLOGIA</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>950-701-249-4</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -11303,32 +11303,32 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Diccionario básico de la lengua española</t>
+          <t>Dizionario francese-italiano e italiano-francese</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Manni, Cormon E.</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Aique</t>
+          <t>Ferrario</t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>(19--)</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Milán</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO-NIVEL PRIMARIO</t>
+          <t xml:space="preserve"> FRANCES-ITALIANO-DICCIONARIO ITALIANO-FRANCES-DICCIONARIO</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
@@ -11340,7 +11340,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-701-249-4</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -11350,7 +11350,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Diccionario Kapelusz de la lengua española</t>
+          <t>Diccionario básico de la lengua española</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -11360,12 +11360,12 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Aique</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -11387,32 +11387,32 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>950-860-041-1</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Amar al prójimo</t>
+          <t>Diccionario Kapelusz de la lengua española</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>Orgambide, Pedro (1929-2003) (colab.)</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Instituto Movilizador de Fondos Cooperativos</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>1979</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -11422,19 +11422,19 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-CUENTO-ANTOLOGIA</t>
+          <t xml:space="preserve"> DICCIONARIO-NIVEL PRIMARIO</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-860-041-1</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -11444,22 +11444,22 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Selección de ensayos argentinos</t>
+          <t>Amar al prójimo</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>Romero, José Edmundo (colab.)</t>
+          <t>Orgambide, Pedro (1929-2003) (colab.)</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Instituto Movilizador de Fondos Cooperativos</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -11469,7 +11469,7 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-ENSAYO-ANTOLOGIA</t>
+          <t>- LITERATURA ARGENTINA-CUENTO-ANTOLOGIA</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
@@ -11481,32 +11481,32 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>950-595-131-0</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Leer los escritos de Jacques Lacan</t>
+          <t>Selección de ensayos argentinos</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>Basch, Carlos (colab.)</t>
+          <t>Romero, José Edmundo (colab.)</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Tekne</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -11516,7 +11516,7 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSICOLOGIA</t>
+          <t>- LITERATURA ARGENTINA-ENSAYO-ANTOLOGIA</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
@@ -11528,7 +11528,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-595-131-0</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -11538,37 +11538,37 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Diccionario de la lengua castellana</t>
+          <t>Leer los escritos de Jacques Lacan</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>España. Real Academia</t>
+          <t>Basch, Carlos (colab.)</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>El Autor</t>
+          <t>Tekne</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>1726</t>
+          <t>1995</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO</t>
+          <t xml:space="preserve"> PSICOLOGIA</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -11585,37 +11585,37 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Los fundadores : crónicas y poemas de la colonia</t>
+          <t>Diccionario de la lengua castellana</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>Canal Feijóo, Bernardo (1897-1982) (comp.)</t>
+          <t>España. Real Academia</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>CEAL</t>
+          <t>El Autor</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1726</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HISTORIA-ARGENTINA</t>
+          <t xml:space="preserve"> DICCIONARIO</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
@@ -11627,27 +11627,27 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Antología de la literatura : Narradores del s.XX</t>
+          <t>Los fundadores : crónicas y poemas de la colonia</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>Manguel, Alberto (1948-...) (colab.)</t>
+          <t>Canal Feijóo, Bernardo (1897-1982) (comp.)</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>CEAL</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -11657,7 +11657,7 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-ANTOLOGIA</t>
+          <t xml:space="preserve"> HISTORIA-ARGENTINA</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
@@ -11679,12 +11679,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Geografía</t>
+          <t>Antología de la literatura : Narradores del s.XX</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>Abella Caprile, Margarita (comp.); Estrella Gutiérrez, Fermín (1900-1990) (prol.)</t>
+          <t>Manguel, Alberto (1948-...) (colab.)</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -11694,7 +11694,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-POESIA</t>
+          <t>- LITERATURA ARGENTINA-ANTOLOGIA</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
@@ -11721,42 +11721,42 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Diccionario manual e ilustrado de la lengua española</t>
+          <t>Geografía</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>España. Real Academia</t>
+          <t>Abella Caprile, Margarita (comp.); Estrella Gutiérrez, Fermín (1900-1990) (prol.)</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Espasa-Calpe</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO</t>
+          <t>- LITERATURA ARGENTINA-POESIA</t>
         </is>
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -11768,42 +11768,42 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Paulino Lucero</t>
+          <t>Diccionario manual e ilustrado de la lengua española</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>Ascasubi, Hilario (1807-1875); Mujica Láinez, Manuel (1910-1984) (prol.)</t>
+          <t>España. Real Academia</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Estrada</t>
+          <t>Espasa-Calpe</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>1950</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-POESIA</t>
+          <t xml:space="preserve"> DICCIONARIO</t>
         </is>
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
@@ -11815,42 +11815,42 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Diccionario de la lengua castellana</t>
+          <t>Paulino Lucero</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>España. Real Academia</t>
+          <t>Ascasubi, Hilario (1807-1875); Mujica Láinez, Manuel (1910-1984) (prol.)</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Hernando</t>
+          <t>Estrada</t>
         </is>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>1914</t>
+          <t>1969</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO</t>
+          <t>- LITERATURA ARGENTINA-POESIA</t>
         </is>
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -11867,7 +11867,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Diccionario de la lengua española</t>
+          <t>Diccionario de la lengua castellana</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -11877,12 +11877,12 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>El Autor</t>
+          <t>Hernando</t>
         </is>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>1925</t>
+          <t>1914</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -11909,42 +11909,42 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>El criador de gorilas</t>
+          <t>Diccionario de la lengua española</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>Arlt, Roberto (1900-1942); Arlt, Mirta (prol.)</t>
+          <t>España. Real Academia</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Fabril</t>
+          <t>El Autor</t>
         </is>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>1925</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-CUENTO</t>
+          <t xml:space="preserve"> DICCIONARIO</t>
         </is>
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
@@ -11956,42 +11956,42 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Diccionario de la lengua española</t>
+          <t>El criador de gorilas</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>España. Real Academia</t>
+          <t>Arlt, Roberto (1900-1942); Arlt, Mirta (prol.)</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Espasa-Calpe</t>
+          <t>Fabril</t>
         </is>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>1936</t>
+          <t>1969</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO</t>
+          <t>- LITERATURA ARGENTINA-CUENTO</t>
         </is>
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -12023,7 +12023,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>1947</t>
+          <t>1936</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -12065,12 +12065,12 @@
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>RAE</t>
+          <t>Espasa-Calpe</t>
         </is>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1947</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -12112,12 +12112,12 @@
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Espasa-Calpe</t>
+          <t>RAE</t>
         </is>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1970</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -12139,7 +12139,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>84-239-6983-5</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -12149,32 +12149,32 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Diccionario infantil ilustrado</t>
+          <t>Diccionario de la lengua española</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>España. Real Academia</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Plaza y Janés</t>
+          <t>Espasa-Calpe</t>
         </is>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO INFANTIL</t>
+          <t xml:space="preserve"> DICCIONARIO</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
@@ -12186,47 +12186,47 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>84-239-6983-5</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Escritos literarios</t>
+          <t>Diccionario infantil ilustrado</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>Avellaneda, Nicolás (1837-1885); Estrella Gutiérrez, Fermín (1900-1990) (not.)</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Plaza y Janés</t>
         </is>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-NOVELA NOVELA ARGENTINA</t>
+          <t xml:space="preserve"> DICCIONARIO INFANTIL</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
@@ -12238,27 +12238,27 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>El final de la cura de un fetichista</t>
+          <t>Escritos literarios</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Campo, Emiliano del; Baranger, Willy (prol.)</t>
+          <t>Avellaneda, Nicolás (1837-1885); Estrella Gutiérrez, Fermín (1900-1990) (not.)</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Kargieman</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -12268,7 +12268,7 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PERSONALIDAD PSICOLOGIA FETICHISMO PSICOLOGIA</t>
+          <t>- LITERATURA ARGENTINA-NOVELA NOVELA ARGENTINA</t>
         </is>
       </c>
       <c r="I252" t="inlineStr">
@@ -12290,37 +12290,37 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Diccionario Santillana 2</t>
+          <t>El final de la cura de un fetichista</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Campo, Emiliano del; Baranger, Willy (prol.)</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Santillana</t>
+          <t>Kargieman</t>
         </is>
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO-NIVEL PRIMARIO</t>
+          <t xml:space="preserve"> PERSONALIDAD PSICOLOGIA FETICHISMO PSICOLOGIA</t>
         </is>
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -12332,42 +12332,42 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Córdoba del recuerdo</t>
+          <t>Diccionario Santillana 2</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>Capdevila, Arturo (1889-1967)</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Espasa-Calpe</t>
+          <t>Santillana</t>
         </is>
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>CAPDEVILA AUTOBIOGRAFIAS-CAPDEVILA ARTURO MEMORIAS</t>
+          <t xml:space="preserve"> DICCIONARIO-NIVEL PRIMARIO</t>
         </is>
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
@@ -12379,27 +12379,27 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Diccionario de la lengua española (Petit Larousse)</t>
+          <t>Córdoba del recuerdo</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Capdevila, Arturo (1889-1967)</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Larousse</t>
+          <t>Espasa-Calpe</t>
         </is>
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>(19--)</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -12409,12 +12409,12 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO-NIVEL PRIMARIO</t>
+          <t>CAPDEVILA AUTOBIOGRAFIAS-CAPDEVILA ARTURO MEMORIAS</t>
         </is>
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -12426,27 +12426,27 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Cronicones alegres de Córdoba</t>
+          <t>Diccionario de la lengua española (Petit Larousse)</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>Capdevila, Arturo (1889-1967); Lazcano Colodrero, Godofredo (prol.)</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Larousse</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>(19--)</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -12456,12 +12456,12 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-CRONICA HISTORICA</t>
+          <t xml:space="preserve"> DICCIONARIO-NIVEL PRIMARIO</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
@@ -12473,42 +12473,42 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Nuevo pequeño Larousse ilustrado : Diccionario enciclopédico</t>
+          <t>Cronicones alegres de Córdoba</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Capdevila, Arturo (1889-1967); Lazcano Colodrero, Godofredo (prol.)</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Larousse</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>(19--)</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>París</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO ENCICLOPEDICO</t>
+          <t>- LITERATURA ARGENTINA-CRONICA HISTORICA</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -12525,37 +12525,37 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Estudios historico-literarios</t>
+          <t>Nuevo pequeño Larousse ilustrado : Diccionario enciclopédico</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>Gutiérrez, Juan María (1809-1878)</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Estrada</t>
+          <t>Larousse</t>
         </is>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>(19--)</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>París</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BIOGRAFIAS-ARGENTINA</t>
+          <t xml:space="preserve"> DICCIONARIO ENCICLOPEDICO</t>
         </is>
       </c>
       <c r="I258" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
@@ -12572,37 +12572,37 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Nuevo pequeño Larousse ilustrado : diccionario enciclopédico</t>
+          <t>Estudios historico-literarios</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Gutiérrez, Juan María (1809-1878)</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Larousse</t>
+          <t>Estrada</t>
         </is>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>1953</t>
+          <t>1960</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>París</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO ENCICLOPEDICO</t>
+          <t xml:space="preserve"> BIOGRAFIAS-ARGENTINA</t>
         </is>
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -12619,7 +12619,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Diccionario pequeño Larousse ilustrado</t>
+          <t>Nuevo pequeño Larousse ilustrado : diccionario enciclopédico</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -12634,7 +12634,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1953</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -12644,7 +12644,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO-NIVEL PRIMARIO</t>
+          <t xml:space="preserve"> DICCIONARIO ENCICLOPEDICO</t>
         </is>
       </c>
       <c r="I260" t="inlineStr">
@@ -12661,42 +12661,42 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>El doradillo y otros cuentos</t>
+          <t>Diccionario pequeño Larousse ilustrado</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>Cárpena, Elías (1897-1988); Mazzei, Angel (comp.)</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Larousse</t>
         </is>
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>París</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-CUENTO</t>
+          <t xml:space="preserve"> DICCIONARIO-NIVEL PRIMARIO</t>
         </is>
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
@@ -12708,121 +12708,121 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Diccionario pequeño Larousse ilustrado</t>
+          <t>El doradillo y otros cuentos</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>Toro y Gisbert, Miguel de</t>
+          <t>Cárpena, Elías (1897-1988); Mazzei, Angel (comp.)</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Larousse</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>París</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO-NIVEL PRIMARIO</t>
+          <t>- LITERATURA ARGENTINA-CUENTO</t>
         </is>
       </c>
       <c r="I262" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>987-95000-1-6</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>El encargo</t>
+          <t>Diccionario pequeño Larousse ilustrado</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>Córdoba, Betty</t>
+          <t>Toro y Gisbert, Miguel de</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Poiesis</t>
+          <t>Larousse</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>París</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-CUENTO</t>
+          <t xml:space="preserve"> DICCIONARIO-NIVEL PRIMARIO</t>
         </is>
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>950-538-500-5</t>
+          <t>987-95000-1-6</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Pequeño Larousse ilustrado</t>
+          <t>El encargo</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>García Pelayo y Gross, Ramón</t>
+          <t>Córdoba, Betty</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Larousse</t>
+          <t>Poiesis</t>
         </is>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>1997</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -12832,19 +12832,19 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO-NIVEL PRIMARIO</t>
+          <t>- LITERATURA ARGENTINA-CUENTO</t>
         </is>
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-538-500-5</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -12854,27 +12854,27 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Diccionario castellano de bolsillo</t>
+          <t>Pequeño Larousse ilustrado</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>Quintana, Jorge</t>
+          <t>García Pelayo y Gross, Ramón</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>(s.n.)</t>
+          <t>Larousse</t>
         </is>
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>(19--)</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>París</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -12901,32 +12901,32 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Nuevo diccionario ilustrado de la lengua española</t>
+          <t>Diccionario castellano de bolsillo</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Quintana, Jorge</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Sopena</t>
+          <t>(s.n.)</t>
         </is>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>1934</t>
+          <t>(19--)</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>París</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO</t>
+          <t xml:space="preserve"> DICCIONARIO-NIVEL PRIMARIO</t>
         </is>
       </c>
       <c r="I266" t="inlineStr">
@@ -12948,7 +12948,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Diccionario de voces nuevas de la lengua castellana</t>
+          <t>Nuevo diccionario ilustrado de la lengua española</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -12958,17 +12958,17 @@
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Sociedad Editora Americana</t>
+          <t>Sopena</t>
         </is>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>1934</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
@@ -12990,27 +12990,27 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>El viento blanco</t>
+          <t>Diccionario de voces nuevas de la lengua castellana</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Dávalos, Juan Carlos (1887-1959)</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Eudeba</t>
+          <t>Sociedad Editora Americana</t>
         </is>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -13020,44 +13020,44 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-CUENTO</t>
+          <t xml:space="preserve"> DICCIONARIO</t>
         </is>
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>950-9522-04-X</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Los mismos-distintos lugares</t>
+          <t>El viento blanco</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Dvoskin, Hugo</t>
+          <t>Dávalos, Juan Carlos (1887-1959)</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Xavier Boveda</t>
+          <t>Eudeba</t>
         </is>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -13067,7 +13067,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSICOLOGIA</t>
+          <t>- LITERATURA ARGENTINA-CUENTO</t>
         </is>
       </c>
       <c r="I269" t="inlineStr">
@@ -13079,7 +13079,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>950-12-6681-8</t>
+          <t>950-9522-04-X</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -13089,22 +13089,22 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>La inteligencia artificial : una aproximación</t>
+          <t>Los mismos-distintos lugares</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Haton, Jean-Paul; Haton, Marie-Christine; Ucha de Davie, Iris (trad.)</t>
+          <t>Dvoskin, Hugo</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Paidós</t>
+          <t>Xavier Boveda</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>1996</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -13114,19 +13114,19 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INFORMATICA</t>
+          <t xml:space="preserve"> PSICOLOGIA</t>
         </is>
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-12-6681-8</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -13136,32 +13136,32 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Historia social de la literatura y el arte</t>
+          <t>La inteligencia artificial : una aproximación</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Hauser, Arnold; Tovar, Antonio (1911-1985) (trad.); Varas-Reyes, F. P. (trad.)</t>
+          <t>Haton, Jean-Paul; Haton, Marie-Christine; Ucha de Davie, Iris (trad.)</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Guadarrama</t>
+          <t>Paidós</t>
         </is>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>1991</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SOCIOLOGIA DEL ARTE SOCIOLOGIA DE LA LITERATURA CINE Y LITERATURA CINE Y ARTE</t>
+          <t xml:space="preserve"> INFORMATICA</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
@@ -13183,32 +13183,32 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Introducción a la historia de la filosofía</t>
+          <t>Historia social de la literatura y el arte</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Hegel, Georg Wilhelm Friedrich (1770-1831); Terrón, Eloy (trad. y prol.)</t>
+          <t>Hauser, Arnold; Tovar, Antonio (1911-1985) (trad.); Varas-Reyes, F. P. (trad.)</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Aguilar</t>
+          <t>Guadarrama</t>
         </is>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>1965</t>
+          <t>1969</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FILOSOFIA-HISTORIA</t>
+          <t xml:space="preserve"> SOCIOLOGIA DEL ARTE SOCIOLOGIA DE LA LITERATURA CINE Y LITERATURA CINE Y ARTE</t>
         </is>
       </c>
       <c r="I272" t="inlineStr">
@@ -13230,12 +13230,12 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Fragmentos</t>
+          <t>Introducción a la historia de la filosofía</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Heráclito de Efeso 544 -484 a.C.; Farré, Luis (1902-...) (trad.)</t>
+          <t>Hegel, Georg Wilhelm Friedrich (1770-1831); Terrón, Eloy (trad. y prol.)</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
@@ -13245,7 +13245,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>1965</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -13255,7 +13255,7 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>HERACLITO FILOSOFIA-HERACLITO DE EFESO  - aC</t>
+          <t xml:space="preserve"> FILOSOFIA-HISTORIA</t>
         </is>
       </c>
       <c r="I273" t="inlineStr">
@@ -13267,42 +13267,42 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>950-206-3089-6</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Obra poética completa</t>
+          <t>Fragmentos</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Hernández, Miguel (1910-1942)</t>
+          <t>Heráclito de Efeso 544 -484 a.C.; Farré, Luis (1902-...) (trad.)</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Alianza</t>
+          <t>Aguilar</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1963</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>- LITERATURA ESPAÑOLA-POESIA POESIA ESPAÑOLA</t>
+          <t>HERACLITO FILOSOFIA-HERACLITO DE EFESO  - aC</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -13314,7 +13314,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-206-3089-6</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -13324,32 +13324,32 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>El lobo estepario</t>
+          <t>Obra poética completa</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Hesse, Hermann (1877-1962)</t>
+          <t>Hernández, Miguel (1910-1942)</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Rueda</t>
+          <t>Alianza</t>
         </is>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>- LITERATURA ALEMANA-NOVELA NOVELA ALEMANA</t>
+          <t>- LITERATURA ESPAÑOLA-POESIA POESIA ESPAÑOLA</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -13361,7 +13361,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>84-02-07660-2</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -13371,7 +13371,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Siddhartha</t>
+          <t>El lobo estepario</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -13381,22 +13381,22 @@
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Bruguera</t>
+          <t>Rueda</t>
         </is>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>1959</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>- LITERATURA ALEMANA-NOVELA</t>
+          <t>- LITERATURA ALEMANA-NOVELA NOVELA ALEMANA</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -13408,42 +13408,42 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>84-02-07660-2</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>La historia del tango</t>
+          <t>Siddhartha</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Hesse, Hermann (1877-1962)</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Corregidor</t>
+          <t>Bruguera</t>
         </is>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> TANGO</t>
+          <t>- LITERATURA ALEMANA-NOVELA</t>
         </is>
       </c>
       <c r="I277" t="inlineStr">
@@ -13465,32 +13465,32 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>El informe Hite : Estudio de la sexualidad femenina</t>
+          <t>La historia del tango</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Hite, Shere</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Plaza y Janés</t>
+          <t>Corregidor</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t xml:space="preserve">  SEXO ETNOLOGIA MUJERES</t>
+          <t xml:space="preserve"> TANGO</t>
         </is>
       </c>
       <c r="I278" t="inlineStr">
@@ -13502,7 +13502,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>84-01-37099-X</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -13512,7 +13512,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>El informe Hite sobre la sexualidad masculina</t>
+          <t>El informe Hite : Estudio de la sexualidad femenina</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -13527,7 +13527,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -13537,7 +13537,7 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SEXO ETNOLOGIA</t>
+          <t xml:space="preserve">  SEXO ETNOLOGIA MUJERES</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
@@ -13549,42 +13549,42 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>950-581-004-2</t>
+          <t>84-01-37099-X</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Martín Fierro</t>
+          <t>El informe Hite sobre la sexualidad masculina</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Hernández, José (1834-1886)</t>
+          <t>Hite, Shere</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Colihue</t>
+          <t>Plaza y Janés</t>
         </is>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-POESIA POESIA ARGENTINA</t>
+          <t xml:space="preserve"> SEXO ETNOLOGIA</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
@@ -13596,42 +13596,42 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>968-23-0762-7</t>
+          <t>950-581-004-2</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Prehistoria</t>
+          <t>Martín Fierro</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Alimen, Marie-Henriette (comp.); Steve, P. Marie-Joseph (colab.)</t>
+          <t>Hernández, José (1834-1886)</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Siglo XXI</t>
+          <t>Colihue</t>
         </is>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PREHISTORIA</t>
+          <t>- LITERATURA ARGENTINA-POESIA POESIA ARGENTINA</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -13643,7 +13643,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>968-23-0494-6</t>
+          <t>968-23-0762-7</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -13653,12 +13653,12 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Griegos y persas</t>
+          <t>Prehistoria</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Bengtson, Hermann (comp.)</t>
+          <t>Alimen, Marie-Henriette (comp.); Steve, P. Marie-Joseph (colab.)</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
@@ -13678,7 +13678,7 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HISTORIA ANTIGUA</t>
+          <t xml:space="preserve"> PREHISTORIA</t>
         </is>
       </c>
       <c r="I282" t="inlineStr">
@@ -13690,7 +13690,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>968-23-0937-9</t>
+          <t>968-23-0494-6</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -13700,12 +13700,12 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>El siglo XX : Problemas mundiales entre los dos bloques de poder</t>
+          <t>Griegos y persas</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Benz, Wolfgang (comp.); Graml, Hermann (colab.)</t>
+          <t>Bengtson, Hermann (comp.)</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
@@ -13715,7 +13715,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -13725,7 +13725,7 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HISTORIA CONTEMPORANEA</t>
+          <t xml:space="preserve"> HISTORIA ANTIGUA</t>
         </is>
       </c>
       <c r="I283" t="inlineStr">
@@ -13737,7 +13737,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>968-23-0952-2</t>
+          <t>968-23-0937-9</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -13747,12 +13747,12 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Los inicios de la Europa moderna (1550-1648)</t>
+          <t>El siglo XX : Problemas mundiales entre los dos bloques de poder</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>Dülmen, Richard van</t>
+          <t>Benz, Wolfgang (comp.); Graml, Hermann (colab.)</t>
         </is>
       </c>
       <c r="E284" t="inlineStr">
@@ -13762,7 +13762,7 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -13772,7 +13772,7 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HISTORIA-EUROPA</t>
+          <t xml:space="preserve"> HISTORIA CONTEMPORANEA</t>
         </is>
       </c>
       <c r="I284" t="inlineStr">
@@ -13784,7 +13784,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>968-23-0763-5</t>
+          <t>968-23-0952-2</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -13794,12 +13794,12 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>La formación del Imperio Romano</t>
+          <t>Los inicios de la Europa moderna (1550-1648)</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>Grimal, Pierre (comp.)</t>
+          <t>Dülmen, Richard van</t>
         </is>
       </c>
       <c r="E285" t="inlineStr">
@@ -13819,7 +13819,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HISTORIA-ROMA ANTIGUA</t>
+          <t xml:space="preserve"> HISTORIA-EUROPA</t>
         </is>
       </c>
       <c r="I285" t="inlineStr">
@@ -13831,7 +13831,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>968-23-0216-7</t>
+          <t>968-23-0763-5</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -13841,12 +13841,12 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>El siglo XX : Europa (1918-1945)</t>
+          <t>La formación del Imperio Romano</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>Parker, R.A.C.</t>
+          <t>Grimal, Pierre (comp.)</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
@@ -13856,7 +13856,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -13866,7 +13866,7 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HISTORIA-EUROPA-</t>
+          <t xml:space="preserve"> HISTORIA-ROMA ANTIGUA</t>
         </is>
       </c>
       <c r="I286" t="inlineStr">
@@ -13878,7 +13878,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>968-23-0504-7</t>
+          <t>968-23-0216-7</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -13888,12 +13888,12 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Los fundamentos del mundo moderno : edad media tardía, Renacimiento, Reforma</t>
+          <t>El siglo XX : Europa (1918-1945)</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>Romano, Ruggiero; Tenenti, Alberto</t>
+          <t>Parker, R.A.C.</t>
         </is>
       </c>
       <c r="E287" t="inlineStr">
@@ -13903,7 +13903,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -13913,7 +13913,7 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HISTORIA MEDIEVAL Y MODERNA</t>
+          <t xml:space="preserve"> HISTORIA-EUROPA-</t>
         </is>
       </c>
       <c r="I287" t="inlineStr">
@@ -13925,7 +13925,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>968-23-0227-7</t>
+          <t>968-23-0504-7</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -13935,12 +13935,12 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>América Latina I</t>
+          <t>Los fundamentos del mundo moderno : edad media tardía, Renacimiento, Reforma</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>Séjourné, Laurette</t>
+          <t>Romano, Ruggiero; Tenenti, Alberto</t>
         </is>
       </c>
       <c r="E288" t="inlineStr">
@@ -13950,7 +13950,7 @@
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -13960,7 +13960,7 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CULTURA-LATINOAMERICA-HASTA SXVI CULTURA PRECOLOMBINA</t>
+          <t xml:space="preserve"> HISTORIA MEDIEVAL Y MODERNA</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
@@ -13972,7 +13972,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>968-23-0227-7</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -13982,32 +13982,32 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Historia del pensamiento económico</t>
+          <t>América Latina I</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>James, Emile</t>
+          <t>Séjourné, Laurette</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Aguilar</t>
+          <t>Siglo XXI</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>1966-1969</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>México</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DOCTRINAS ECONOMIA</t>
+          <t xml:space="preserve"> CULTURA-LATINOAMERICA-HASTA SXVI CULTURA PRECOLOMBINA</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
@@ -14029,12 +14029,12 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Pragmatismo</t>
+          <t>Historia del pensamiento económico</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>James, William (1842-1910); Rodríguez Aranda, Luis (trad.)</t>
+          <t>James, Emile</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
@@ -14044,29 +14044,29 @@
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1966-1969</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRAGMATISMO FILOSOFIA</t>
+          <t xml:space="preserve"> DOCTRINAS ECONOMIA</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>12/03/1996</t>
+          <t>11/03/1996</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>950-577-008-2</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -14076,22 +14076,22 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>La filosofía desde el punto de vista de la existencia</t>
+          <t>Pragmatismo</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>Jaspers, Karl (1883-1969)</t>
+          <t>James, William (1842-1910); Rodríguez Aranda, Luis (trad.)</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Fondo de Cultura Económica</t>
+          <t>Aguilar</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -14101,7 +14101,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>JASPERS  FILOSOFIA-JASPERS KARL - EXISTENCIALISMO FILOSOFIA</t>
+          <t xml:space="preserve"> PRAGMATISMO FILOSOFIA</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -14113,7 +14113,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>950-46-0108-1</t>
+          <t>950-577-008-2</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -14123,22 +14123,22 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Historia 2</t>
+          <t>La filosofía desde el punto de vista de la existencia</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Jáuregui, Aníbal Pablo; González, Alba Susana; Fradkin, Raúl Osvaldo</t>
+          <t>Jaspers, Karl (1883-1969)</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Santillana</t>
+          <t>Fondo de Cultura Económica</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -14148,7 +14148,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HISTORIA MODERNA HISTORIA CONTEMPORANEA</t>
+          <t>JASPERS  FILOSOFIA-JASPERS KARL - EXISTENCIALISMO FILOSOFIA</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -14160,7 +14160,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>950-46-0126-X</t>
+          <t>950-46-0108-1</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -14170,7 +14170,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Historia 3</t>
+          <t>Historia 2</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -14185,7 +14185,7 @@
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1989</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -14195,7 +14195,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HISTORIA MODERNA-TEXTO SECUNDARIO HISTORIA CONTEMPORANEA-TEXTO SECUNDARIO</t>
+          <t xml:space="preserve"> HISTORIA MODERNA HISTORIA CONTEMPORANEA</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -14207,7 +14207,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-46-0126-X</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -14217,22 +14217,22 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>El medio pelo en la sociedad argentina : Apuntes para una sociología nacional</t>
+          <t>Historia 3</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Jauretche, Arturo (1901-1974)</t>
+          <t>Jáuregui, Aníbal Pablo; González, Alba Susana; Fradkin, Raúl Osvaldo</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Peña Lillo</t>
+          <t>Santillana</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -14242,7 +14242,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSICOLOGIA SOCIAL-ARGENTINA</t>
+          <t xml:space="preserve"> HISTORIA MODERNA-TEXTO SECUNDARIO HISTORIA CONTEMPORANEA-TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -14264,32 +14264,32 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Ciudadanía e identidad : Las mujeres en los movimientos sociales latinoamericanos</t>
+          <t>El medio pelo en la sociedad argentina : Apuntes para una sociología nacional</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Jelin, Elizabeth (1941-...)</t>
+          <t>Jauretche, Arturo (1901-1974)</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>UNRID</t>
+          <t>Peña Lillo</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>Ginebra</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MUJERES-LATINOAMERICA</t>
+          <t xml:space="preserve"> PSICOLOGIA SOCIAL-ARGENTINA</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -14311,7 +14311,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Familia y unidad doméstica : Mundo público y vida privada</t>
+          <t>Ciudadanía e identidad : Las mujeres en los movimientos sociales latinoamericanos</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -14321,22 +14321,22 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>CEDES</t>
+          <t>UNRID</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1987</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Ginebra</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAMILIA ETNOLOGIA</t>
+          <t xml:space="preserve"> MUJERES-LATINOAMERICA</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -14358,7 +14358,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>La mujer y el mercado de trabajo urbano</t>
+          <t>Familia y unidad doméstica : Mundo público y vida privada</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -14373,7 +14373,7 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1984</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -14383,7 +14383,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MUJERES-TRABAJO</t>
+          <t xml:space="preserve"> FAMILIA ETNOLOGIA</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -14405,22 +14405,22 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Los nuevos movimientos sociales : mujeres, rock nacional</t>
+          <t>La mujer y el mercado de trabajo urbano</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Jelin, Elizabeth (1941-...); Feijoó, María del Carmen; Gogna, Mónica</t>
+          <t>Jelin, Elizabeth (1941-...)</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>CEAL</t>
+          <t>CEDES</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -14430,7 +14430,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MUJERES</t>
+          <t xml:space="preserve"> MUJERES-TRABAJO</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -14442,7 +14442,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>950-9522-02-4</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -14452,22 +14452,22 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>La operación psicoanalítica</t>
+          <t>Los nuevos movimientos sociales : mujeres, rock nacional</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Fernández Couto, Rogelio</t>
+          <t>Jelin, Elizabeth (1941-...); Feijoó, María del Carmen; Gogna, Mónica</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Xavier Boveda</t>
+          <t>CEAL</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -14477,44 +14477,44 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSICOANALISIS</t>
+          <t xml:space="preserve"> MUJERES</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>12/03/1996</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-9522-02-4</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>El Conde Lucanor : Selección</t>
+          <t>La operación psicoanalítica</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Juan Manuel, Infante de Castilla (1282-1348); Parula de López Gavinet, Beatriz (colab.)</t>
+          <t>Fernández Couto, Rogelio</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Colihue</t>
+          <t>Xavier Boveda</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -14524,12 +14524,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>- LITERATURA ESPAÑOLA-CUENTO</t>
+          <t xml:space="preserve"> PSICOANALISIS</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>12/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -14546,22 +14546,22 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Selección poética</t>
+          <t>El Conde Lucanor : Selección</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Juana Inés de la Cruz, Sor (1651-1695)</t>
+          <t>Juan Manuel, Infante de Castilla (1282-1348); Parula de López Gavinet, Beatriz (colab.)</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Colihue</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -14571,7 +14571,7 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>- LITERATURA MEXICANA-POESIA</t>
+          <t>- LITERATURA ESPAÑOLA-CUENTO</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
@@ -14588,27 +14588,27 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Lo inconsciente : en la vida psíquica normal y patológica</t>
+          <t>Selección poética</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Jung, Carl Gustav (1875-1961); Rodríguez Sadia, Emilio (trad.)</t>
+          <t>Juana Inés de la Cruz, Sor (1651-1695)</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Losada</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>1972</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -14618,7 +14618,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSICOANALISIS</t>
+          <t>- LITERATURA MEXICANA-POESIA</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -14640,22 +14640,22 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Genio y figura de Jorge Luis Borges</t>
+          <t>Lo inconsciente : en la vida psíquica normal y patológica</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Jurado, Alicia (1922-2011)</t>
+          <t>Jung, Carl Gustav (1875-1961); Rodríguez Sadia, Emilio (trad.)</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Eudeba</t>
+          <t>Losada</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -14665,7 +14665,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>BORGES BIOGRAFIAS-BORGES JORGE LUIS -</t>
+          <t xml:space="preserve"> PSICOANALISIS</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -14677,42 +14677,42 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>84-226-2203-3</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>La metamorfosis</t>
+          <t>Genio y figura de Jorge Luis Borges</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Kafka, Franz (1883-1924); Hernández, José (1834-1886) (il.); Borges, Jorge Luis (1899-1986) (trad.); Nabokov, Vladimir (1899-1977) (not.)</t>
+          <t>Jurado, Alicia (1922-2011)</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Círculo de Lectores</t>
+          <t>Eudeba</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>- LITERATURA CHECA-CUENTO</t>
+          <t>BORGES BIOGRAFIAS-BORGES JORGE LUIS -</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -14724,42 +14724,42 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>84-226-2203-3</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Crítica de la razón pura : Estética trascendental y analítica trascendental</t>
+          <t>La metamorfosis</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Kant, Immanuel (1724-1804); Romero, Francisco (1891-1962) (prol.)</t>
+          <t>Kafka, Franz (1883-1924); Hernández, José (1834-1886) (il.); Borges, Jorge Luis (1899-1986) (trad.); Nabokov, Vladimir (1899-1977) (not.)</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Losada</t>
+          <t>Círculo de Lectores</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>KANT FILOSOFIA-KANT IMMANUEL -</t>
+          <t>- LITERATURA CHECA-CUENTO</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -14781,22 +14781,22 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Por qué no es inútil una nueva crítica de la razón pura : Respuesta a Eberhard</t>
+          <t>Crítica de la razón pura : Estética trascendental y analítica trascendental</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Kant, Immanuel (1724-1804); Castaño Piñán, Alfonso (trad. y prol.)</t>
+          <t>Kant, Immanuel (1724-1804); Romero, Francisco (1891-1962) (prol.)</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Aguilar</t>
+          <t>Losada</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -14823,27 +14823,27 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Lírica</t>
+          <t>Por qué no es inútil una nueva crítica de la razón pura : Respuesta a Eberhard</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Juan de la Cruz, Santo (1542-1591)</t>
+          <t>Kant, Immanuel (1724-1804); Castaño Piñán, Alfonso (trad. y prol.)</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Aguilar</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -14853,7 +14853,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>- LITERATURA ESPAÑOLA-POESIA</t>
+          <t>KANT FILOSOFIA-KANT IMMANUEL -</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -14870,27 +14870,27 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Historia de los monumentos y esculturas de Buenos Aires : Plaza San Martín, Plaza Lavalle, Parque Lezama</t>
+          <t>Lírica</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Magaz, María del Carmen; Arévalo, María Beatriz</t>
+          <t>Juan de la Cruz, Santo (1542-1591)</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Buenos Aires. Instituto Histórico</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -14900,7 +14900,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HISTORIA-BUENOS AIRES PLAZAS-BUENOS AIRES-HISTORIA MONUMENTOS-BUENOS AIRES-HISTORIA ESCULTURA-BUENOS AIRES-HISTORIA</t>
+          <t>- LITERATURA ESPAÑOLA-POESIA</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -14922,22 +14922,22 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>La historia de vida</t>
+          <t>Historia de los monumentos y esculturas de Buenos Aires : Plaza San Martín, Plaza Lavalle, Parque Lezama</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Magrassi, Guillermo E.; Roca, M.M.</t>
+          <t>Magaz, María del Carmen; Arévalo, María Beatriz</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>CEAL</t>
+          <t>Buenos Aires. Instituto Histórico</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -14947,7 +14947,7 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ETNOLOGIA</t>
+          <t xml:space="preserve"> HISTORIA-BUENOS AIRES PLAZAS-BUENOS AIRES-HISTORIA MONUMENTOS-BUENOS AIRES-HISTORIA ESCULTURA-BUENOS AIRES-HISTORIA</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -14959,7 +14959,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>950-13-2022-7</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -14969,17 +14969,17 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Elementos de física y química</t>
+          <t>La historia de vida</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Maiztegui, Alberto P.; Sábato, Jorge A. (1924-1983)</t>
+          <t>Magrassi, Guillermo E.; Roca, M.M.</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>CEAL</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
@@ -14994,7 +14994,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t xml:space="preserve">  FISICA-TEXTO SECUNDARIO QUIMICA-TEXTO SECUNDARIO</t>
+          <t xml:space="preserve"> ETNOLOGIA</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -15006,7 +15006,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>950-13-2030-8</t>
+          <t>950-13-2022-7</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -15016,12 +15016,12 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Física elemental</t>
+          <t>Elementos de física y química</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Maiztegui, Alberto P.; Boido, Guillermo (1941-...)</t>
+          <t>Maiztegui, Alberto P.; Sábato, Jorge A. (1924-1983)</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -15031,7 +15031,7 @@
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -15041,7 +15041,7 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FISICA -TEXTO SECUNDARIO</t>
+          <t xml:space="preserve">  FISICA-TEXTO SECUNDARIO QUIMICA-TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -15053,7 +15053,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>950-13-2043-X</t>
+          <t>950-13-2030-8</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -15063,12 +15063,12 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Introducción a la física</t>
+          <t>Física elemental</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Maiztegui, Alberto P.; Sábato, Jorge A. (1924-1983)</t>
+          <t>Maiztegui, Alberto P.; Boido, Guillermo (1941-...)</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -15078,7 +15078,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -15088,7 +15088,7 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FISICA-TEXTO SECUNDARIO</t>
+          <t xml:space="preserve"> FISICA -TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -15100,7 +15100,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>950-13-2023-5</t>
+          <t>950-13-2043-X</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -15110,12 +15110,12 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Nociones de física y química</t>
+          <t>Introducción a la física</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Maiztegui, Alberto P.; Boido, Guillermo (1941-...)</t>
+          <t>Maiztegui, Alberto P.; Sábato, Jorge A. (1924-1983)</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -15125,7 +15125,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -15135,7 +15135,7 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t xml:space="preserve">  FISICA-TEXTO SECUNDARIO QUIMICA-TEXTO SECUNDARIO</t>
+          <t xml:space="preserve"> FISICA-TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
@@ -15147,7 +15147,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-13-2023-5</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -15157,22 +15157,22 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Una teoría científica de la cultura y otros ensayos</t>
+          <t>Nociones de física y química</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Malinowski, Bronislaw (1884-1942); Huntington, Cairns (prol.); Cortázar, Augusto Raúl (1910-1974) (trad.)</t>
+          <t>Maiztegui, Alberto P.; Boido, Guillermo (1941-...)</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Sudamericana</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -15182,7 +15182,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CULTURA</t>
+          <t xml:space="preserve">  FISICA-TEXTO SECUNDARIO QUIMICA-TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -15204,91 +15204,91 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Totem y tabú</t>
+          <t>Una teoría científica de la cultura y otros ensayos</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Freud, Sigmund (1856-1939); López-Ballesteros, Luis (trad.)</t>
+          <t>Malinowski, Bronislaw (1884-1942); Huntington, Cairns (prol.); Cortázar, Augusto Raúl (1910-1974) (trad.)</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Alianza</t>
+          <t>Sudamericana</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSICOANALISIS-FREUD SIGMUND -</t>
+          <t xml:space="preserve"> CULTURA</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>12/03/1996</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>950-581-005-0</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Coplas a la muerte del maestre de Santiago, Don Rodrigo Manrique, su padre</t>
+          <t>Totem y tabú</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Manrique, Jorge (1440-1479)</t>
+          <t>Freud, Sigmund (1856-1939); López-Ballesteros, Luis (trad.)</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Colihue</t>
+          <t>Alianza</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>- LITERATURA ESPAÑOLA-POESIA</t>
+          <t xml:space="preserve"> PSICOANALISIS-FREUD SIGMUND -</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>12/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-581-005-0</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -15298,22 +15298,22 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Una excursión a los indios ranqueles</t>
+          <t>Coplas a la muerte del maestre de Santiago, Don Rodrigo Manrique, su padre</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Mansilla, Lucio Victorio (1831-1913)</t>
+          <t>Manrique, Jorge (1440-1479)</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Colihue</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -15323,7 +15323,7 @@
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-NOVELA</t>
+          <t>- LITERATURA ESPAÑOLA-POESIA</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -15340,17 +15340,17 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Manual del alumno 4/7 (Capital Federal)</t>
+          <t>Una excursión a los indios ranqueles</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Mansilla, Lucio Victorio (1831-1913)</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
@@ -15360,7 +15360,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -15370,7 +15370,7 @@
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MANUAL NIVEL PRIMARIO- GRADO</t>
+          <t>- LITERATURA ARGENTINA-NOVELA</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -15382,7 +15382,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>950-046-195-2</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -15392,7 +15392,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Manual esencial Santillana 4</t>
+          <t>Manual del alumno 4/7 (Capital Federal)</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -15402,12 +15402,12 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Santillana</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
@@ -15417,7 +15417,7 @@
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MANUAL NIVEL PRIMARIO-º GRADO</t>
+          <t xml:space="preserve"> MANUAL NIVEL PRIMARIO- GRADO</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -15429,7 +15429,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>950-46-196-0</t>
+          <t>950-046-195-2</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -15439,7 +15439,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Manual esencial Santillana 5</t>
+          <t>Manual esencial Santillana 4</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -15476,7 +15476,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>950-046-197-9</t>
+          <t>950-46-196-0</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -15486,7 +15486,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Manual esencial Santillana 7</t>
+          <t>Manual esencial Santillana 5</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -15523,7 +15523,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>950-46-0194-4</t>
+          <t>950-046-197-9</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -15533,7 +15533,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Manual esencial Santillana 6</t>
+          <t>Manual esencial Santillana 7</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -15570,7 +15570,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-46-0194-4</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -15580,7 +15580,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Diccionario politécnico de las lenguas española e inglesa</t>
+          <t>Manual esencial Santillana 6</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -15590,22 +15590,22 @@
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Castilla</t>
+          <t>Santillana</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INGLES-ESPAÑOL-DICCIONARIO</t>
+          <t xml:space="preserve"> MANUAL NIVEL PRIMARIO-º GRADO</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
@@ -15617,7 +15617,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>950-25-1601-X</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -15627,32 +15627,32 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Diccionario hípico : Voces y expresiones rioplatenses</t>
+          <t>Diccionario politécnico de las lenguas española e inglesa</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Barcia, José (1911-1985)</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Plus Ultra</t>
+          <t>Castilla</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>1958</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MODISMOS-ARGENTINA-DICCIONARIO ESPAÑOL-MODISMOS HIPISMO-MODISMOS-ARGENTINA-DICCIONARIO MODISMOS-ARGENTINA-HIPISMO-DICCIONARIO</t>
+          <t xml:space="preserve"> INGLES-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -15664,32 +15664,32 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-25-1601-X</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>El son entero</t>
+          <t>Diccionario hípico : Voces y expresiones rioplatenses</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Guillén, Nicolás (1902-1989)</t>
+          <t>Barcia, José (1911-1985)</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Losada</t>
+          <t>Plus Ultra</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1978</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -15699,12 +15699,12 @@
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t>- LITERATURA CUBANA-POESIA</t>
+          <t xml:space="preserve"> MODISMOS-ARGENTINA-DICCIONARIO ESPAÑOL-MODISMOS HIPISMO-MODISMOS-ARGENTINA-DICCIONARIO MODISMOS-ARGENTINA-HIPISMO-DICCIONARIO</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>12/03/1996</t>
         </is>
       </c>
     </row>
@@ -15716,42 +15716,42 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Diccionario de asonantes y consonantes</t>
+          <t>El son entero</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Benot, Eduardo (1822-1907)</t>
+          <t>Guillén, Nicolás (1902-1989)</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Juan Muñoz Sánchez</t>
+          <t>Losada</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPAÑOL-RIMA-DICCIONARIO RIMA-ESPAÑOL-DICCIONARIO</t>
+          <t>- LITERATURA CUBANA-POESIA</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>12/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -15763,42 +15763,42 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Eufemia</t>
+          <t>Diccionario de asonantes y consonantes</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Rueda, Lope de (1510-1565); Timoneda, Joan de (1520-1583) (prol.)</t>
+          <t>Benot, Eduardo (1822-1907)</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Espasa-Calpe</t>
+          <t>Juan Muñoz Sánchez</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>1943</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>- LITERATURA ESPAÑOLA-TEATRO</t>
+          <t xml:space="preserve"> ESPAÑOL-RIMA-DICCIONARIO RIMA-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>12/03/1996</t>
         </is>
       </c>
     </row>
@@ -15810,27 +15810,27 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Diccionario de la conjugación : Los 12.000 verbos en castellano</t>
+          <t>Eufemia</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>García Elorrio, Aurelio</t>
+          <t>Rueda, Lope de (1510-1565); Timoneda, Joan de (1520-1583) (prol.)</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Espasa-Calpe</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1944</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -15840,12 +15840,12 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPAÑOL-CONJUGACION-DICCIONARIO</t>
+          <t>- LITERATURA ESPAÑOLA-TEATRO</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>12/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -15862,7 +15862,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Diccionario de la conjugación</t>
+          <t>Diccionario de la conjugación : Los 12.000 verbos en castellano</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -15877,7 +15877,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -15899,7 +15899,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>84-249-1332-9</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -15909,32 +15909,32 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Breve diccionario etimológico de la lengua castellana</t>
+          <t>Diccionario de la conjugación</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>Corominas, Joan</t>
+          <t>García Elorrio, Aurelio</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Gredos</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO ETIMOLOGIA-ESPAÑOL-DICCIONARIO</t>
+          <t xml:space="preserve"> ESPAÑOL-CONJUGACION-DICCIONARIO</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -15946,7 +15946,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>84-249-1321-3</t>
+          <t>84-249-1332-9</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -15956,7 +15956,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Diccionario crítico etimológico de la lengua castellana</t>
+          <t>Breve diccionario etimológico de la lengua castellana</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -15971,7 +15971,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
@@ -15993,7 +15993,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>84-249-1321-3</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -16003,22 +16003,22 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Diccionario etimológico español e hispánico</t>
+          <t>Diccionario crítico etimológico de la lengua castellana</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>García de Diego, Vicente</t>
+          <t>Corominas, Joan</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Espasa</t>
+          <t>Gredos</t>
         </is>
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -16028,7 +16028,7 @@
       </c>
       <c r="H332" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO</t>
+          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO ETIMOLOGIA-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="I332" t="inlineStr">
@@ -16050,22 +16050,22 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Diccionario español escolar etimológico</t>
+          <t>Diccionario etimológico español e hispánico</t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>Diez Mateo, Félix</t>
+          <t>García de Diego, Vicente</t>
         </is>
       </c>
       <c r="E333" t="inlineStr">
         <is>
-          <t>Fax</t>
+          <t>Espasa</t>
         </is>
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>(19--)</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -16097,32 +16097,32 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Diccionario etimológico de la lengua castellana</t>
+          <t>Diccionario español escolar etimológico</t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Diez Mateo, Félix</t>
         </is>
       </c>
       <c r="E334" t="inlineStr">
         <is>
-          <t>El Ateneo</t>
+          <t>Fax</t>
         </is>
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>1941</t>
+          <t>(19--)</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO ETIMOLOGIA-ESPAÑOL-DICCIONARIO</t>
+          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO</t>
         </is>
       </c>
       <c r="I334" t="inlineStr">
@@ -16149,17 +16149,17 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>Monlau, Pedro Felipe</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Gil</t>
+          <t>El Ateneo</t>
         </is>
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1941</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -16169,7 +16169,7 @@
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO</t>
+          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO ETIMOLOGIA-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="I335" t="inlineStr">
@@ -16191,27 +16191,27 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Diccionario general etimológico de la lengua española</t>
+          <t>Diccionario etimológico de la lengua castellana</t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>Echegaray, Eduardo de</t>
+          <t>Monlau, Pedro Felipe</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Alvarez, impr.</t>
+          <t>Gil</t>
         </is>
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>1898</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H336" t="inlineStr">
@@ -16233,42 +16233,42 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Belleza : En verso</t>
+          <t>Diccionario general etimológico de la lengua española</t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>Jiménez, Juan Ramón (1881-1958)</t>
+          <t>Echegaray, Eduardo de</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Losada</t>
+          <t>Alvarez, impr.</t>
         </is>
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1898</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>- LITERATURA ESPAÑOLA-POESIA</t>
+          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO</t>
         </is>
       </c>
       <c r="I337" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>12/03/1996</t>
         </is>
       </c>
     </row>
@@ -16280,49 +16280,49 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Diccionario ideológico de la lengua española</t>
+          <t>Belleza : En verso</t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>Casares, Julio</t>
+          <t>Jiménez, Juan Ramón (1881-1958)</t>
         </is>
       </c>
       <c r="E338" t="inlineStr">
         <is>
-          <t>Gili</t>
+          <t>Losada</t>
         </is>
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H338" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DICCIONARIO</t>
+          <t>- LITERATURA ESPAÑOLA-POESIA</t>
         </is>
       </c>
       <c r="I338" t="inlineStr">
         <is>
-          <t>12/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>84-283-1366-0</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -16332,32 +16332,32 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Diccionario de métrica española</t>
+          <t>Diccionario ideológico de la lengua española</t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>Domínguez Caparrós, José</t>
+          <t>Casares, Julio</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Paraninfo</t>
+          <t>Gili</t>
         </is>
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPAÑOL-METRICA-DICCIONARIO METRICA-ESPAÑOL-DICCIONARIO</t>
+          <t xml:space="preserve"> DICCIONARIO</t>
         </is>
       </c>
       <c r="I339" t="inlineStr">
@@ -16369,7 +16369,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>84-283-1366-0</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -16379,32 +16379,32 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Diccionario de parónimos castellanos</t>
+          <t>Diccionario de métrica española</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>Lazzati, Santiago</t>
+          <t>Domínguez Caparrós, José</t>
         </is>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Sopena</t>
+          <t>Paraninfo</t>
         </is>
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPAÑOL-PARONIMOS-DICCIONARIO</t>
+          <t xml:space="preserve"> ESPAÑOL-METRICA-DICCIONARIO METRICA-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="I340" t="inlineStr">
@@ -16416,7 +16416,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>950-13-2067-7</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -16426,22 +16426,22 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Nuevo castellano 1 : Lengua y literatura. Lenguaje y comunicación</t>
+          <t>Diccionario de parónimos castellanos</t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>Lacau, María Hortensia (1910-2006); Rosetti, Mabel</t>
+          <t>Lazzati, Santiago</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Sopena</t>
         </is>
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>1971</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -16451,7 +16451,7 @@
       </c>
       <c r="H341" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CASTELLANO-TEXTO SECUNDARIO LITERATURA -TEXTO SECUNDARIO COMUNICACION-TEXTO SECUNDARIO</t>
+          <t xml:space="preserve"> ESPAÑOL-PARONIMOS-DICCIONARIO</t>
         </is>
       </c>
       <c r="I341" t="inlineStr">
@@ -16463,7 +16463,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-13-2067-7</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -16473,7 +16473,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Nuevo castellano 2 : Lengua y literatura. Lenguaje y comunicación</t>
+          <t>Nuevo castellano 1 : Lengua y literatura. Lenguaje y comunicación</t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -16488,7 +16488,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -16498,7 +16498,7 @@
       </c>
       <c r="H342" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LENGUA -TEXTO SECUNDARIO LITERATURA -TEXTO SECUNDARIO COMUNICACION-TEXTO SECUNDARIO</t>
+          <t xml:space="preserve"> CASTELLANO-TEXTO SECUNDARIO LITERATURA -TEXTO SECUNDARIO COMUNICACION-TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I342" t="inlineStr">
@@ -16510,7 +16510,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>950-13-2069-3</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -16520,7 +16520,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Nuevo castellano 3 : Lengua y literatura. Lenguaje y comunicación</t>
+          <t>Nuevo castellano 2 : Lengua y literatura. Lenguaje y comunicación</t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -16545,7 +16545,7 @@
       </c>
       <c r="H343" t="inlineStr">
         <is>
-          <t xml:space="preserve"> LENGUA -TEXTO SECUNDARIO COMUNICACION-TEXTO SECUNDARIO LITERATURA -TEXTO SECUNDARIO</t>
+          <t xml:space="preserve"> LENGUA -TEXTO SECUNDARIO LITERATURA -TEXTO SECUNDARIO COMUNICACION-TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I343" t="inlineStr">
@@ -16557,7 +16557,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>950-46-0121-9</t>
+          <t>950-13-2069-3</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -16567,22 +16567,22 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Ciencias biológicas 3</t>
+          <t>Nuevo castellano 3 : Lengua y literatura. Lenguaje y comunicación</t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>Rubel, Diana Nora; Guahnon, Esther Liliana; Lacreu, Laura Irene</t>
+          <t>Lacau, María Hortensia (1910-2006); Rosetti, Mabel</t>
         </is>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Santillana</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
@@ -16592,7 +16592,7 @@
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BIOLOGIA-TEXTO SECUNDARIO</t>
+          <t xml:space="preserve"> LENGUA -TEXTO SECUNDARIO COMUNICACION-TEXTO SECUNDARIO LITERATURA -TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I344" t="inlineStr">
@@ -16604,45 +16604,92 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
+          <t>950-46-0121-9</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>TEXTO NO LITERARIO</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Ciencias biológicas 3</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>Rubel, Diana Nora; Guahnon, Esther Liliana; Lacreu, Laura Irene</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>Santillana</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>Buenos Aires</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BIOLOGIA-TEXTO SECUNDARIO</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>12/03/1996</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
           <t>950-581-039-5</t>
         </is>
       </c>
-      <c r="B345" t="inlineStr">
+      <c r="B346" t="inlineStr">
         <is>
           <t>LITERATURA</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr">
+      <c r="C346" t="inlineStr">
         <is>
           <t>Las de Barranco</t>
         </is>
       </c>
-      <c r="D345" t="inlineStr">
+      <c r="D346" t="inlineStr">
         <is>
           <t>Laferrére, Gregorio de (1867-1913)</t>
         </is>
       </c>
-      <c r="E345" t="inlineStr">
+      <c r="E346" t="inlineStr">
         <is>
           <t>Colihue</t>
         </is>
       </c>
-      <c r="F345" t="inlineStr">
+      <c r="F346" t="inlineStr">
         <is>
           <t>1988</t>
         </is>
       </c>
-      <c r="G345" t="inlineStr">
-        <is>
-          <t>Buenos Aires</t>
-        </is>
-      </c>
-      <c r="H345" t="inlineStr">
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>Buenos Aires</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
         <is>
           <t>- LITERATURA ARGENTINA-TEATRO</t>
         </is>
       </c>
-      <c r="I345" t="inlineStr">
+      <c r="I346" t="inlineStr">
         <is>
           <t>12/03/1996</t>
         </is>

--- a/library_catalog.xlsx
+++ b/library_catalog.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I346"/>
+  <dimension ref="A1:I345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15006,7 +15006,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>950-13-2022-7</t>
+          <t>950-13-2030-8</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -15024,21 +15024,13 @@
           <t>Maiztegui, Alberto P.; Sábato, Jorge A. (1924-1983)</t>
         </is>
       </c>
-      <c r="E311" t="inlineStr">
-        <is>
-          <t>Kapelusz</t>
-        </is>
-      </c>
+      <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr">
         <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="G311" t="inlineStr">
-        <is>
-          <t>Buenos Aires</t>
-        </is>
-      </c>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr"/>
       <c r="H311" t="inlineStr">
         <is>
           <t xml:space="preserve">  FISICA-TEXTO SECUNDARIO QUIMICA-TEXTO SECUNDARIO</t>
@@ -15053,7 +15045,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>950-13-2030-8</t>
+          <t>950-13-2043-X</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -15078,7 +15070,7 @@
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
@@ -15100,7 +15092,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>950-13-2043-X</t>
+          <t>950-13-2023-5</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
@@ -15125,7 +15117,7 @@
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -15147,7 +15139,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>950-13-2023-5</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -15172,7 +15164,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -15219,7 +15211,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -15241,7 +15233,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-581-005-0</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -15266,7 +15258,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -15288,7 +15280,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>950-581-005-0</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -15313,7 +15305,7 @@
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
@@ -15360,7 +15352,7 @@
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
@@ -15382,7 +15374,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-046-195-2</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -15407,7 +15399,7 @@
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
@@ -15429,7 +15421,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>950-046-195-2</t>
+          <t>950-46-196-0</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -15476,7 +15468,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>950-46-196-0</t>
+          <t>950-046-197-9</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -15523,7 +15515,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>950-046-197-9</t>
+          <t>950-46-0194-4</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -15570,7 +15562,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>950-46-0194-4</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -15595,7 +15587,7 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1958</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -15617,7 +15609,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-25-1601-X</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -15642,7 +15634,7 @@
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>1978</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
@@ -15664,7 +15656,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>950-25-1601-X</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -15689,7 +15681,7 @@
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
@@ -15736,7 +15728,7 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1943</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -15783,7 +15775,7 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>1944</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
@@ -15830,7 +15822,7 @@
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -15877,7 +15869,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -15899,7 +15891,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>84-249-1332-9</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -15924,7 +15916,7 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -15946,7 +15938,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>84-249-1332-9</t>
+          <t>84-249-1321-3</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -15971,7 +15963,7 @@
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
@@ -15993,7 +15985,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>84-249-1321-3</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -16018,7 +16010,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G332" t="inlineStr">
@@ -16065,7 +16057,7 @@
       </c>
       <c r="F333" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>(19--)</t>
         </is>
       </c>
       <c r="G333" t="inlineStr">
@@ -16112,7 +16104,7 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>(19--)</t>
+          <t>1941</t>
         </is>
       </c>
       <c r="G334" t="inlineStr">
@@ -16159,7 +16151,7 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>1941</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="G335" t="inlineStr">
@@ -16206,7 +16198,7 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1898</t>
         </is>
       </c>
       <c r="G336" t="inlineStr">
@@ -16253,7 +16245,7 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>1898</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="G337" t="inlineStr">
@@ -16300,7 +16292,7 @@
       </c>
       <c r="F338" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="G338" t="inlineStr">
@@ -16322,7 +16314,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>84-283-1366-0</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -16347,7 +16339,7 @@
       </c>
       <c r="F339" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G339" t="inlineStr">
@@ -16369,7 +16361,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>84-283-1366-0</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -16394,7 +16386,7 @@
       </c>
       <c r="F340" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1971</t>
         </is>
       </c>
       <c r="G340" t="inlineStr">
@@ -16416,7 +16408,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-13-2067-7</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -16441,7 +16433,7 @@
       </c>
       <c r="F341" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="G341" t="inlineStr">
@@ -16463,7 +16455,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>950-13-2067-7</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -16488,7 +16480,7 @@
       </c>
       <c r="F342" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="G342" t="inlineStr">
@@ -16510,7 +16502,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-13-2069-3</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -16557,7 +16549,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>950-13-2069-3</t>
+          <t>950-46-0121-9</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -16582,7 +16574,7 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="G344" t="inlineStr">
@@ -16604,7 +16596,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>950-46-0121-9</t>
+          <t>950-581-039-5</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
@@ -16629,7 +16621,7 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="G345" t="inlineStr">
@@ -16643,53 +16635,6 @@
         </is>
       </c>
       <c r="I345" t="inlineStr">
-        <is>
-          <t>12/03/1996</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>950-581-039-5</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>LITERATURA</t>
-        </is>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>Las de Barranco</t>
-        </is>
-      </c>
-      <c r="D346" t="inlineStr">
-        <is>
-          <t>Laferrére, Gregorio de (1867-1913)</t>
-        </is>
-      </c>
-      <c r="E346" t="inlineStr">
-        <is>
-          <t>Colihue</t>
-        </is>
-      </c>
-      <c r="F346" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="G346" t="inlineStr">
-        <is>
-          <t>Buenos Aires</t>
-        </is>
-      </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>- LITERATURA ARGENTINA-TEATRO</t>
-        </is>
-      </c>
-      <c r="I346" t="inlineStr">
         <is>
           <t>12/03/1996</t>
         </is>

--- a/library_catalog.xlsx
+++ b/library_catalog.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I345"/>
+  <dimension ref="A1:I331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13972,7 +13972,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>968-23-0227-7</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -13982,84 +13982,84 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>América Latina I</t>
+          <t>Genio y figura de Jorge Luis Borges</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>Séjourné, Laurette</t>
+          <t>Jurado, Alicia (1922-2011)</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
         <is>
-          <t>Siglo XXI</t>
+          <t>Eudeba</t>
         </is>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CULTURA-LATINOAMERICA-HASTA SXVI CULTURA PRECOLOMBINA</t>
+          <t>BORGES BIOGRAFIAS-BORGES JORGE LUIS -</t>
         </is>
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>12/03/1996</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>84-226-2203-3</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Historia del pensamiento económico</t>
+          <t>La metamorfosis</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>James, Emile</t>
+          <t>Kafka, Franz (1883-1924); Hernández, José (1834-1886) (il.); Borges, Jorge Luis (1899-1986) (trad.); Nabokov, Vladimir (1899-1977) (not.)</t>
         </is>
       </c>
       <c r="E290" t="inlineStr">
         <is>
-          <t>Aguilar</t>
+          <t>Círculo de Lectores</t>
         </is>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>1966-1969</t>
+          <t>1986</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DOCTRINAS ECONOMIA</t>
+          <t>- LITERATURA CHECA-CUENTO</t>
         </is>
       </c>
       <c r="I290" t="inlineStr">
         <is>
-          <t>11/03/1996</t>
+          <t>12/03/1996</t>
         </is>
       </c>
     </row>
@@ -14076,22 +14076,22 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Pragmatismo</t>
+          <t>Crítica de la razón pura : Estética trascendental y analítica trascendental</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>James, William (1842-1910); Rodríguez Aranda, Luis (trad.)</t>
+          <t>Kant, Immanuel (1724-1804); Romero, Francisco (1891-1962) (prol.)</t>
         </is>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Aguilar</t>
+          <t>Losada</t>
         </is>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1957</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -14101,7 +14101,7 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PRAGMATISMO FILOSOFIA</t>
+          <t>KANT FILOSOFIA-KANT IMMANUEL -</t>
         </is>
       </c>
       <c r="I291" t="inlineStr">
@@ -14113,7 +14113,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>950-577-008-2</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -14123,22 +14123,22 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>La filosofía desde el punto de vista de la existencia</t>
+          <t>Por qué no es inútil una nueva crítica de la razón pura : Respuesta a Eberhard</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>Jaspers, Karl (1883-1969)</t>
+          <t>Kant, Immanuel (1724-1804); Castaño Piñán, Alfonso (trad. y prol.)</t>
         </is>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Fondo de Cultura Económica</t>
+          <t>Aguilar</t>
         </is>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1968</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -14148,7 +14148,7 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>JASPERS  FILOSOFIA-JASPERS KARL - EXISTENCIALISMO FILOSOFIA</t>
+          <t>KANT FILOSOFIA-KANT IMMANUEL -</t>
         </is>
       </c>
       <c r="I292" t="inlineStr">
@@ -14160,32 +14160,32 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>950-46-0108-1</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Historia 2</t>
+          <t>Lírica</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>Jáuregui, Aníbal Pablo; González, Alba Susana; Fradkin, Raúl Osvaldo</t>
+          <t>Juan de la Cruz, Santo (1542-1591)</t>
         </is>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Santillana</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>1975</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -14195,7 +14195,7 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HISTORIA MODERNA HISTORIA CONTEMPORANEA</t>
+          <t>- LITERATURA ESPAÑOLA-POESIA</t>
         </is>
       </c>
       <c r="I293" t="inlineStr">
@@ -14207,7 +14207,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>950-46-0126-X</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -14217,22 +14217,22 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Historia 3</t>
+          <t>Historia de los monumentos y esculturas de Buenos Aires : Plaza San Martín, Plaza Lavalle, Parque Lezama</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>Jáuregui, Aníbal Pablo; González, Alba Susana; Fradkin, Raúl Osvaldo</t>
+          <t>Magaz, María del Carmen; Arévalo, María Beatriz</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Santillana</t>
+          <t>Buenos Aires. Instituto Histórico</t>
         </is>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -14242,7 +14242,7 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HISTORIA MODERNA-TEXTO SECUNDARIO HISTORIA CONTEMPORANEA-TEXTO SECUNDARIO</t>
+          <t xml:space="preserve"> HISTORIA-BUENOS AIRES PLAZAS-BUENOS AIRES-HISTORIA MONUMENTOS-BUENOS AIRES-HISTORIA ESCULTURA-BUENOS AIRES-HISTORIA</t>
         </is>
       </c>
       <c r="I294" t="inlineStr">
@@ -14264,22 +14264,22 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>El medio pelo en la sociedad argentina : Apuntes para una sociología nacional</t>
+          <t>La historia de vida</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Jauretche, Arturo (1901-1974)</t>
+          <t>Magrassi, Guillermo E.; Roca, M.M.</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Peña Lillo</t>
+          <t>CEAL</t>
         </is>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -14289,7 +14289,7 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSICOLOGIA SOCIAL-ARGENTINA</t>
+          <t xml:space="preserve"> ETNOLOGIA</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
@@ -14301,7 +14301,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-13-2022-7</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -14311,32 +14311,32 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Ciudadanía e identidad : Las mujeres en los movimientos sociales latinoamericanos</t>
+          <t>Elementos de física y química</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>Jelin, Elizabeth (1941-...)</t>
+          <t>Maiztegui, Alberto P.; Sábato, Jorge A. (1924-1983)</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>UNRID</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>1980</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>Ginebra</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MUJERES-LATINOAMERICA</t>
+          <t xml:space="preserve">  FISICA-TEXTO SECUNDARIO QUIMICA-TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I296" t="inlineStr">
@@ -14348,7 +14348,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-13-2030-8</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -14358,22 +14358,22 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Familia y unidad doméstica : Mundo público y vida privada</t>
+          <t>Física elemental</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Jelin, Elizabeth (1941-...)</t>
+          <t>Maiztegui, Alberto P.; Boido, Guillermo (1941-...)</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>CEDES</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1981</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -14383,7 +14383,7 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FAMILIA ETNOLOGIA</t>
+          <t xml:space="preserve"> FISICA -TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
@@ -14395,7 +14395,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-13-2043-X</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -14405,22 +14405,22 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>La mujer y el mercado de trabajo urbano</t>
+          <t>Introducción a la física</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Jelin, Elizabeth (1941-...)</t>
+          <t>Maiztegui, Alberto P.; Sábato, Jorge A. (1924-1983)</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>CEDES</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -14430,7 +14430,7 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MUJERES-TRABAJO</t>
+          <t xml:space="preserve"> FISICA-TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
@@ -14442,7 +14442,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-13-2023-5</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -14452,22 +14452,22 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Los nuevos movimientos sociales : mujeres, rock nacional</t>
+          <t>Nociones de física y química</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Jelin, Elizabeth (1941-...); Feijoó, María del Carmen; Gogna, Mónica</t>
+          <t>Maiztegui, Alberto P.; Boido, Guillermo (1941-...)</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>CEAL</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -14477,7 +14477,7 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MUJERES</t>
+          <t xml:space="preserve">  FISICA-TEXTO SECUNDARIO QUIMICA-TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -14489,7 +14489,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>950-9522-02-4</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -14499,22 +14499,22 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>La operación psicoanalítica</t>
+          <t>Una teoría científica de la cultura y otros ensayos</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Fernández Couto, Rogelio</t>
+          <t>Malinowski, Bronislaw (1884-1942); Huntington, Cairns (prol.); Cortázar, Augusto Raúl (1910-1974) (trad.)</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Xavier Boveda</t>
+          <t>Sudamericana</t>
         </is>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>1976</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -14524,12 +14524,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSICOANALISIS</t>
+          <t xml:space="preserve"> CULTURA</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>12/03/1996</t>
         </is>
       </c>
     </row>
@@ -14541,49 +14541,49 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>El Conde Lucanor : Selección</t>
+          <t>Totem y tabú</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Juan Manuel, Infante de Castilla (1282-1348); Parula de López Gavinet, Beatriz (colab.)</t>
+          <t>Freud, Sigmund (1856-1939); López-Ballesteros, Luis (trad.)</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Colihue</t>
+          <t>Alianza</t>
         </is>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>- LITERATURA ESPAÑOLA-CUENTO</t>
+          <t xml:space="preserve"> PSICOANALISIS-FREUD SIGMUND -</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>12/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-581-005-0</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -14593,22 +14593,22 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Selección poética</t>
+          <t>Coplas a la muerte del maestre de Santiago, Don Rodrigo Manrique, su padre</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Juana Inés de la Cruz, Sor (1651-1695)</t>
+          <t>Manrique, Jorge (1440-1479)</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Colihue</t>
         </is>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -14618,7 +14618,7 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>- LITERATURA MEXICANA-POESIA</t>
+          <t>- LITERATURA ESPAÑOLA-POESIA</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
@@ -14635,27 +14635,27 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Lo inconsciente : en la vida psíquica normal y patológica</t>
+          <t>Una excursión a los indios ranqueles</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Jung, Carl Gustav (1875-1961); Rodríguez Sadia, Emilio (trad.)</t>
+          <t>Mansilla, Lucio Victorio (1831-1913)</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Losada</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>1966</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -14665,7 +14665,7 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSICOANALISIS</t>
+          <t>- LITERATURA ARGENTINA-NOVELA</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
@@ -14687,22 +14687,22 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Genio y figura de Jorge Luis Borges</t>
+          <t>Manual del alumno 4/7 (Capital Federal)</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Jurado, Alicia (1922-2011)</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Eudeba</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -14712,7 +14712,7 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>BORGES BIOGRAFIAS-BORGES JORGE LUIS -</t>
+          <t xml:space="preserve"> MANUAL NIVEL PRIMARIO- GRADO</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
@@ -14724,42 +14724,42 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>84-226-2203-3</t>
+          <t>950-046-195-2</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>La metamorfosis</t>
+          <t>Manual esencial Santillana 4</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Kafka, Franz (1883-1924); Hernández, José (1834-1886) (il.); Borges, Jorge Luis (1899-1986) (trad.); Nabokov, Vladimir (1899-1977) (not.)</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Círculo de Lectores</t>
+          <t>Santillana</t>
         </is>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>- LITERATURA CHECA-CUENTO</t>
+          <t xml:space="preserve"> MANUAL NIVEL PRIMARIO-º GRADO</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
@@ -14771,7 +14771,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-46-196-0</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -14781,22 +14781,22 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Crítica de la razón pura : Estética trascendental y analítica trascendental</t>
+          <t>Manual esencial Santillana 5</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Kant, Immanuel (1724-1804); Romero, Francisco (1891-1962) (prol.)</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Losada</t>
+          <t>Santillana</t>
         </is>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -14806,7 +14806,7 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>KANT FILOSOFIA-KANT IMMANUEL -</t>
+          <t xml:space="preserve"> MANUAL NIVEL PRIMARIO-º GRADO</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
@@ -14818,7 +14818,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-046-197-9</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -14828,22 +14828,22 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Por qué no es inútil una nueva crítica de la razón pura : Respuesta a Eberhard</t>
+          <t>Manual esencial Santillana 7</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Kant, Immanuel (1724-1804); Castaño Piñán, Alfonso (trad. y prol.)</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Aguilar</t>
+          <t>Santillana</t>
         </is>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -14853,7 +14853,7 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>KANT FILOSOFIA-KANT IMMANUEL -</t>
+          <t xml:space="preserve"> MANUAL NIVEL PRIMARIO-º GRADO</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
@@ -14865,32 +14865,32 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-46-0194-4</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Lírica</t>
+          <t>Manual esencial Santillana 6</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Juan de la Cruz, Santo (1542-1591)</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Santillana</t>
         </is>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>1975</t>
+          <t>1993</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -14900,7 +14900,7 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>- LITERATURA ESPAÑOLA-POESIA</t>
+          <t xml:space="preserve"> MANUAL NIVEL PRIMARIO-º GRADO</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
@@ -14922,32 +14922,32 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Historia de los monumentos y esculturas de Buenos Aires : Plaza San Martín, Plaza Lavalle, Parque Lezama</t>
+          <t>Diccionario politécnico de las lenguas española e inglesa</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Magaz, María del Carmen; Arévalo, María Beatriz</t>
+          <t>Sin responsables</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Buenos Aires. Instituto Histórico</t>
+          <t>Castilla</t>
         </is>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1958</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t xml:space="preserve"> HISTORIA-BUENOS AIRES PLAZAS-BUENOS AIRES-HISTORIA MONUMENTOS-BUENOS AIRES-HISTORIA ESCULTURA-BUENOS AIRES-HISTORIA</t>
+          <t xml:space="preserve"> INGLES-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -14959,7 +14959,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-25-1601-X</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -14969,22 +14969,22 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>La historia de vida</t>
+          <t>Diccionario hípico : Voces y expresiones rioplatenses</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Magrassi, Guillermo E.; Roca, M.M.</t>
+          <t>Barcia, José (1911-1985)</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>CEAL</t>
+          <t>Plus Ultra</t>
         </is>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1978</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -14994,7 +14994,7 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ETNOLOGIA</t>
+          <t xml:space="preserve"> MODISMOS-ARGENTINA-DICCIONARIO ESPAÑOL-MODISMOS HIPISMO-MODISMOS-ARGENTINA-DICCIONARIO MODISMOS-ARGENTINA-HIPISMO-DICCIONARIO</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -15006,46 +15006,54 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>950-13-2030-8</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Elementos de física y química</t>
+          <t>El son entero</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Maiztegui, Alberto P.; Sábato, Jorge A. (1924-1983)</t>
-        </is>
-      </c>
-      <c r="E311" t="inlineStr"/>
+          <t>Guillén, Nicolás (1902-1989)</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>Losada</t>
+        </is>
+      </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="G311" t="inlineStr"/>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>Buenos Aires</t>
+        </is>
+      </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t xml:space="preserve">  FISICA-TEXTO SECUNDARIO QUIMICA-TEXTO SECUNDARIO</t>
+          <t>- LITERATURA CUBANA-POESIA</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>12/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>950-13-2043-X</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
@@ -15055,32 +15063,32 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Física elemental</t>
+          <t>Diccionario de asonantes y consonantes</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Maiztegui, Alberto P.; Boido, Guillermo (1941-...)</t>
+          <t>Benot, Eduardo (1822-1907)</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Juan Muñoz Sánchez</t>
         </is>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>1943</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FISICA -TEXTO SECUNDARIO</t>
+          <t xml:space="preserve"> ESPAÑOL-RIMA-DICCIONARIO RIMA-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -15092,32 +15100,32 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>950-13-2023-5</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Introducción a la física</t>
+          <t>Eufemia</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Maiztegui, Alberto P.; Sábato, Jorge A. (1924-1983)</t>
+          <t>Rueda, Lope de (1510-1565); Timoneda, Joan de (1520-1583) (prol.)</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Espasa-Calpe</t>
         </is>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1944</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -15127,12 +15135,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FISICA-TEXTO SECUNDARIO</t>
+          <t>- LITERATURA ESPAÑOLA-TEATRO</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>12/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
@@ -15149,12 +15157,12 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Nociones de física y química</t>
+          <t>Diccionario de la conjugación : Los 12.000 verbos en castellano</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Maiztegui, Alberto P.; Boido, Guillermo (1941-...)</t>
+          <t>García Elorrio, Aurelio</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -15164,7 +15172,7 @@
       </c>
       <c r="F314" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="G314" t="inlineStr">
@@ -15174,7 +15182,7 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t xml:space="preserve">  FISICA-TEXTO SECUNDARIO QUIMICA-TEXTO SECUNDARIO</t>
+          <t xml:space="preserve"> ESPAÑOL-CONJUGACION-DICCIONARIO</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
@@ -15196,22 +15204,22 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Una teoría científica de la cultura y otros ensayos</t>
+          <t>Diccionario de la conjugación</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>Malinowski, Bronislaw (1884-1942); Huntington, Cairns (prol.); Cortázar, Augusto Raúl (1910-1974) (trad.)</t>
+          <t>García Elorrio, Aurelio</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Sudamericana</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1961</t>
         </is>
       </c>
       <c r="G315" t="inlineStr">
@@ -15221,7 +15229,7 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CULTURA</t>
+          <t xml:space="preserve"> ESPAÑOL-CONJUGACION-DICCIONARIO</t>
         </is>
       </c>
       <c r="I315" t="inlineStr">
@@ -15233,7 +15241,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>950-581-005-0</t>
+          <t>84-249-1332-9</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -15243,22 +15251,22 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Totem y tabú</t>
+          <t>Breve diccionario etimológico de la lengua castellana</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>Freud, Sigmund (1856-1939); López-Ballesteros, Luis (trad.)</t>
+          <t>Corominas, Joan</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Alianza</t>
+          <t>Gredos</t>
         </is>
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="G316" t="inlineStr">
@@ -15268,54 +15276,54 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PSICOANALISIS-FREUD SIGMUND -</t>
+          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO ETIMOLOGIA-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="I316" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>12/03/1996</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>84-249-1321-3</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Coplas a la muerte del maestre de Santiago, Don Rodrigo Manrique, su padre</t>
+          <t>Diccionario crítico etimológico de la lengua castellana</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>Manrique, Jorge (1440-1479)</t>
+          <t>Corominas, Joan</t>
         </is>
       </c>
       <c r="E317" t="inlineStr">
         <is>
-          <t>Colihue</t>
+          <t>Gredos</t>
         </is>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1974</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>- LITERATURA ESPAÑOLA-POESIA</t>
+          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO ETIMOLOGIA-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -15332,37 +15340,37 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Una excursión a los indios ranqueles</t>
+          <t>Diccionario etimológico español e hispánico</t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>Mansilla, Lucio Victorio (1831-1913)</t>
+          <t>García de Diego, Vicente</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Espasa</t>
         </is>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>- LITERATURA ARGENTINA-NOVELA</t>
+          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -15374,7 +15382,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>950-046-195-2</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -15384,32 +15392,32 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Manual del alumno 4/7 (Capital Federal)</t>
+          <t>Diccionario español escolar etimológico</t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Diez Mateo, Félix</t>
         </is>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Fax</t>
         </is>
       </c>
       <c r="F319" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>(19--)</t>
         </is>
       </c>
       <c r="G319" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H319" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MANUAL NIVEL PRIMARIO- GRADO</t>
+          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO</t>
         </is>
       </c>
       <c r="I319" t="inlineStr">
@@ -15421,7 +15429,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>950-46-196-0</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -15431,7 +15439,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Manual esencial Santillana 4</t>
+          <t>Diccionario etimológico de la lengua castellana</t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -15441,12 +15449,12 @@
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Santillana</t>
+          <t>El Ateneo</t>
         </is>
       </c>
       <c r="F320" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1941</t>
         </is>
       </c>
       <c r="G320" t="inlineStr">
@@ -15456,7 +15464,7 @@
       </c>
       <c r="H320" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MANUAL NIVEL PRIMARIO-º GRADO</t>
+          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO ETIMOLOGIA-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="I320" t="inlineStr">
@@ -15468,7 +15476,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>950-046-197-9</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -15478,22 +15486,22 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Manual esencial Santillana 5</t>
+          <t>Diccionario etimológico de la lengua castellana</t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Monlau, Pedro Felipe</t>
         </is>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Santillana</t>
+          <t>Gil</t>
         </is>
       </c>
       <c r="F321" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1946</t>
         </is>
       </c>
       <c r="G321" t="inlineStr">
@@ -15503,7 +15511,7 @@
       </c>
       <c r="H321" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MANUAL NIVEL PRIMARIO-º GRADO</t>
+          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO</t>
         </is>
       </c>
       <c r="I321" t="inlineStr">
@@ -15515,7 +15523,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>950-46-0194-4</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -15525,32 +15533,32 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Manual esencial Santillana 7</t>
+          <t>Diccionario general etimológico de la lengua española</t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Echegaray, Eduardo de</t>
         </is>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Santillana</t>
+          <t>Alvarez, impr.</t>
         </is>
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1898</t>
         </is>
       </c>
       <c r="G322" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MANUAL NIVEL PRIMARIO-º GRADO</t>
+          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO</t>
         </is>
       </c>
       <c r="I322" t="inlineStr">
@@ -15567,27 +15575,27 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Manual esencial Santillana 6</t>
+          <t>Belleza : En verso</t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Jiménez, Juan Ramón (1881-1958)</t>
         </is>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Santillana</t>
+          <t>Losada</t>
         </is>
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>1945</t>
         </is>
       </c>
       <c r="G323" t="inlineStr">
@@ -15597,19 +15605,19 @@
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MANUAL NIVEL PRIMARIO-º GRADO</t>
+          <t>- LITERATURA ESPAÑOLA-POESIA</t>
         </is>
       </c>
       <c r="I323" t="inlineStr">
         <is>
-          <t>12/03/1996</t>
+          <t>.</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>950-25-1601-X</t>
+          <t>.</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -15619,32 +15627,32 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Diccionario politécnico de las lenguas española e inglesa</t>
+          <t>Diccionario ideológico de la lengua española</t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>Sin responsables</t>
+          <t>Casares, Julio</t>
         </is>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Castilla</t>
+          <t>Gili</t>
         </is>
       </c>
       <c r="F324" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="G324" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="H324" t="inlineStr">
         <is>
-          <t xml:space="preserve"> INGLES-ESPAÑOL-DICCIONARIO</t>
+          <t xml:space="preserve"> DICCIONARIO</t>
         </is>
       </c>
       <c r="I324" t="inlineStr">
@@ -15656,7 +15664,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>84-283-1366-0</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -15666,32 +15674,32 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Diccionario hípico : Voces y expresiones rioplatenses</t>
+          <t>Diccionario de métrica española</t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>Barcia, José (1911-1985)</t>
+          <t>Domínguez Caparrós, José</t>
         </is>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Plus Ultra</t>
+          <t>Paraninfo</t>
         </is>
       </c>
       <c r="F325" t="inlineStr">
         <is>
-          <t>1957</t>
+          <t>1985</t>
         </is>
       </c>
       <c r="G325" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Madrid</t>
         </is>
       </c>
       <c r="H325" t="inlineStr">
         <is>
-          <t xml:space="preserve"> MODISMOS-ARGENTINA-DICCIONARIO ESPAÑOL-MODISMOS HIPISMO-MODISMOS-ARGENTINA-DICCIONARIO MODISMOS-ARGENTINA-HIPISMO-DICCIONARIO</t>
+          <t xml:space="preserve"> ESPAÑOL-METRICA-DICCIONARIO METRICA-ESPAÑOL-DICCIONARIO</t>
         </is>
       </c>
       <c r="I325" t="inlineStr">
@@ -15708,27 +15716,27 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>El son entero</t>
+          <t>Diccionario de parónimos castellanos</t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>Guillén, Nicolás (1902-1989)</t>
+          <t>Lazzati, Santiago</t>
         </is>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Losada</t>
+          <t>Sopena</t>
         </is>
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>1971</t>
         </is>
       </c>
       <c r="G326" t="inlineStr">
@@ -15738,19 +15746,19 @@
       </c>
       <c r="H326" t="inlineStr">
         <is>
-          <t>- LITERATURA CUBANA-POESIA</t>
+          <t xml:space="preserve"> ESPAÑOL-PARONIMOS-DICCIONARIO</t>
         </is>
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>12/03/1996</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-13-2067-7</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -15760,32 +15768,32 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Diccionario de asonantes y consonantes</t>
+          <t>Nuevo castellano 1 : Lengua y literatura. Lenguaje y comunicación</t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>Benot, Eduardo (1822-1907)</t>
+          <t>Lacau, María Hortensia (1910-2006); Rosetti, Mabel</t>
         </is>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Juan Muñoz Sánchez</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>1944</t>
+          <t>1983</t>
         </is>
       </c>
       <c r="G327" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPAÑOL-RIMA-DICCIONARIO RIMA-ESPAÑOL-DICCIONARIO</t>
+          <t xml:space="preserve"> CASTELLANO-TEXTO SECUNDARIO LITERATURA -TEXTO SECUNDARIO COMUNICACION-TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I327" t="inlineStr">
@@ -15802,27 +15810,27 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>LITERATURA</t>
+          <t>TEXTO NO LITERARIO</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Eufemia</t>
+          <t>Nuevo castellano 2 : Lengua y literatura. Lenguaje y comunicación</t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>Rueda, Lope de (1510-1565); Timoneda, Joan de (1520-1583) (prol.)</t>
+          <t>Lacau, María Hortensia (1910-2006); Rosetti, Mabel</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>Espasa-Calpe</t>
+          <t>Kapelusz</t>
         </is>
       </c>
       <c r="F328" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="G328" t="inlineStr">
@@ -15832,19 +15840,19 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>- LITERATURA ESPAÑOLA-TEATRO</t>
+          <t xml:space="preserve"> LENGUA -TEXTO SECUNDARIO LITERATURA -TEXTO SECUNDARIO COMUNICACION-TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I328" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>12/03/1996</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>.</t>
+          <t>950-13-2069-3</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -15854,12 +15862,12 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Diccionario de la conjugación : Los 12.000 verbos en castellano</t>
+          <t>Nuevo castellano 3 : Lengua y literatura. Lenguaje y comunicación</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>García Elorrio, Aurelio</t>
+          <t>Lacau, María Hortensia (1910-2006); Rosetti, Mabel</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
@@ -15869,7 +15877,7 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>1982</t>
         </is>
       </c>
       <c r="G329" t="inlineStr">
@@ -15879,7 +15887,7 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPAÑOL-CONJUGACION-DICCIONARIO</t>
+          <t xml:space="preserve"> LENGUA -TEXTO SECUNDARIO COMUNICACION-TEXTO SECUNDARIO LITERATURA -TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I329" t="inlineStr">
@@ -15891,7 +15899,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>84-249-1332-9</t>
+          <t>950-46-0121-9</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -15901,22 +15909,22 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Diccionario de la conjugación</t>
+          <t>Ciencias biológicas 3</t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>García Elorrio, Aurelio</t>
+          <t>Rubel, Diana Nora; Guahnon, Esther Liliana; Lacreu, Laura Irene</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Kapelusz</t>
+          <t>Santillana</t>
         </is>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>1990</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
@@ -15926,7 +15934,7 @@
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPAÑOL-CONJUGACION-DICCIONARIO</t>
+          <t xml:space="preserve"> BIOLOGIA-TEXTO SECUNDARIO</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -15938,703 +15946,45 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>84-249-1321-3</t>
+          <t>950-581-039-5</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>TEXTO NO LITERARIO</t>
+          <t>LITERATURA</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Breve diccionario etimológico de la lengua castellana</t>
+          <t>Las de Barranco</t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>Corominas, Joan</t>
+          <t>Laferrére, Gregorio de (1867-1913)</t>
         </is>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Gredos</t>
+          <t>Colihue</t>
         </is>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>1988</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO ETIMOLOGIA-ESPAÑOL-DICCIONARIO</t>
+          <t>- LITERATURA ARGENTINA-TEATRO</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
-        <is>
-          <t>12/03/1996</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>TEXTO NO LITERARIO</t>
-        </is>
-      </c>
-      <c r="C332" t="inlineStr">
-        <is>
-          <t>Diccionario crítico etimológico de la lengua castellana</t>
-        </is>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>Corominas, Joan</t>
-        </is>
-      </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>Gredos</t>
-        </is>
-      </c>
-      <c r="F332" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="G332" t="inlineStr">
-        <is>
-          <t>Madrid</t>
-        </is>
-      </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO ETIMOLOGIA-ESPAÑOL-DICCIONARIO</t>
-        </is>
-      </c>
-      <c r="I332" t="inlineStr">
-        <is>
-          <t>12/03/1996</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>TEXTO NO LITERARIO</t>
-        </is>
-      </c>
-      <c r="C333" t="inlineStr">
-        <is>
-          <t>Diccionario etimológico español e hispánico</t>
-        </is>
-      </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>García de Diego, Vicente</t>
-        </is>
-      </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>Espasa</t>
-        </is>
-      </c>
-      <c r="F333" t="inlineStr">
-        <is>
-          <t>(19--)</t>
-        </is>
-      </c>
-      <c r="G333" t="inlineStr">
-        <is>
-          <t>Madrid</t>
-        </is>
-      </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO</t>
-        </is>
-      </c>
-      <c r="I333" t="inlineStr">
-        <is>
-          <t>12/03/1996</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>TEXTO NO LITERARIO</t>
-        </is>
-      </c>
-      <c r="C334" t="inlineStr">
-        <is>
-          <t>Diccionario español escolar etimológico</t>
-        </is>
-      </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>Diez Mateo, Félix</t>
-        </is>
-      </c>
-      <c r="E334" t="inlineStr">
-        <is>
-          <t>Fax</t>
-        </is>
-      </c>
-      <c r="F334" t="inlineStr">
-        <is>
-          <t>1941</t>
-        </is>
-      </c>
-      <c r="G334" t="inlineStr">
-        <is>
-          <t>Madrid</t>
-        </is>
-      </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO</t>
-        </is>
-      </c>
-      <c r="I334" t="inlineStr">
-        <is>
-          <t>12/03/1996</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>TEXTO NO LITERARIO</t>
-        </is>
-      </c>
-      <c r="C335" t="inlineStr">
-        <is>
-          <t>Diccionario etimológico de la lengua castellana</t>
-        </is>
-      </c>
-      <c r="D335" t="inlineStr">
-        <is>
-          <t>Sin responsables</t>
-        </is>
-      </c>
-      <c r="E335" t="inlineStr">
-        <is>
-          <t>El Ateneo</t>
-        </is>
-      </c>
-      <c r="F335" t="inlineStr">
-        <is>
-          <t>1946</t>
-        </is>
-      </c>
-      <c r="G335" t="inlineStr">
-        <is>
-          <t>Buenos Aires</t>
-        </is>
-      </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO ETIMOLOGIA-ESPAÑOL-DICCIONARIO</t>
-        </is>
-      </c>
-      <c r="I335" t="inlineStr">
-        <is>
-          <t>12/03/1996</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>TEXTO NO LITERARIO</t>
-        </is>
-      </c>
-      <c r="C336" t="inlineStr">
-        <is>
-          <t>Diccionario etimológico de la lengua castellana</t>
-        </is>
-      </c>
-      <c r="D336" t="inlineStr">
-        <is>
-          <t>Monlau, Pedro Felipe</t>
-        </is>
-      </c>
-      <c r="E336" t="inlineStr">
-        <is>
-          <t>Gil</t>
-        </is>
-      </c>
-      <c r="F336" t="inlineStr">
-        <is>
-          <t>1898</t>
-        </is>
-      </c>
-      <c r="G336" t="inlineStr">
-        <is>
-          <t>Buenos Aires</t>
-        </is>
-      </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO</t>
-        </is>
-      </c>
-      <c r="I336" t="inlineStr">
-        <is>
-          <t>12/03/1996</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>TEXTO NO LITERARIO</t>
-        </is>
-      </c>
-      <c r="C337" t="inlineStr">
-        <is>
-          <t>Diccionario general etimológico de la lengua española</t>
-        </is>
-      </c>
-      <c r="D337" t="inlineStr">
-        <is>
-          <t>Echegaray, Eduardo de</t>
-        </is>
-      </c>
-      <c r="E337" t="inlineStr">
-        <is>
-          <t>Alvarez, impr.</t>
-        </is>
-      </c>
-      <c r="F337" t="inlineStr">
-        <is>
-          <t>1945</t>
-        </is>
-      </c>
-      <c r="G337" t="inlineStr">
-        <is>
-          <t>Madrid</t>
-        </is>
-      </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ESPAÑOL-ETIMOLOGIA-DICCIONARIO</t>
-        </is>
-      </c>
-      <c r="I337" t="inlineStr">
-        <is>
-          <t>12/03/1996</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>LITERATURA</t>
-        </is>
-      </c>
-      <c r="C338" t="inlineStr">
-        <is>
-          <t>Belleza : En verso</t>
-        </is>
-      </c>
-      <c r="D338" t="inlineStr">
-        <is>
-          <t>Jiménez, Juan Ramón (1881-1958)</t>
-        </is>
-      </c>
-      <c r="E338" t="inlineStr">
-        <is>
-          <t>Losada</t>
-        </is>
-      </c>
-      <c r="F338" t="inlineStr">
-        <is>
-          <t>1948</t>
-        </is>
-      </c>
-      <c r="G338" t="inlineStr">
-        <is>
-          <t>Buenos Aires</t>
-        </is>
-      </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>- LITERATURA ESPAÑOLA-POESIA</t>
-        </is>
-      </c>
-      <c r="I338" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>84-283-1366-0</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>TEXTO NO LITERARIO</t>
-        </is>
-      </c>
-      <c r="C339" t="inlineStr">
-        <is>
-          <t>Diccionario ideológico de la lengua española</t>
-        </is>
-      </c>
-      <c r="D339" t="inlineStr">
-        <is>
-          <t>Casares, Julio</t>
-        </is>
-      </c>
-      <c r="E339" t="inlineStr">
-        <is>
-          <t>Gili</t>
-        </is>
-      </c>
-      <c r="F339" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="G339" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DICCIONARIO</t>
-        </is>
-      </c>
-      <c r="I339" t="inlineStr">
-        <is>
-          <t>12/03/1996</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>TEXTO NO LITERARIO</t>
-        </is>
-      </c>
-      <c r="C340" t="inlineStr">
-        <is>
-          <t>Diccionario de métrica española</t>
-        </is>
-      </c>
-      <c r="D340" t="inlineStr">
-        <is>
-          <t>Domínguez Caparrós, José</t>
-        </is>
-      </c>
-      <c r="E340" t="inlineStr">
-        <is>
-          <t>Paraninfo</t>
-        </is>
-      </c>
-      <c r="F340" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="G340" t="inlineStr">
-        <is>
-          <t>Madrid</t>
-        </is>
-      </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ESPAÑOL-METRICA-DICCIONARIO METRICA-ESPAÑOL-DICCIONARIO</t>
-        </is>
-      </c>
-      <c r="I340" t="inlineStr">
-        <is>
-          <t>12/03/1996</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>950-13-2067-7</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>TEXTO NO LITERARIO</t>
-        </is>
-      </c>
-      <c r="C341" t="inlineStr">
-        <is>
-          <t>Diccionario de parónimos castellanos</t>
-        </is>
-      </c>
-      <c r="D341" t="inlineStr">
-        <is>
-          <t>Lazzati, Santiago</t>
-        </is>
-      </c>
-      <c r="E341" t="inlineStr">
-        <is>
-          <t>Sopena</t>
-        </is>
-      </c>
-      <c r="F341" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="G341" t="inlineStr">
-        <is>
-          <t>Buenos Aires</t>
-        </is>
-      </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ESPAÑOL-PARONIMOS-DICCIONARIO</t>
-        </is>
-      </c>
-      <c r="I341" t="inlineStr">
-        <is>
-          <t>12/03/1996</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>.</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>TEXTO NO LITERARIO</t>
-        </is>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>Nuevo castellano 1 : Lengua y literatura. Lenguaje y comunicación</t>
-        </is>
-      </c>
-      <c r="D342" t="inlineStr">
-        <is>
-          <t>Lacau, María Hortensia (1910-2006); Rosetti, Mabel</t>
-        </is>
-      </c>
-      <c r="E342" t="inlineStr">
-        <is>
-          <t>Kapelusz</t>
-        </is>
-      </c>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="G342" t="inlineStr">
-        <is>
-          <t>Buenos Aires</t>
-        </is>
-      </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> CASTELLANO-TEXTO SECUNDARIO LITERATURA -TEXTO SECUNDARIO COMUNICACION-TEXTO SECUNDARIO</t>
-        </is>
-      </c>
-      <c r="I342" t="inlineStr">
-        <is>
-          <t>12/03/1996</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>950-13-2069-3</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>TEXTO NO LITERARIO</t>
-        </is>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>Nuevo castellano 2 : Lengua y literatura. Lenguaje y comunicación</t>
-        </is>
-      </c>
-      <c r="D343" t="inlineStr">
-        <is>
-          <t>Lacau, María Hortensia (1910-2006); Rosetti, Mabel</t>
-        </is>
-      </c>
-      <c r="E343" t="inlineStr">
-        <is>
-          <t>Kapelusz</t>
-        </is>
-      </c>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="G343" t="inlineStr">
-        <is>
-          <t>Buenos Aires</t>
-        </is>
-      </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LENGUA -TEXTO SECUNDARIO LITERATURA -TEXTO SECUNDARIO COMUNICACION-TEXTO SECUNDARIO</t>
-        </is>
-      </c>
-      <c r="I343" t="inlineStr">
-        <is>
-          <t>12/03/1996</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>950-46-0121-9</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>TEXTO NO LITERARIO</t>
-        </is>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>Nuevo castellano 3 : Lengua y literatura. Lenguaje y comunicación</t>
-        </is>
-      </c>
-      <c r="D344" t="inlineStr">
-        <is>
-          <t>Lacau, María Hortensia (1910-2006); Rosetti, Mabel</t>
-        </is>
-      </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>Kapelusz</t>
-        </is>
-      </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="G344" t="inlineStr">
-        <is>
-          <t>Buenos Aires</t>
-        </is>
-      </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> LENGUA -TEXTO SECUNDARIO COMUNICACION-TEXTO SECUNDARIO LITERATURA -TEXTO SECUNDARIO</t>
-        </is>
-      </c>
-      <c r="I344" t="inlineStr">
-        <is>
-          <t>12/03/1996</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>950-581-039-5</t>
-        </is>
-      </c>
-      <c r="B345" t="inlineStr">
-        <is>
-          <t>TEXTO NO LITERARIO</t>
-        </is>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>Ciencias biológicas 3</t>
-        </is>
-      </c>
-      <c r="D345" t="inlineStr">
-        <is>
-          <t>Rubel, Diana Nora; Guahnon, Esther Liliana; Lacreu, Laura Irene</t>
-        </is>
-      </c>
-      <c r="E345" t="inlineStr">
-        <is>
-          <t>Santillana</t>
-        </is>
-      </c>
-      <c r="F345" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="G345" t="inlineStr">
-        <is>
-          <t>Buenos Aires</t>
-        </is>
-      </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> BIOLOGIA-TEXTO SECUNDARIO</t>
-        </is>
-      </c>
-      <c r="I345" t="inlineStr">
         <is>
           <t>12/03/1996</t>
         </is>
